--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1116,7 +1116,10 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5" t="str">
+        <f>A15</f>
+        <v>lcp:LifeCyclePhase</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1145,7 +1148,10 @@
         <v>43</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="str">
+        <f t="shared" ref="G17:G21" si="2">$A$16</f>
+        <v>lcp:Preparation</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1174,7 +1180,10 @@
         <v>47</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>lcp:Preparation</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1204,7 +1213,10 @@
         <v>51</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>lcp:Preparation</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1233,7 +1245,10 @@
         <v>55</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>lcp:Preparation</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1262,7 +1277,10 @@
         <v>59</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>lcp:Preparation</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1287,7 +1305,10 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5" t="str">
+        <f>A15</f>
+        <v>lcp:LifeCyclePhase</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1316,7 +1337,10 @@
         <v>65</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="str">
+        <f t="shared" ref="G23:G25" si="3">$A$22</f>
+        <v>lcp:Usage</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1345,7 +1369,10 @@
         <v>69</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>lcp:Usage</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1374,7 +1401,10 @@
         <v>73</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>lcp:Usage</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1398,7 +1428,10 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5" t="str">
+        <f>A15</f>
+        <v>lcp:LifeCyclePhase</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1427,7 +1460,10 @@
         <v>79</v>
       </c>
       <c r="F27" s="18"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="str">
+        <f t="shared" ref="G27:G28" si="4">$A$26</f>
+        <v>lcp:Decommissioning</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -1456,7 +1492,10 @@
         <v>83</v>
       </c>
       <c r="F28" s="18"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>lcp:Decommissioning</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -2622,7 +2661,7 @@
     </row>
     <row r="149">
       <c r="A149" s="3" t="str">
-        <f t="shared" ref="A149:A150" si="2">IF(ISBLANK($B149),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B149," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <f t="shared" ref="A149:A150" si="5">IF(ISBLANK($B149),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B149," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
         <v/>
       </c>
       <c r="B149" s="21"/>
@@ -2630,7 +2669,7 @@
     </row>
     <row r="150">
       <c r="A150" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E150" s="31"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -16,7 +16,7 @@
     <t>ConceptScheme URI</t>
   </si>
   <si>
-    <t>https://www.ieawindtask43.org/ontoforge/life-cycle-phase-process-taxonomy/</t>
+    <t>https://www.ieawindtask43.org/ontoforge/life-cycle-phase-din-spec-91303/</t>
   </si>
   <si>
     <t>PREFIX</t>
@@ -777,7 +777,7 @@
       </c>
       <c r="C2" s="2" t="str">
         <f>B1</f>
-        <v>https://www.ieawindtask43.org/ontoforge/life-cycle-phase-process-taxonomy/</v>
+        <v>https://www.ieawindtask43.org/ontoforge/life-cycle-phase-din-spec-91303/</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -58,7 +58,7 @@
     <t>dct:creator</t>
   </si>
   <si>
-    <t>IEA Wind Task 43</t>
+    <t xml:space="preserve">Deutsche Institut für Normung e. V. </t>
   </si>
   <si>
     <t>dct:contributor</t>
@@ -161,16 +161,14 @@
 Engineering Windpark bis zur Baugenehmigung.</t>
   </si>
   <si>
-    <t>Purchase / 
-Fabrication</t>
+    <t>Purchase / Fabrication</t>
   </si>
   <si>
     <t>Manufacturing and supervision, purchase of components, assembly of sub-systems, delivery.
 Purchase contract, contract for grid connection, insurance.</t>
   </si>
   <si>
-    <t>Beschaffung /
-Fertigung</t>
+    <t>Beschaffung / Fertigung</t>
   </si>
   <si>
     <t>Fertigung und Überwachung, Einkauf aller Komponenten, Zusammenbau der Sub-Systeme zur Auslieferung.
@@ -299,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -367,11 +365,6 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="&quot;docs-Calibri&quot;"/>
     </font>
     <font>
@@ -421,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -491,32 +484,29 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -737,7 +727,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="26.25"/>
     <col customWidth="1" min="2" max="2" width="39.0"/>
-    <col customWidth="1" min="3" max="3" width="63.5"/>
+    <col customWidth="1" min="3" max="3" width="63.25"/>
     <col customWidth="1" min="4" max="4" width="23.5"/>
     <col customWidth="1" min="5" max="5" width="47.5"/>
     <col customWidth="1" min="6" max="6" width="23.5"/>
@@ -1197,13 +1187,12 @@
     <row r="19">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcp:PurchaseDiv
-Fabrication</v>
+        <v>lcp:PurchaseDivFabrication</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1330,7 +1319,7 @@
       <c r="C23" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -1356,7 +1345,7 @@
         <f t="shared" si="1"/>
         <v>lcp:Maintenance</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="21" t="s">
@@ -1388,7 +1377,7 @@
         <f t="shared" si="1"/>
         <v>lcp:Shutdown</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -1397,7 +1386,7 @@
       <c r="D25" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>73</v>
       </c>
       <c r="F25" s="5"/>
@@ -1423,7 +1412,7 @@
       <c r="B26" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="25" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="4"/>
@@ -1447,13 +1436,13 @@
         <f t="shared" si="1"/>
         <v>lcp:Planningofdismantling</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -1479,13 +1468,13 @@
         <f t="shared" si="1"/>
         <v>lcp:Dismantling</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="26" t="s">
         <v>82</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -1515,16 +1504,16 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="28"/>
+      <c r="K29" s="27"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="29"/>
+      <c r="M29" s="28"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
-      <c r="B30" s="30"/>
+      <c r="B30" s="29"/>
       <c r="D30" s="18"/>
       <c r="E30" s="4"/>
       <c r="F30" s="18"/>
@@ -1532,9 +1521,9 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="28"/>
+      <c r="K30" s="27"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="29"/>
+      <c r="M30" s="28"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -1548,9 +1537,9 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="28"/>
+      <c r="K31" s="27"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="29"/>
+      <c r="M31" s="28"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -1564,9 +1553,9 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="28"/>
+      <c r="K32" s="27"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="29"/>
+      <c r="M32" s="28"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -1580,9 +1569,9 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="28"/>
+      <c r="K33" s="27"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="29"/>
+      <c r="M33" s="28"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -1596,9 +1585,9 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="28"/>
+      <c r="K34" s="27"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="29"/>
+      <c r="M34" s="28"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -1612,9 +1601,9 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="28"/>
+      <c r="K35" s="27"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="29"/>
+      <c r="M35" s="28"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -1641,9 +1630,9 @@
       <c r="A37" s="1"/>
       <c r="B37" s="16"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="27"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="27"/>
+      <c r="F37" s="26"/>
       <c r="G37" s="5"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1713,9 +1702,9 @@
       <c r="A41" s="1"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
-      <c r="D41" s="27"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="27"/>
+      <c r="F41" s="26"/>
       <c r="G41" s="5"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -1784,9 +1773,9 @@
     <row r="45">
       <c r="A45" s="3"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="27"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="27"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="5"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -1835,15 +1824,15 @@
     </row>
     <row r="48">
       <c r="A48" s="3"/>
-      <c r="E48" s="31"/>
+      <c r="E48" s="30"/>
     </row>
     <row r="49">
       <c r="A49" s="3"/>
-      <c r="E49" s="31"/>
+      <c r="E49" s="30"/>
     </row>
     <row r="50">
       <c r="A50" s="3"/>
-      <c r="E50" s="31"/>
+      <c r="E50" s="30"/>
     </row>
     <row r="51">
       <c r="A51" s="3"/>
@@ -1854,16 +1843,16 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="28"/>
+      <c r="K51" s="27"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="29"/>
+      <c r="M51" s="28"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="3"/>
-      <c r="E52" s="31"/>
+      <c r="E52" s="30"/>
     </row>
     <row r="53">
       <c r="A53" s="3"/>
@@ -1874,9 +1863,9 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="28"/>
+      <c r="K53" s="27"/>
       <c r="L53" s="3"/>
-      <c r="M53" s="29"/>
+      <c r="M53" s="28"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
@@ -1890,9 +1879,9 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="28"/>
+      <c r="K54" s="27"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="29"/>
+      <c r="M54" s="28"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
@@ -1906,9 +1895,9 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="28"/>
+      <c r="K55" s="27"/>
       <c r="L55" s="3"/>
-      <c r="M55" s="29"/>
+      <c r="M55" s="28"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
@@ -1922,9 +1911,9 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="28"/>
+      <c r="K56" s="27"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="29"/>
+      <c r="M56" s="28"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
@@ -1938,9 +1927,9 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="28"/>
+      <c r="K57" s="27"/>
       <c r="L57" s="3"/>
-      <c r="M57" s="29"/>
+      <c r="M57" s="28"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
@@ -1954,20 +1943,20 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="28"/>
+      <c r="K58" s="27"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="29"/>
+      <c r="M58" s="28"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="3"/>
-      <c r="E59" s="31"/>
+      <c r="E59" s="30"/>
     </row>
     <row r="60">
       <c r="A60" s="3"/>
-      <c r="E60" s="31"/>
+      <c r="E60" s="30"/>
     </row>
     <row r="61">
       <c r="A61" s="3"/>
@@ -1978,9 +1967,9 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="28"/>
+      <c r="K61" s="27"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="29"/>
+      <c r="M61" s="28"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -1994,16 +1983,16 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="28"/>
+      <c r="K62" s="27"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="29"/>
+      <c r="M62" s="28"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="3"/>
-      <c r="E63" s="31"/>
+      <c r="E63" s="30"/>
     </row>
     <row r="64">
       <c r="A64" s="3"/>
@@ -2014,9 +2003,9 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="28"/>
+      <c r="K64" s="27"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="29"/>
+      <c r="M64" s="28"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
@@ -2030,9 +2019,9 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="28"/>
+      <c r="K65" s="27"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="29"/>
+      <c r="M65" s="28"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
@@ -2046,9 +2035,9 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="28"/>
+      <c r="K66" s="27"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="29"/>
+      <c r="M66" s="28"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
@@ -2062,9 +2051,9 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="28"/>
+      <c r="K67" s="27"/>
       <c r="L67" s="3"/>
-      <c r="M67" s="29"/>
+      <c r="M67" s="28"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
@@ -2078,9 +2067,9 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="28"/>
+      <c r="K68" s="27"/>
       <c r="L68" s="3"/>
-      <c r="M68" s="29"/>
+      <c r="M68" s="28"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
@@ -2094,20 +2083,20 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="28"/>
+      <c r="K69" s="27"/>
       <c r="L69" s="3"/>
-      <c r="M69" s="29"/>
+      <c r="M69" s="28"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="3"/>
-      <c r="E70" s="31"/>
+      <c r="E70" s="30"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
-      <c r="B71" s="30"/>
+      <c r="B71" s="29"/>
       <c r="D71" s="18"/>
       <c r="E71" s="4"/>
       <c r="F71" s="18"/>
@@ -2115,16 +2104,16 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="28"/>
+      <c r="K71" s="27"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="29"/>
+      <c r="M71" s="28"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
-      <c r="B72" s="30"/>
+      <c r="B72" s="29"/>
       <c r="D72" s="18"/>
       <c r="E72" s="4"/>
       <c r="F72" s="18"/>
@@ -2132,16 +2121,16 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="28"/>
+      <c r="K72" s="27"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="29"/>
+      <c r="M72" s="28"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="3"/>
-      <c r="E73" s="31"/>
+      <c r="E73" s="30"/>
     </row>
     <row r="74">
       <c r="A74" s="3"/>
@@ -2152,9 +2141,9 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="28"/>
+      <c r="K74" s="27"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="29"/>
+      <c r="M74" s="28"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
@@ -2168,9 +2157,9 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="28"/>
+      <c r="K75" s="27"/>
       <c r="L75" s="3"/>
-      <c r="M75" s="29"/>
+      <c r="M75" s="28"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
@@ -2202,9 +2191,9 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="28"/>
+      <c r="K77" s="27"/>
       <c r="L77" s="3"/>
-      <c r="M77" s="29"/>
+      <c r="M77" s="28"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
@@ -2218,22 +2207,22 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="28"/>
+      <c r="K78" s="27"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="29"/>
+      <c r="M78" s="28"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="3"/>
-      <c r="B79" s="32"/>
-      <c r="E79" s="31"/>
+      <c r="B79" s="31"/>
+      <c r="E79" s="30"/>
     </row>
     <row r="80">
       <c r="A80" s="3"/>
-      <c r="B80" s="32"/>
-      <c r="E80" s="31"/>
+      <c r="B80" s="31"/>
+      <c r="E80" s="30"/>
     </row>
     <row r="81">
       <c r="A81" s="3"/>
@@ -2245,9 +2234,9 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="28"/>
+      <c r="K81" s="27"/>
       <c r="L81" s="3"/>
-      <c r="M81" s="29"/>
+      <c r="M81" s="28"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
@@ -2262,9 +2251,9 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="28"/>
+      <c r="K82" s="27"/>
       <c r="L82" s="3"/>
-      <c r="M82" s="29"/>
+      <c r="M82" s="28"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
@@ -2279,9 +2268,9 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="28"/>
+      <c r="K83" s="27"/>
       <c r="L83" s="3"/>
-      <c r="M83" s="29"/>
+      <c r="M83" s="28"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
@@ -2296,66 +2285,66 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="28"/>
+      <c r="K84" s="27"/>
       <c r="L84" s="3"/>
-      <c r="M84" s="29"/>
+      <c r="M84" s="28"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="3"/>
-      <c r="E85" s="31"/>
+      <c r="E85" s="30"/>
     </row>
     <row r="86">
       <c r="A86" s="3"/>
       <c r="B86" s="5"/>
-      <c r="E86" s="31"/>
+      <c r="E86" s="30"/>
       <c r="G86" s="5"/>
     </row>
     <row r="87">
       <c r="A87" s="3"/>
-      <c r="E87" s="31"/>
+      <c r="E87" s="30"/>
     </row>
     <row r="88">
       <c r="A88" s="3"/>
       <c r="B88" s="5"/>
-      <c r="E88" s="31"/>
+      <c r="E88" s="30"/>
       <c r="G88" s="5"/>
     </row>
     <row r="89">
       <c r="A89" s="3"/>
       <c r="B89" s="5"/>
-      <c r="E89" s="31"/>
+      <c r="E89" s="30"/>
       <c r="G89" s="5"/>
     </row>
     <row r="90">
       <c r="A90" s="3"/>
       <c r="B90" s="5"/>
-      <c r="E90" s="31"/>
+      <c r="E90" s="30"/>
       <c r="G90" s="5"/>
     </row>
     <row r="91">
       <c r="A91" s="1"/>
       <c r="B91" s="13"/>
-      <c r="E91" s="31"/>
+      <c r="E91" s="30"/>
       <c r="G91" s="5"/>
     </row>
     <row r="92">
       <c r="A92" s="1"/>
       <c r="B92" s="13"/>
-      <c r="E92" s="31"/>
+      <c r="E92" s="30"/>
       <c r="G92" s="5"/>
     </row>
     <row r="93">
       <c r="A93" s="1"/>
       <c r="B93" s="13"/>
-      <c r="E93" s="31"/>
+      <c r="E93" s="30"/>
       <c r="G93" s="5"/>
     </row>
     <row r="94">
       <c r="A94" s="3"/>
-      <c r="E94" s="31"/>
+      <c r="E94" s="30"/>
       <c r="G94" s="5"/>
     </row>
     <row r="95">
@@ -2367,87 +2356,87 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="28"/>
+      <c r="K95" s="27"/>
       <c r="L95" s="3"/>
-      <c r="M95" s="29"/>
+      <c r="M95" s="28"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="3"/>
-      <c r="E96" s="31"/>
+      <c r="E96" s="30"/>
       <c r="G96" s="5"/>
     </row>
     <row r="97">
       <c r="A97" s="3"/>
-      <c r="E97" s="31"/>
+      <c r="E97" s="30"/>
     </row>
     <row r="98">
       <c r="A98" s="3"/>
-      <c r="E98" s="31"/>
+      <c r="E98" s="30"/>
       <c r="G98" s="5"/>
     </row>
     <row r="99">
       <c r="A99" s="3"/>
       <c r="B99" s="5"/>
-      <c r="E99" s="31"/>
+      <c r="E99" s="30"/>
       <c r="G99" s="5"/>
     </row>
     <row r="100">
       <c r="A100" s="3"/>
       <c r="B100" s="5"/>
-      <c r="E100" s="31"/>
+      <c r="E100" s="30"/>
       <c r="G100" s="5"/>
     </row>
     <row r="101">
       <c r="A101" s="3"/>
       <c r="B101" s="5"/>
-      <c r="E101" s="31"/>
+      <c r="E101" s="30"/>
       <c r="G101" s="5"/>
     </row>
     <row r="102">
       <c r="A102" s="3"/>
       <c r="B102" s="5"/>
-      <c r="E102" s="31"/>
+      <c r="E102" s="30"/>
       <c r="G102" s="5"/>
     </row>
     <row r="103">
       <c r="A103" s="3"/>
-      <c r="E103" s="31"/>
+      <c r="E103" s="30"/>
     </row>
     <row r="104">
       <c r="A104" s="3"/>
-      <c r="E104" s="31"/>
+      <c r="E104" s="30"/>
     </row>
     <row r="105">
       <c r="A105" s="3"/>
-      <c r="E105" s="31"/>
+      <c r="E105" s="30"/>
     </row>
     <row r="106">
       <c r="A106" s="3"/>
-      <c r="E106" s="31"/>
+      <c r="E106" s="30"/>
       <c r="G106" s="5"/>
     </row>
     <row r="107">
       <c r="A107" s="3"/>
-      <c r="E107" s="31"/>
+      <c r="E107" s="30"/>
     </row>
     <row r="108">
       <c r="A108" s="3"/>
-      <c r="E108" s="31"/>
+      <c r="E108" s="30"/>
     </row>
     <row r="109">
       <c r="A109" s="3"/>
-      <c r="E109" s="31"/>
+      <c r="E109" s="30"/>
     </row>
     <row r="110">
       <c r="A110" s="3"/>
-      <c r="E110" s="31"/>
+      <c r="E110" s="30"/>
     </row>
     <row r="111">
       <c r="A111" s="3"/>
-      <c r="E111" s="31"/>
+      <c r="E111" s="30"/>
       <c r="G111" s="5"/>
     </row>
     <row r="112">
@@ -2461,9 +2450,9 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="28"/>
+      <c r="K112" s="27"/>
       <c r="L112" s="3"/>
-      <c r="M112" s="29"/>
+      <c r="M112" s="28"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
@@ -2479,9 +2468,9 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="28"/>
+      <c r="K113" s="27"/>
       <c r="L113" s="3"/>
-      <c r="M113" s="29"/>
+      <c r="M113" s="28"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
@@ -2497,39 +2486,39 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="28"/>
+      <c r="K114" s="27"/>
       <c r="L114" s="3"/>
-      <c r="M114" s="29"/>
+      <c r="M114" s="28"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="3"/>
-      <c r="E115" s="31"/>
+      <c r="E115" s="30"/>
       <c r="G115" s="5"/>
     </row>
     <row r="116">
       <c r="A116" s="3"/>
-      <c r="E116" s="31"/>
+      <c r="E116" s="30"/>
       <c r="G116" s="5"/>
     </row>
     <row r="117">
       <c r="A117" s="3"/>
-      <c r="E117" s="31"/>
+      <c r="E117" s="30"/>
       <c r="G117" s="5"/>
     </row>
     <row r="118">
       <c r="A118" s="3"/>
-      <c r="E118" s="31"/>
+      <c r="E118" s="30"/>
     </row>
     <row r="119">
       <c r="A119" s="3"/>
-      <c r="E119" s="31"/>
+      <c r="E119" s="30"/>
     </row>
     <row r="120">
       <c r="A120" s="3"/>
-      <c r="E120" s="31"/>
+      <c r="E120" s="30"/>
     </row>
     <row r="121">
       <c r="A121" s="3"/>
@@ -2551,113 +2540,113 @@
     </row>
     <row r="122">
       <c r="A122" s="3"/>
-      <c r="E122" s="31"/>
+      <c r="E122" s="30"/>
     </row>
     <row r="123">
       <c r="A123" s="3"/>
-      <c r="E123" s="31"/>
+      <c r="E123" s="30"/>
     </row>
     <row r="124">
       <c r="A124" s="3"/>
-      <c r="E124" s="31"/>
+      <c r="E124" s="30"/>
     </row>
     <row r="125">
       <c r="A125" s="3"/>
-      <c r="E125" s="31"/>
+      <c r="E125" s="30"/>
     </row>
     <row r="126">
       <c r="A126" s="3"/>
-      <c r="E126" s="31"/>
+      <c r="E126" s="30"/>
     </row>
     <row r="127">
       <c r="A127" s="3"/>
-      <c r="E127" s="31"/>
+      <c r="E127" s="30"/>
     </row>
     <row r="128">
       <c r="A128" s="3"/>
-      <c r="E128" s="31"/>
+      <c r="E128" s="30"/>
       <c r="G128" s="5"/>
     </row>
     <row r="129">
       <c r="A129" s="3"/>
-      <c r="E129" s="31"/>
+      <c r="E129" s="30"/>
     </row>
     <row r="130">
       <c r="A130" s="3"/>
-      <c r="E130" s="31"/>
+      <c r="E130" s="30"/>
       <c r="G130" s="5"/>
     </row>
     <row r="131">
       <c r="A131" s="3"/>
-      <c r="E131" s="31"/>
+      <c r="E131" s="30"/>
     </row>
     <row r="132">
       <c r="A132" s="3"/>
-      <c r="E132" s="31"/>
+      <c r="E132" s="30"/>
     </row>
     <row r="133">
       <c r="A133" s="3"/>
-      <c r="E133" s="31"/>
+      <c r="E133" s="30"/>
     </row>
     <row r="134">
       <c r="A134" s="3"/>
-      <c r="E134" s="31"/>
+      <c r="E134" s="30"/>
     </row>
     <row r="135">
       <c r="A135" s="3"/>
-      <c r="E135" s="31"/>
+      <c r="E135" s="30"/>
     </row>
     <row r="136">
       <c r="A136" s="3"/>
-      <c r="E136" s="31"/>
+      <c r="E136" s="30"/>
     </row>
     <row r="137">
       <c r="A137" s="3"/>
-      <c r="E137" s="31"/>
+      <c r="E137" s="30"/>
     </row>
     <row r="138">
       <c r="A138" s="3"/>
-      <c r="E138" s="31"/>
+      <c r="E138" s="30"/>
     </row>
     <row r="139">
       <c r="A139" s="3"/>
-      <c r="E139" s="31"/>
+      <c r="E139" s="30"/>
     </row>
     <row r="140">
       <c r="A140" s="3"/>
-      <c r="E140" s="31"/>
+      <c r="E140" s="30"/>
     </row>
     <row r="141">
       <c r="A141" s="3"/>
-      <c r="E141" s="31"/>
+      <c r="E141" s="30"/>
     </row>
     <row r="142">
       <c r="A142" s="3"/>
-      <c r="E142" s="31"/>
+      <c r="E142" s="30"/>
     </row>
     <row r="143">
       <c r="A143" s="3"/>
-      <c r="E143" s="31"/>
+      <c r="E143" s="30"/>
     </row>
     <row r="144">
       <c r="A144" s="3"/>
-      <c r="E144" s="31"/>
+      <c r="E144" s="30"/>
     </row>
     <row r="145">
       <c r="A145" s="3"/>
-      <c r="E145" s="31"/>
+      <c r="E145" s="30"/>
     </row>
     <row r="146">
       <c r="A146" s="3"/>
-      <c r="E146" s="31"/>
+      <c r="E146" s="30"/>
     </row>
     <row r="147">
       <c r="A147" s="3"/>
-      <c r="E147" s="31"/>
+      <c r="E147" s="30"/>
     </row>
     <row r="148">
       <c r="A148" s="3"/>
-      <c r="E148" s="31"/>
+      <c r="E148" s="30"/>
     </row>
     <row r="149">
       <c r="A149" s="3" t="str">
@@ -2665,2925 +2654,2925 @@
         <v/>
       </c>
       <c r="B149" s="21"/>
-      <c r="E149" s="31"/>
+      <c r="E149" s="30"/>
     </row>
     <row r="150">
       <c r="A150" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E150" s="31"/>
+      <c r="E150" s="30"/>
     </row>
     <row r="151">
       <c r="A151" s="3"/>
-      <c r="E151" s="31"/>
+      <c r="E151" s="30"/>
     </row>
     <row r="152">
-      <c r="E152" s="31"/>
+      <c r="E152" s="30"/>
     </row>
     <row r="153">
-      <c r="E153" s="31"/>
+      <c r="E153" s="30"/>
     </row>
     <row r="154">
-      <c r="E154" s="31"/>
+      <c r="E154" s="30"/>
     </row>
     <row r="155">
-      <c r="E155" s="31"/>
+      <c r="E155" s="30"/>
     </row>
     <row r="156">
-      <c r="E156" s="31"/>
+      <c r="E156" s="30"/>
     </row>
     <row r="157">
-      <c r="E157" s="31"/>
+      <c r="E157" s="30"/>
     </row>
     <row r="158">
-      <c r="E158" s="31"/>
+      <c r="E158" s="30"/>
     </row>
     <row r="159">
-      <c r="E159" s="31"/>
+      <c r="E159" s="30"/>
     </row>
     <row r="160">
-      <c r="E160" s="31"/>
+      <c r="E160" s="30"/>
     </row>
     <row r="161">
-      <c r="E161" s="31"/>
+      <c r="E161" s="30"/>
     </row>
     <row r="162">
-      <c r="E162" s="31"/>
+      <c r="E162" s="30"/>
     </row>
     <row r="163">
-      <c r="E163" s="31"/>
+      <c r="E163" s="30"/>
     </row>
     <row r="164">
-      <c r="E164" s="31"/>
+      <c r="E164" s="30"/>
     </row>
     <row r="165">
-      <c r="E165" s="31"/>
+      <c r="E165" s="30"/>
     </row>
     <row r="166">
-      <c r="E166" s="31"/>
+      <c r="E166" s="30"/>
     </row>
     <row r="167">
-      <c r="E167" s="31"/>
+      <c r="E167" s="30"/>
     </row>
     <row r="168">
-      <c r="E168" s="31"/>
+      <c r="E168" s="30"/>
     </row>
     <row r="169">
-      <c r="E169" s="31"/>
+      <c r="E169" s="30"/>
     </row>
     <row r="170">
-      <c r="E170" s="31"/>
+      <c r="E170" s="30"/>
     </row>
     <row r="171">
-      <c r="E171" s="31"/>
+      <c r="E171" s="30"/>
     </row>
     <row r="172">
-      <c r="E172" s="31"/>
+      <c r="E172" s="30"/>
     </row>
     <row r="173">
-      <c r="E173" s="31"/>
+      <c r="E173" s="30"/>
     </row>
     <row r="174">
-      <c r="E174" s="31"/>
+      <c r="E174" s="30"/>
     </row>
     <row r="175">
-      <c r="E175" s="31"/>
+      <c r="E175" s="30"/>
     </row>
     <row r="176">
-      <c r="E176" s="31"/>
+      <c r="E176" s="30"/>
     </row>
     <row r="177">
-      <c r="E177" s="31"/>
+      <c r="E177" s="30"/>
     </row>
     <row r="178">
-      <c r="E178" s="31"/>
+      <c r="E178" s="30"/>
     </row>
     <row r="179">
-      <c r="E179" s="31"/>
+      <c r="E179" s="30"/>
     </row>
     <row r="180">
-      <c r="E180" s="31"/>
+      <c r="E180" s="30"/>
     </row>
     <row r="181">
-      <c r="E181" s="31"/>
+      <c r="E181" s="30"/>
     </row>
     <row r="182">
-      <c r="E182" s="31"/>
+      <c r="E182" s="30"/>
     </row>
     <row r="183">
-      <c r="E183" s="31"/>
+      <c r="E183" s="30"/>
     </row>
     <row r="184">
-      <c r="E184" s="31"/>
+      <c r="E184" s="30"/>
     </row>
     <row r="185">
-      <c r="E185" s="31"/>
+      <c r="E185" s="30"/>
     </row>
     <row r="186">
-      <c r="E186" s="31"/>
+      <c r="E186" s="30"/>
     </row>
     <row r="187">
-      <c r="E187" s="31"/>
+      <c r="E187" s="30"/>
     </row>
     <row r="188">
-      <c r="E188" s="31"/>
+      <c r="E188" s="30"/>
     </row>
     <row r="189">
-      <c r="E189" s="31"/>
+      <c r="E189" s="30"/>
     </row>
     <row r="190">
-      <c r="E190" s="31"/>
+      <c r="E190" s="30"/>
     </row>
     <row r="191">
-      <c r="E191" s="31"/>
+      <c r="E191" s="30"/>
     </row>
     <row r="192">
-      <c r="E192" s="31"/>
+      <c r="E192" s="30"/>
     </row>
     <row r="193">
-      <c r="E193" s="31"/>
+      <c r="E193" s="30"/>
     </row>
     <row r="194">
-      <c r="E194" s="31"/>
+      <c r="E194" s="30"/>
     </row>
     <row r="195">
-      <c r="E195" s="31"/>
+      <c r="E195" s="30"/>
     </row>
     <row r="196">
-      <c r="E196" s="31"/>
+      <c r="E196" s="30"/>
     </row>
     <row r="197">
-      <c r="E197" s="31"/>
+      <c r="E197" s="30"/>
     </row>
     <row r="198">
-      <c r="E198" s="31"/>
+      <c r="E198" s="30"/>
     </row>
     <row r="199">
-      <c r="E199" s="31"/>
+      <c r="E199" s="30"/>
     </row>
     <row r="200">
-      <c r="E200" s="31"/>
+      <c r="E200" s="30"/>
     </row>
     <row r="201">
-      <c r="E201" s="31"/>
+      <c r="E201" s="30"/>
     </row>
     <row r="202">
-      <c r="E202" s="31"/>
+      <c r="E202" s="30"/>
     </row>
     <row r="203">
-      <c r="E203" s="31"/>
+      <c r="E203" s="30"/>
     </row>
     <row r="204">
-      <c r="E204" s="31"/>
+      <c r="E204" s="30"/>
     </row>
     <row r="205">
-      <c r="E205" s="31"/>
+      <c r="E205" s="30"/>
     </row>
     <row r="206">
-      <c r="E206" s="31"/>
+      <c r="E206" s="30"/>
     </row>
     <row r="207">
-      <c r="E207" s="31"/>
+      <c r="E207" s="30"/>
     </row>
     <row r="208">
-      <c r="E208" s="31"/>
+      <c r="E208" s="30"/>
     </row>
     <row r="209">
-      <c r="E209" s="31"/>
+      <c r="E209" s="30"/>
     </row>
     <row r="210">
-      <c r="E210" s="31"/>
+      <c r="E210" s="30"/>
     </row>
     <row r="211">
-      <c r="E211" s="31"/>
+      <c r="E211" s="30"/>
     </row>
     <row r="212">
-      <c r="E212" s="31"/>
+      <c r="E212" s="30"/>
     </row>
     <row r="213">
-      <c r="E213" s="31"/>
+      <c r="E213" s="30"/>
     </row>
     <row r="214">
-      <c r="E214" s="31"/>
+      <c r="E214" s="30"/>
     </row>
     <row r="215">
-      <c r="E215" s="31"/>
+      <c r="E215" s="30"/>
     </row>
     <row r="216">
-      <c r="E216" s="31"/>
+      <c r="E216" s="30"/>
     </row>
     <row r="217">
-      <c r="E217" s="31"/>
+      <c r="E217" s="30"/>
     </row>
     <row r="218">
-      <c r="E218" s="31"/>
+      <c r="E218" s="30"/>
     </row>
     <row r="219">
-      <c r="E219" s="31"/>
+      <c r="E219" s="30"/>
     </row>
     <row r="220">
-      <c r="E220" s="31"/>
+      <c r="E220" s="30"/>
     </row>
     <row r="221">
-      <c r="E221" s="31"/>
+      <c r="E221" s="30"/>
     </row>
     <row r="222">
-      <c r="E222" s="31"/>
+      <c r="E222" s="30"/>
     </row>
     <row r="223">
-      <c r="E223" s="31"/>
+      <c r="E223" s="30"/>
     </row>
     <row r="224">
-      <c r="E224" s="31"/>
+      <c r="E224" s="30"/>
     </row>
     <row r="225">
-      <c r="E225" s="31"/>
+      <c r="E225" s="30"/>
     </row>
     <row r="226">
-      <c r="E226" s="31"/>
+      <c r="E226" s="30"/>
     </row>
     <row r="227">
-      <c r="E227" s="31"/>
+      <c r="E227" s="30"/>
     </row>
     <row r="228">
-      <c r="E228" s="31"/>
+      <c r="E228" s="30"/>
     </row>
     <row r="229">
-      <c r="E229" s="31"/>
+      <c r="E229" s="30"/>
     </row>
     <row r="230">
-      <c r="E230" s="31"/>
+      <c r="E230" s="30"/>
     </row>
     <row r="231">
-      <c r="E231" s="31"/>
+      <c r="E231" s="30"/>
     </row>
     <row r="232">
-      <c r="E232" s="31"/>
+      <c r="E232" s="30"/>
     </row>
     <row r="233">
-      <c r="E233" s="31"/>
+      <c r="E233" s="30"/>
     </row>
     <row r="234">
-      <c r="E234" s="31"/>
+      <c r="E234" s="30"/>
     </row>
     <row r="235">
-      <c r="E235" s="31"/>
+      <c r="E235" s="30"/>
     </row>
     <row r="236">
-      <c r="E236" s="31"/>
+      <c r="E236" s="30"/>
     </row>
     <row r="237">
-      <c r="E237" s="31"/>
+      <c r="E237" s="30"/>
     </row>
     <row r="238">
-      <c r="E238" s="31"/>
+      <c r="E238" s="30"/>
     </row>
     <row r="239">
-      <c r="E239" s="31"/>
+      <c r="E239" s="30"/>
     </row>
     <row r="240">
-      <c r="E240" s="31"/>
+      <c r="E240" s="30"/>
     </row>
     <row r="241">
-      <c r="E241" s="31"/>
+      <c r="E241" s="30"/>
     </row>
     <row r="242">
-      <c r="E242" s="31"/>
+      <c r="E242" s="30"/>
     </row>
     <row r="243">
-      <c r="E243" s="31"/>
+      <c r="E243" s="30"/>
     </row>
     <row r="244">
-      <c r="E244" s="31"/>
+      <c r="E244" s="30"/>
     </row>
     <row r="245">
-      <c r="E245" s="31"/>
+      <c r="E245" s="30"/>
     </row>
     <row r="246">
-      <c r="E246" s="31"/>
+      <c r="E246" s="30"/>
     </row>
     <row r="247">
-      <c r="E247" s="31"/>
+      <c r="E247" s="30"/>
     </row>
     <row r="248">
-      <c r="E248" s="31"/>
+      <c r="E248" s="30"/>
     </row>
     <row r="249">
-      <c r="E249" s="31"/>
+      <c r="E249" s="30"/>
     </row>
     <row r="250">
-      <c r="E250" s="31"/>
+      <c r="E250" s="30"/>
     </row>
     <row r="251">
-      <c r="E251" s="31"/>
+      <c r="E251" s="30"/>
     </row>
     <row r="252">
-      <c r="E252" s="31"/>
+      <c r="E252" s="30"/>
     </row>
     <row r="253">
-      <c r="E253" s="31"/>
+      <c r="E253" s="30"/>
     </row>
     <row r="254">
-      <c r="E254" s="31"/>
+      <c r="E254" s="30"/>
     </row>
     <row r="255">
-      <c r="E255" s="31"/>
+      <c r="E255" s="30"/>
     </row>
     <row r="256">
-      <c r="E256" s="31"/>
+      <c r="E256" s="30"/>
     </row>
     <row r="257">
-      <c r="E257" s="31"/>
+      <c r="E257" s="30"/>
     </row>
     <row r="258">
-      <c r="E258" s="31"/>
+      <c r="E258" s="30"/>
     </row>
     <row r="259">
-      <c r="E259" s="31"/>
+      <c r="E259" s="30"/>
     </row>
     <row r="260">
-      <c r="E260" s="31"/>
+      <c r="E260" s="30"/>
     </row>
     <row r="261">
-      <c r="E261" s="31"/>
+      <c r="E261" s="30"/>
     </row>
     <row r="262">
-      <c r="E262" s="31"/>
+      <c r="E262" s="30"/>
     </row>
     <row r="263">
-      <c r="E263" s="31"/>
+      <c r="E263" s="30"/>
     </row>
     <row r="264">
-      <c r="E264" s="31"/>
+      <c r="E264" s="30"/>
     </row>
     <row r="265">
-      <c r="E265" s="31"/>
+      <c r="E265" s="30"/>
     </row>
     <row r="266">
-      <c r="E266" s="31"/>
+      <c r="E266" s="30"/>
     </row>
     <row r="267">
-      <c r="E267" s="31"/>
+      <c r="E267" s="30"/>
     </row>
     <row r="268">
-      <c r="E268" s="31"/>
+      <c r="E268" s="30"/>
     </row>
     <row r="269">
-      <c r="E269" s="31"/>
+      <c r="E269" s="30"/>
     </row>
     <row r="270">
-      <c r="E270" s="31"/>
+      <c r="E270" s="30"/>
     </row>
     <row r="271">
-      <c r="E271" s="31"/>
+      <c r="E271" s="30"/>
     </row>
     <row r="272">
-      <c r="E272" s="31"/>
+      <c r="E272" s="30"/>
     </row>
     <row r="273">
-      <c r="E273" s="31"/>
+      <c r="E273" s="30"/>
     </row>
     <row r="274">
-      <c r="E274" s="31"/>
+      <c r="E274" s="30"/>
     </row>
     <row r="275">
-      <c r="E275" s="31"/>
+      <c r="E275" s="30"/>
     </row>
     <row r="276">
-      <c r="E276" s="31"/>
+      <c r="E276" s="30"/>
     </row>
     <row r="277">
-      <c r="E277" s="31"/>
+      <c r="E277" s="30"/>
     </row>
     <row r="278">
-      <c r="E278" s="31"/>
+      <c r="E278" s="30"/>
     </row>
     <row r="279">
-      <c r="E279" s="31"/>
+      <c r="E279" s="30"/>
     </row>
     <row r="280">
-      <c r="E280" s="31"/>
+      <c r="E280" s="30"/>
     </row>
     <row r="281">
-      <c r="E281" s="31"/>
+      <c r="E281" s="30"/>
     </row>
     <row r="282">
-      <c r="E282" s="31"/>
+      <c r="E282" s="30"/>
     </row>
     <row r="283">
-      <c r="E283" s="31"/>
+      <c r="E283" s="30"/>
     </row>
     <row r="284">
-      <c r="E284" s="31"/>
+      <c r="E284" s="30"/>
     </row>
     <row r="285">
-      <c r="E285" s="31"/>
+      <c r="E285" s="30"/>
     </row>
     <row r="286">
-      <c r="E286" s="31"/>
+      <c r="E286" s="30"/>
     </row>
     <row r="287">
-      <c r="E287" s="31"/>
+      <c r="E287" s="30"/>
     </row>
     <row r="288">
-      <c r="E288" s="31"/>
+      <c r="E288" s="30"/>
     </row>
     <row r="289">
-      <c r="E289" s="31"/>
+      <c r="E289" s="30"/>
     </row>
     <row r="290">
-      <c r="E290" s="31"/>
+      <c r="E290" s="30"/>
     </row>
     <row r="291">
-      <c r="E291" s="31"/>
+      <c r="E291" s="30"/>
     </row>
     <row r="292">
-      <c r="E292" s="31"/>
+      <c r="E292" s="30"/>
     </row>
     <row r="293">
-      <c r="E293" s="31"/>
+      <c r="E293" s="30"/>
     </row>
     <row r="294">
-      <c r="E294" s="31"/>
+      <c r="E294" s="30"/>
     </row>
     <row r="295">
-      <c r="E295" s="31"/>
+      <c r="E295" s="30"/>
     </row>
     <row r="296">
-      <c r="E296" s="31"/>
+      <c r="E296" s="30"/>
     </row>
     <row r="297">
-      <c r="E297" s="31"/>
+      <c r="E297" s="30"/>
     </row>
     <row r="298">
-      <c r="E298" s="31"/>
+      <c r="E298" s="30"/>
     </row>
     <row r="299">
-      <c r="E299" s="31"/>
+      <c r="E299" s="30"/>
     </row>
     <row r="300">
-      <c r="E300" s="31"/>
+      <c r="E300" s="30"/>
     </row>
     <row r="301">
-      <c r="E301" s="31"/>
+      <c r="E301" s="30"/>
     </row>
     <row r="302">
-      <c r="E302" s="31"/>
+      <c r="E302" s="30"/>
     </row>
     <row r="303">
-      <c r="E303" s="31"/>
+      <c r="E303" s="30"/>
     </row>
     <row r="304">
-      <c r="E304" s="31"/>
+      <c r="E304" s="30"/>
     </row>
     <row r="305">
-      <c r="E305" s="31"/>
+      <c r="E305" s="30"/>
     </row>
     <row r="306">
-      <c r="E306" s="31"/>
+      <c r="E306" s="30"/>
     </row>
     <row r="307">
-      <c r="E307" s="31"/>
+      <c r="E307" s="30"/>
     </row>
     <row r="308">
-      <c r="E308" s="31"/>
+      <c r="E308" s="30"/>
     </row>
     <row r="309">
-      <c r="E309" s="31"/>
+      <c r="E309" s="30"/>
     </row>
     <row r="310">
-      <c r="E310" s="31"/>
+      <c r="E310" s="30"/>
     </row>
     <row r="311">
-      <c r="E311" s="31"/>
+      <c r="E311" s="30"/>
     </row>
     <row r="312">
-      <c r="E312" s="31"/>
+      <c r="E312" s="30"/>
     </row>
     <row r="313">
-      <c r="E313" s="31"/>
+      <c r="E313" s="30"/>
     </row>
     <row r="314">
-      <c r="E314" s="31"/>
+      <c r="E314" s="30"/>
     </row>
     <row r="315">
-      <c r="E315" s="31"/>
+      <c r="E315" s="30"/>
     </row>
     <row r="316">
-      <c r="E316" s="31"/>
+      <c r="E316" s="30"/>
     </row>
     <row r="317">
-      <c r="E317" s="31"/>
+      <c r="E317" s="30"/>
     </row>
     <row r="318">
-      <c r="E318" s="31"/>
+      <c r="E318" s="30"/>
     </row>
     <row r="319">
-      <c r="E319" s="31"/>
+      <c r="E319" s="30"/>
     </row>
     <row r="320">
-      <c r="E320" s="31"/>
+      <c r="E320" s="30"/>
     </row>
     <row r="321">
-      <c r="E321" s="31"/>
+      <c r="E321" s="30"/>
     </row>
     <row r="322">
-      <c r="E322" s="31"/>
+      <c r="E322" s="30"/>
     </row>
     <row r="323">
-      <c r="E323" s="31"/>
+      <c r="E323" s="30"/>
     </row>
     <row r="324">
-      <c r="E324" s="31"/>
+      <c r="E324" s="30"/>
     </row>
     <row r="325">
-      <c r="E325" s="31"/>
+      <c r="E325" s="30"/>
     </row>
     <row r="326">
-      <c r="E326" s="31"/>
+      <c r="E326" s="30"/>
     </row>
     <row r="327">
-      <c r="E327" s="31"/>
+      <c r="E327" s="30"/>
     </row>
     <row r="328">
-      <c r="E328" s="31"/>
+      <c r="E328" s="30"/>
     </row>
     <row r="329">
-      <c r="E329" s="31"/>
+      <c r="E329" s="30"/>
     </row>
     <row r="330">
-      <c r="E330" s="31"/>
+      <c r="E330" s="30"/>
     </row>
     <row r="331">
-      <c r="E331" s="31"/>
+      <c r="E331" s="30"/>
     </row>
     <row r="332">
-      <c r="E332" s="31"/>
+      <c r="E332" s="30"/>
     </row>
     <row r="333">
-      <c r="E333" s="31"/>
+      <c r="E333" s="30"/>
     </row>
     <row r="334">
-      <c r="E334" s="31"/>
+      <c r="E334" s="30"/>
     </row>
     <row r="335">
-      <c r="E335" s="31"/>
+      <c r="E335" s="30"/>
     </row>
     <row r="336">
-      <c r="E336" s="31"/>
+      <c r="E336" s="30"/>
     </row>
     <row r="337">
-      <c r="E337" s="31"/>
+      <c r="E337" s="30"/>
     </row>
     <row r="338">
-      <c r="E338" s="31"/>
+      <c r="E338" s="30"/>
     </row>
     <row r="339">
-      <c r="E339" s="31"/>
+      <c r="E339" s="30"/>
     </row>
     <row r="340">
-      <c r="E340" s="31"/>
+      <c r="E340" s="30"/>
     </row>
     <row r="341">
-      <c r="E341" s="31"/>
+      <c r="E341" s="30"/>
     </row>
     <row r="342">
-      <c r="E342" s="31"/>
+      <c r="E342" s="30"/>
     </row>
     <row r="343">
-      <c r="E343" s="31"/>
+      <c r="E343" s="30"/>
     </row>
     <row r="344">
-      <c r="E344" s="31"/>
+      <c r="E344" s="30"/>
     </row>
     <row r="345">
-      <c r="E345" s="31"/>
+      <c r="E345" s="30"/>
     </row>
     <row r="346">
-      <c r="E346" s="31"/>
+      <c r="E346" s="30"/>
     </row>
     <row r="347">
-      <c r="E347" s="31"/>
+      <c r="E347" s="30"/>
     </row>
     <row r="348">
-      <c r="E348" s="31"/>
+      <c r="E348" s="30"/>
     </row>
     <row r="349">
-      <c r="E349" s="31"/>
+      <c r="E349" s="30"/>
     </row>
     <row r="350">
-      <c r="E350" s="31"/>
+      <c r="E350" s="30"/>
     </row>
     <row r="351">
-      <c r="E351" s="31"/>
+      <c r="E351" s="30"/>
     </row>
     <row r="352">
-      <c r="E352" s="31"/>
+      <c r="E352" s="30"/>
     </row>
     <row r="353">
-      <c r="E353" s="31"/>
+      <c r="E353" s="30"/>
     </row>
     <row r="354">
-      <c r="E354" s="31"/>
+      <c r="E354" s="30"/>
     </row>
     <row r="355">
-      <c r="E355" s="31"/>
+      <c r="E355" s="30"/>
     </row>
     <row r="356">
-      <c r="E356" s="31"/>
+      <c r="E356" s="30"/>
     </row>
     <row r="357">
-      <c r="E357" s="31"/>
+      <c r="E357" s="30"/>
     </row>
     <row r="358">
-      <c r="E358" s="31"/>
+      <c r="E358" s="30"/>
     </row>
     <row r="359">
-      <c r="E359" s="31"/>
+      <c r="E359" s="30"/>
     </row>
     <row r="360">
-      <c r="E360" s="31"/>
+      <c r="E360" s="30"/>
     </row>
     <row r="361">
-      <c r="E361" s="31"/>
+      <c r="E361" s="30"/>
     </row>
     <row r="362">
-      <c r="E362" s="31"/>
+      <c r="E362" s="30"/>
     </row>
     <row r="363">
-      <c r="E363" s="31"/>
+      <c r="E363" s="30"/>
     </row>
     <row r="364">
-      <c r="E364" s="31"/>
+      <c r="E364" s="30"/>
     </row>
     <row r="365">
-      <c r="E365" s="31"/>
+      <c r="E365" s="30"/>
     </row>
     <row r="366">
-      <c r="E366" s="31"/>
+      <c r="E366" s="30"/>
     </row>
     <row r="367">
-      <c r="E367" s="31"/>
+      <c r="E367" s="30"/>
     </row>
     <row r="368">
-      <c r="E368" s="31"/>
+      <c r="E368" s="30"/>
     </row>
     <row r="369">
-      <c r="E369" s="31"/>
+      <c r="E369" s="30"/>
     </row>
     <row r="370">
-      <c r="E370" s="31"/>
+      <c r="E370" s="30"/>
     </row>
     <row r="371">
-      <c r="E371" s="31"/>
+      <c r="E371" s="30"/>
     </row>
     <row r="372">
-      <c r="E372" s="31"/>
+      <c r="E372" s="30"/>
     </row>
     <row r="373">
-      <c r="E373" s="31"/>
+      <c r="E373" s="30"/>
     </row>
     <row r="374">
-      <c r="E374" s="31"/>
+      <c r="E374" s="30"/>
     </row>
     <row r="375">
-      <c r="E375" s="31"/>
+      <c r="E375" s="30"/>
     </row>
     <row r="376">
-      <c r="E376" s="31"/>
+      <c r="E376" s="30"/>
     </row>
     <row r="377">
-      <c r="E377" s="31"/>
+      <c r="E377" s="30"/>
     </row>
     <row r="378">
-      <c r="E378" s="31"/>
+      <c r="E378" s="30"/>
     </row>
     <row r="379">
-      <c r="E379" s="31"/>
+      <c r="E379" s="30"/>
     </row>
     <row r="380">
-      <c r="E380" s="31"/>
+      <c r="E380" s="30"/>
     </row>
     <row r="381">
-      <c r="E381" s="31"/>
+      <c r="E381" s="30"/>
     </row>
     <row r="382">
-      <c r="E382" s="31"/>
+      <c r="E382" s="30"/>
     </row>
     <row r="383">
-      <c r="E383" s="31"/>
+      <c r="E383" s="30"/>
     </row>
     <row r="384">
-      <c r="E384" s="31"/>
+      <c r="E384" s="30"/>
     </row>
     <row r="385">
-      <c r="E385" s="31"/>
+      <c r="E385" s="30"/>
     </row>
     <row r="386">
-      <c r="E386" s="31"/>
+      <c r="E386" s="30"/>
     </row>
     <row r="387">
-      <c r="E387" s="31"/>
+      <c r="E387" s="30"/>
     </row>
     <row r="388">
-      <c r="E388" s="31"/>
+      <c r="E388" s="30"/>
     </row>
     <row r="389">
-      <c r="E389" s="31"/>
+      <c r="E389" s="30"/>
     </row>
     <row r="390">
-      <c r="E390" s="31"/>
+      <c r="E390" s="30"/>
     </row>
     <row r="391">
-      <c r="E391" s="31"/>
+      <c r="E391" s="30"/>
     </row>
     <row r="392">
-      <c r="E392" s="31"/>
+      <c r="E392" s="30"/>
     </row>
     <row r="393">
-      <c r="E393" s="31"/>
+      <c r="E393" s="30"/>
     </row>
     <row r="394">
-      <c r="E394" s="31"/>
+      <c r="E394" s="30"/>
     </row>
     <row r="395">
-      <c r="E395" s="31"/>
+      <c r="E395" s="30"/>
     </row>
     <row r="396">
-      <c r="E396" s="31"/>
+      <c r="E396" s="30"/>
     </row>
     <row r="397">
-      <c r="E397" s="31"/>
+      <c r="E397" s="30"/>
     </row>
     <row r="398">
-      <c r="E398" s="31"/>
+      <c r="E398" s="30"/>
     </row>
     <row r="399">
-      <c r="E399" s="31"/>
+      <c r="E399" s="30"/>
     </row>
     <row r="400">
-      <c r="E400" s="31"/>
+      <c r="E400" s="30"/>
     </row>
     <row r="401">
-      <c r="E401" s="31"/>
+      <c r="E401" s="30"/>
     </row>
     <row r="402">
-      <c r="E402" s="31"/>
+      <c r="E402" s="30"/>
     </row>
     <row r="403">
-      <c r="E403" s="31"/>
+      <c r="E403" s="30"/>
     </row>
     <row r="404">
-      <c r="E404" s="31"/>
+      <c r="E404" s="30"/>
     </row>
     <row r="405">
-      <c r="E405" s="31"/>
+      <c r="E405" s="30"/>
     </row>
     <row r="406">
-      <c r="E406" s="31"/>
+      <c r="E406" s="30"/>
     </row>
     <row r="407">
-      <c r="E407" s="31"/>
+      <c r="E407" s="30"/>
     </row>
     <row r="408">
-      <c r="E408" s="31"/>
+      <c r="E408" s="30"/>
     </row>
     <row r="409">
-      <c r="E409" s="31"/>
+      <c r="E409" s="30"/>
     </row>
     <row r="410">
-      <c r="E410" s="31"/>
+      <c r="E410" s="30"/>
     </row>
     <row r="411">
-      <c r="E411" s="31"/>
+      <c r="E411" s="30"/>
     </row>
     <row r="412">
-      <c r="E412" s="31"/>
+      <c r="E412" s="30"/>
     </row>
     <row r="413">
-      <c r="E413" s="31"/>
+      <c r="E413" s="30"/>
     </row>
     <row r="414">
-      <c r="E414" s="31"/>
+      <c r="E414" s="30"/>
     </row>
     <row r="415">
-      <c r="E415" s="31"/>
+      <c r="E415" s="30"/>
     </row>
     <row r="416">
-      <c r="E416" s="31"/>
+      <c r="E416" s="30"/>
     </row>
     <row r="417">
-      <c r="E417" s="31"/>
+      <c r="E417" s="30"/>
     </row>
     <row r="418">
-      <c r="E418" s="31"/>
+      <c r="E418" s="30"/>
     </row>
     <row r="419">
-      <c r="E419" s="31"/>
+      <c r="E419" s="30"/>
     </row>
     <row r="420">
-      <c r="E420" s="31"/>
+      <c r="E420" s="30"/>
     </row>
     <row r="421">
-      <c r="E421" s="31"/>
+      <c r="E421" s="30"/>
     </row>
     <row r="422">
-      <c r="E422" s="31"/>
+      <c r="E422" s="30"/>
     </row>
     <row r="423">
-      <c r="E423" s="31"/>
+      <c r="E423" s="30"/>
     </row>
     <row r="424">
-      <c r="E424" s="31"/>
+      <c r="E424" s="30"/>
     </row>
     <row r="425">
-      <c r="E425" s="31"/>
+      <c r="E425" s="30"/>
     </row>
     <row r="426">
-      <c r="E426" s="31"/>
+      <c r="E426" s="30"/>
     </row>
     <row r="427">
-      <c r="E427" s="31"/>
+      <c r="E427" s="30"/>
     </row>
     <row r="428">
-      <c r="E428" s="31"/>
+      <c r="E428" s="30"/>
     </row>
     <row r="429">
-      <c r="E429" s="31"/>
+      <c r="E429" s="30"/>
     </row>
     <row r="430">
-      <c r="E430" s="31"/>
+      <c r="E430" s="30"/>
     </row>
     <row r="431">
-      <c r="E431" s="31"/>
+      <c r="E431" s="30"/>
     </row>
     <row r="432">
-      <c r="E432" s="31"/>
+      <c r="E432" s="30"/>
     </row>
     <row r="433">
-      <c r="E433" s="31"/>
+      <c r="E433" s="30"/>
     </row>
     <row r="434">
-      <c r="E434" s="31"/>
+      <c r="E434" s="30"/>
     </row>
     <row r="435">
-      <c r="E435" s="31"/>
+      <c r="E435" s="30"/>
     </row>
     <row r="436">
-      <c r="E436" s="31"/>
+      <c r="E436" s="30"/>
     </row>
     <row r="437">
-      <c r="E437" s="31"/>
+      <c r="E437" s="30"/>
     </row>
     <row r="438">
-      <c r="E438" s="31"/>
+      <c r="E438" s="30"/>
     </row>
     <row r="439">
-      <c r="E439" s="31"/>
+      <c r="E439" s="30"/>
     </row>
     <row r="440">
-      <c r="E440" s="31"/>
+      <c r="E440" s="30"/>
     </row>
     <row r="441">
-      <c r="E441" s="31"/>
+      <c r="E441" s="30"/>
     </row>
     <row r="442">
-      <c r="E442" s="31"/>
+      <c r="E442" s="30"/>
     </row>
     <row r="443">
-      <c r="E443" s="31"/>
+      <c r="E443" s="30"/>
     </row>
     <row r="444">
-      <c r="E444" s="31"/>
+      <c r="E444" s="30"/>
     </row>
     <row r="445">
-      <c r="E445" s="31"/>
+      <c r="E445" s="30"/>
     </row>
     <row r="446">
-      <c r="E446" s="31"/>
+      <c r="E446" s="30"/>
     </row>
     <row r="447">
-      <c r="E447" s="31"/>
+      <c r="E447" s="30"/>
     </row>
     <row r="448">
-      <c r="E448" s="31"/>
+      <c r="E448" s="30"/>
     </row>
     <row r="449">
-      <c r="E449" s="31"/>
+      <c r="E449" s="30"/>
     </row>
     <row r="450">
-      <c r="E450" s="31"/>
+      <c r="E450" s="30"/>
     </row>
     <row r="451">
-      <c r="E451" s="31"/>
+      <c r="E451" s="30"/>
     </row>
     <row r="452">
-      <c r="E452" s="31"/>
+      <c r="E452" s="30"/>
     </row>
     <row r="453">
-      <c r="E453" s="31"/>
+      <c r="E453" s="30"/>
     </row>
     <row r="454">
-      <c r="E454" s="31"/>
+      <c r="E454" s="30"/>
     </row>
     <row r="455">
-      <c r="E455" s="31"/>
+      <c r="E455" s="30"/>
     </row>
     <row r="456">
-      <c r="E456" s="31"/>
+      <c r="E456" s="30"/>
     </row>
     <row r="457">
-      <c r="E457" s="31"/>
+      <c r="E457" s="30"/>
     </row>
     <row r="458">
-      <c r="E458" s="31"/>
+      <c r="E458" s="30"/>
     </row>
     <row r="459">
-      <c r="E459" s="31"/>
+      <c r="E459" s="30"/>
     </row>
     <row r="460">
-      <c r="E460" s="31"/>
+      <c r="E460" s="30"/>
     </row>
     <row r="461">
-      <c r="E461" s="31"/>
+      <c r="E461" s="30"/>
     </row>
     <row r="462">
-      <c r="E462" s="31"/>
+      <c r="E462" s="30"/>
     </row>
     <row r="463">
-      <c r="E463" s="31"/>
+      <c r="E463" s="30"/>
     </row>
     <row r="464">
-      <c r="E464" s="31"/>
+      <c r="E464" s="30"/>
     </row>
     <row r="465">
-      <c r="E465" s="31"/>
+      <c r="E465" s="30"/>
     </row>
     <row r="466">
-      <c r="E466" s="31"/>
+      <c r="E466" s="30"/>
     </row>
     <row r="467">
-      <c r="E467" s="31"/>
+      <c r="E467" s="30"/>
     </row>
     <row r="468">
-      <c r="E468" s="31"/>
+      <c r="E468" s="30"/>
     </row>
     <row r="469">
-      <c r="E469" s="31"/>
+      <c r="E469" s="30"/>
     </row>
     <row r="470">
-      <c r="E470" s="31"/>
+      <c r="E470" s="30"/>
     </row>
     <row r="471">
-      <c r="E471" s="31"/>
+      <c r="E471" s="30"/>
     </row>
     <row r="472">
-      <c r="E472" s="31"/>
+      <c r="E472" s="30"/>
     </row>
     <row r="473">
-      <c r="E473" s="31"/>
+      <c r="E473" s="30"/>
     </row>
     <row r="474">
-      <c r="E474" s="31"/>
+      <c r="E474" s="30"/>
     </row>
     <row r="475">
-      <c r="E475" s="31"/>
+      <c r="E475" s="30"/>
     </row>
     <row r="476">
-      <c r="E476" s="31"/>
+      <c r="E476" s="30"/>
     </row>
     <row r="477">
-      <c r="E477" s="31"/>
+      <c r="E477" s="30"/>
     </row>
     <row r="478">
-      <c r="E478" s="31"/>
+      <c r="E478" s="30"/>
     </row>
     <row r="479">
-      <c r="E479" s="31"/>
+      <c r="E479" s="30"/>
     </row>
     <row r="480">
-      <c r="E480" s="31"/>
+      <c r="E480" s="30"/>
     </row>
     <row r="481">
-      <c r="E481" s="31"/>
+      <c r="E481" s="30"/>
     </row>
     <row r="482">
-      <c r="E482" s="31"/>
+      <c r="E482" s="30"/>
     </row>
     <row r="483">
-      <c r="E483" s="31"/>
+      <c r="E483" s="30"/>
     </row>
     <row r="484">
-      <c r="E484" s="31"/>
+      <c r="E484" s="30"/>
     </row>
     <row r="485">
-      <c r="E485" s="31"/>
+      <c r="E485" s="30"/>
     </row>
     <row r="486">
-      <c r="E486" s="31"/>
+      <c r="E486" s="30"/>
     </row>
     <row r="487">
-      <c r="E487" s="31"/>
+      <c r="E487" s="30"/>
     </row>
     <row r="488">
-      <c r="E488" s="31"/>
+      <c r="E488" s="30"/>
     </row>
     <row r="489">
-      <c r="E489" s="31"/>
+      <c r="E489" s="30"/>
     </row>
     <row r="490">
-      <c r="E490" s="31"/>
+      <c r="E490" s="30"/>
     </row>
     <row r="491">
-      <c r="E491" s="31"/>
+      <c r="E491" s="30"/>
     </row>
     <row r="492">
-      <c r="E492" s="31"/>
+      <c r="E492" s="30"/>
     </row>
     <row r="493">
-      <c r="E493" s="31"/>
+      <c r="E493" s="30"/>
     </row>
     <row r="494">
-      <c r="E494" s="31"/>
+      <c r="E494" s="30"/>
     </row>
     <row r="495">
-      <c r="E495" s="31"/>
+      <c r="E495" s="30"/>
     </row>
     <row r="496">
-      <c r="E496" s="31"/>
+      <c r="E496" s="30"/>
     </row>
     <row r="497">
-      <c r="E497" s="31"/>
+      <c r="E497" s="30"/>
     </row>
     <row r="498">
-      <c r="E498" s="31"/>
+      <c r="E498" s="30"/>
     </row>
     <row r="499">
-      <c r="E499" s="31"/>
+      <c r="E499" s="30"/>
     </row>
     <row r="500">
-      <c r="E500" s="31"/>
+      <c r="E500" s="30"/>
     </row>
     <row r="501">
-      <c r="E501" s="31"/>
+      <c r="E501" s="30"/>
     </row>
     <row r="502">
-      <c r="E502" s="31"/>
+      <c r="E502" s="30"/>
     </row>
     <row r="503">
-      <c r="E503" s="31"/>
+      <c r="E503" s="30"/>
     </row>
     <row r="504">
-      <c r="E504" s="31"/>
+      <c r="E504" s="30"/>
     </row>
     <row r="505">
-      <c r="E505" s="31"/>
+      <c r="E505" s="30"/>
     </row>
     <row r="506">
-      <c r="E506" s="31"/>
+      <c r="E506" s="30"/>
     </row>
     <row r="507">
-      <c r="E507" s="31"/>
+      <c r="E507" s="30"/>
     </row>
     <row r="508">
-      <c r="E508" s="31"/>
+      <c r="E508" s="30"/>
     </row>
     <row r="509">
-      <c r="E509" s="31"/>
+      <c r="E509" s="30"/>
     </row>
     <row r="510">
-      <c r="E510" s="31"/>
+      <c r="E510" s="30"/>
     </row>
     <row r="511">
-      <c r="E511" s="31"/>
+      <c r="E511" s="30"/>
     </row>
     <row r="512">
-      <c r="E512" s="31"/>
+      <c r="E512" s="30"/>
     </row>
     <row r="513">
-      <c r="E513" s="31"/>
+      <c r="E513" s="30"/>
     </row>
     <row r="514">
-      <c r="E514" s="31"/>
+      <c r="E514" s="30"/>
     </row>
     <row r="515">
-      <c r="E515" s="31"/>
+      <c r="E515" s="30"/>
     </row>
     <row r="516">
-      <c r="E516" s="31"/>
+      <c r="E516" s="30"/>
     </row>
     <row r="517">
-      <c r="E517" s="31"/>
+      <c r="E517" s="30"/>
     </row>
     <row r="518">
-      <c r="E518" s="31"/>
+      <c r="E518" s="30"/>
     </row>
     <row r="519">
-      <c r="E519" s="31"/>
+      <c r="E519" s="30"/>
     </row>
     <row r="520">
-      <c r="E520" s="31"/>
+      <c r="E520" s="30"/>
     </row>
     <row r="521">
-      <c r="E521" s="31"/>
+      <c r="E521" s="30"/>
     </row>
     <row r="522">
-      <c r="E522" s="31"/>
+      <c r="E522" s="30"/>
     </row>
     <row r="523">
-      <c r="E523" s="31"/>
+      <c r="E523" s="30"/>
     </row>
     <row r="524">
-      <c r="E524" s="31"/>
+      <c r="E524" s="30"/>
     </row>
     <row r="525">
-      <c r="E525" s="31"/>
+      <c r="E525" s="30"/>
     </row>
     <row r="526">
-      <c r="E526" s="31"/>
+      <c r="E526" s="30"/>
     </row>
     <row r="527">
-      <c r="E527" s="31"/>
+      <c r="E527" s="30"/>
     </row>
     <row r="528">
-      <c r="E528" s="31"/>
+      <c r="E528" s="30"/>
     </row>
     <row r="529">
-      <c r="E529" s="31"/>
+      <c r="E529" s="30"/>
     </row>
     <row r="530">
-      <c r="E530" s="31"/>
+      <c r="E530" s="30"/>
     </row>
     <row r="531">
-      <c r="E531" s="31"/>
+      <c r="E531" s="30"/>
     </row>
     <row r="532">
-      <c r="E532" s="31"/>
+      <c r="E532" s="30"/>
     </row>
     <row r="533">
-      <c r="E533" s="31"/>
+      <c r="E533" s="30"/>
     </row>
     <row r="534">
-      <c r="E534" s="31"/>
+      <c r="E534" s="30"/>
     </row>
     <row r="535">
-      <c r="E535" s="31"/>
+      <c r="E535" s="30"/>
     </row>
     <row r="536">
-      <c r="E536" s="31"/>
+      <c r="E536" s="30"/>
     </row>
     <row r="537">
-      <c r="E537" s="31"/>
+      <c r="E537" s="30"/>
     </row>
     <row r="538">
-      <c r="E538" s="31"/>
+      <c r="E538" s="30"/>
     </row>
     <row r="539">
-      <c r="E539" s="31"/>
+      <c r="E539" s="30"/>
     </row>
     <row r="540">
-      <c r="E540" s="31"/>
+      <c r="E540" s="30"/>
     </row>
     <row r="541">
-      <c r="E541" s="31"/>
+      <c r="E541" s="30"/>
     </row>
     <row r="542">
-      <c r="E542" s="31"/>
+      <c r="E542" s="30"/>
     </row>
     <row r="543">
-      <c r="E543" s="31"/>
+      <c r="E543" s="30"/>
     </row>
     <row r="544">
-      <c r="E544" s="31"/>
+      <c r="E544" s="30"/>
     </row>
     <row r="545">
-      <c r="E545" s="31"/>
+      <c r="E545" s="30"/>
     </row>
     <row r="546">
-      <c r="E546" s="31"/>
+      <c r="E546" s="30"/>
     </row>
     <row r="547">
-      <c r="E547" s="31"/>
+      <c r="E547" s="30"/>
     </row>
     <row r="548">
-      <c r="E548" s="31"/>
+      <c r="E548" s="30"/>
     </row>
     <row r="549">
-      <c r="E549" s="31"/>
+      <c r="E549" s="30"/>
     </row>
     <row r="550">
-      <c r="E550" s="31"/>
+      <c r="E550" s="30"/>
     </row>
     <row r="551">
-      <c r="E551" s="31"/>
+      <c r="E551" s="30"/>
     </row>
     <row r="552">
-      <c r="E552" s="31"/>
+      <c r="E552" s="30"/>
     </row>
     <row r="553">
-      <c r="E553" s="31"/>
+      <c r="E553" s="30"/>
     </row>
     <row r="554">
-      <c r="E554" s="31"/>
+      <c r="E554" s="30"/>
     </row>
     <row r="555">
-      <c r="E555" s="31"/>
+      <c r="E555" s="30"/>
     </row>
     <row r="556">
-      <c r="E556" s="31"/>
+      <c r="E556" s="30"/>
     </row>
     <row r="557">
-      <c r="E557" s="31"/>
+      <c r="E557" s="30"/>
     </row>
     <row r="558">
-      <c r="E558" s="31"/>
+      <c r="E558" s="30"/>
     </row>
     <row r="559">
-      <c r="E559" s="31"/>
+      <c r="E559" s="30"/>
     </row>
     <row r="560">
-      <c r="E560" s="31"/>
+      <c r="E560" s="30"/>
     </row>
     <row r="561">
-      <c r="E561" s="31"/>
+      <c r="E561" s="30"/>
     </row>
     <row r="562">
-      <c r="E562" s="31"/>
+      <c r="E562" s="30"/>
     </row>
     <row r="563">
-      <c r="E563" s="31"/>
+      <c r="E563" s="30"/>
     </row>
     <row r="564">
-      <c r="E564" s="31"/>
+      <c r="E564" s="30"/>
     </row>
     <row r="565">
-      <c r="E565" s="31"/>
+      <c r="E565" s="30"/>
     </row>
     <row r="566">
-      <c r="E566" s="31"/>
+      <c r="E566" s="30"/>
     </row>
     <row r="567">
-      <c r="E567" s="31"/>
+      <c r="E567" s="30"/>
     </row>
     <row r="568">
-      <c r="E568" s="31"/>
+      <c r="E568" s="30"/>
     </row>
     <row r="569">
-      <c r="E569" s="31"/>
+      <c r="E569" s="30"/>
     </row>
     <row r="570">
-      <c r="E570" s="31"/>
+      <c r="E570" s="30"/>
     </row>
     <row r="571">
-      <c r="E571" s="31"/>
+      <c r="E571" s="30"/>
     </row>
     <row r="572">
-      <c r="E572" s="31"/>
+      <c r="E572" s="30"/>
     </row>
     <row r="573">
-      <c r="E573" s="31"/>
+      <c r="E573" s="30"/>
     </row>
     <row r="574">
-      <c r="E574" s="31"/>
+      <c r="E574" s="30"/>
     </row>
     <row r="575">
-      <c r="E575" s="31"/>
+      <c r="E575" s="30"/>
     </row>
     <row r="576">
-      <c r="E576" s="31"/>
+      <c r="E576" s="30"/>
     </row>
     <row r="577">
-      <c r="E577" s="31"/>
+      <c r="E577" s="30"/>
     </row>
     <row r="578">
-      <c r="E578" s="31"/>
+      <c r="E578" s="30"/>
     </row>
     <row r="579">
-      <c r="E579" s="31"/>
+      <c r="E579" s="30"/>
     </row>
     <row r="580">
-      <c r="E580" s="31"/>
+      <c r="E580" s="30"/>
     </row>
     <row r="581">
-      <c r="E581" s="31"/>
+      <c r="E581" s="30"/>
     </row>
     <row r="582">
-      <c r="E582" s="31"/>
+      <c r="E582" s="30"/>
     </row>
     <row r="583">
-      <c r="E583" s="31"/>
+      <c r="E583" s="30"/>
     </row>
     <row r="584">
-      <c r="E584" s="31"/>
+      <c r="E584" s="30"/>
     </row>
     <row r="585">
-      <c r="E585" s="31"/>
+      <c r="E585" s="30"/>
     </row>
     <row r="586">
-      <c r="E586" s="31"/>
+      <c r="E586" s="30"/>
     </row>
     <row r="587">
-      <c r="E587" s="31"/>
+      <c r="E587" s="30"/>
     </row>
     <row r="588">
-      <c r="E588" s="31"/>
+      <c r="E588" s="30"/>
     </row>
     <row r="589">
-      <c r="E589" s="31"/>
+      <c r="E589" s="30"/>
     </row>
     <row r="590">
-      <c r="E590" s="31"/>
+      <c r="E590" s="30"/>
     </row>
     <row r="591">
-      <c r="E591" s="31"/>
+      <c r="E591" s="30"/>
     </row>
     <row r="592">
-      <c r="E592" s="31"/>
+      <c r="E592" s="30"/>
     </row>
     <row r="593">
-      <c r="E593" s="31"/>
+      <c r="E593" s="30"/>
     </row>
     <row r="594">
-      <c r="E594" s="31"/>
+      <c r="E594" s="30"/>
     </row>
     <row r="595">
-      <c r="E595" s="31"/>
+      <c r="E595" s="30"/>
     </row>
     <row r="596">
-      <c r="E596" s="31"/>
+      <c r="E596" s="30"/>
     </row>
     <row r="597">
-      <c r="E597" s="31"/>
+      <c r="E597" s="30"/>
     </row>
     <row r="598">
-      <c r="E598" s="31"/>
+      <c r="E598" s="30"/>
     </row>
     <row r="599">
-      <c r="E599" s="31"/>
+      <c r="E599" s="30"/>
     </row>
     <row r="600">
-      <c r="E600" s="31"/>
+      <c r="E600" s="30"/>
     </row>
     <row r="601">
-      <c r="E601" s="31"/>
+      <c r="E601" s="30"/>
     </row>
     <row r="602">
-      <c r="E602" s="31"/>
+      <c r="E602" s="30"/>
     </row>
     <row r="603">
-      <c r="E603" s="31"/>
+      <c r="E603" s="30"/>
     </row>
     <row r="604">
-      <c r="E604" s="31"/>
+      <c r="E604" s="30"/>
     </row>
     <row r="605">
-      <c r="E605" s="31"/>
+      <c r="E605" s="30"/>
     </row>
     <row r="606">
-      <c r="E606" s="31"/>
+      <c r="E606" s="30"/>
     </row>
     <row r="607">
-      <c r="E607" s="31"/>
+      <c r="E607" s="30"/>
     </row>
     <row r="608">
-      <c r="E608" s="31"/>
+      <c r="E608" s="30"/>
     </row>
     <row r="609">
-      <c r="E609" s="31"/>
+      <c r="E609" s="30"/>
     </row>
     <row r="610">
-      <c r="E610" s="31"/>
+      <c r="E610" s="30"/>
     </row>
     <row r="611">
-      <c r="E611" s="31"/>
+      <c r="E611" s="30"/>
     </row>
     <row r="612">
-      <c r="E612" s="31"/>
+      <c r="E612" s="30"/>
     </row>
     <row r="613">
-      <c r="E613" s="31"/>
+      <c r="E613" s="30"/>
     </row>
     <row r="614">
-      <c r="E614" s="31"/>
+      <c r="E614" s="30"/>
     </row>
     <row r="615">
-      <c r="E615" s="31"/>
+      <c r="E615" s="30"/>
     </row>
     <row r="616">
-      <c r="E616" s="31"/>
+      <c r="E616" s="30"/>
     </row>
     <row r="617">
-      <c r="E617" s="31"/>
+      <c r="E617" s="30"/>
     </row>
     <row r="618">
-      <c r="E618" s="31"/>
+      <c r="E618" s="30"/>
     </row>
     <row r="619">
-      <c r="E619" s="31"/>
+      <c r="E619" s="30"/>
     </row>
     <row r="620">
-      <c r="E620" s="31"/>
+      <c r="E620" s="30"/>
     </row>
     <row r="621">
-      <c r="E621" s="31"/>
+      <c r="E621" s="30"/>
     </row>
     <row r="622">
-      <c r="E622" s="31"/>
+      <c r="E622" s="30"/>
     </row>
     <row r="623">
-      <c r="E623" s="31"/>
+      <c r="E623" s="30"/>
     </row>
     <row r="624">
-      <c r="E624" s="31"/>
+      <c r="E624" s="30"/>
     </row>
     <row r="625">
-      <c r="E625" s="31"/>
+      <c r="E625" s="30"/>
     </row>
     <row r="626">
-      <c r="E626" s="31"/>
+      <c r="E626" s="30"/>
     </row>
     <row r="627">
-      <c r="E627" s="31"/>
+      <c r="E627" s="30"/>
     </row>
     <row r="628">
-      <c r="E628" s="31"/>
+      <c r="E628" s="30"/>
     </row>
     <row r="629">
-      <c r="E629" s="31"/>
+      <c r="E629" s="30"/>
     </row>
     <row r="630">
-      <c r="E630" s="31"/>
+      <c r="E630" s="30"/>
     </row>
     <row r="631">
-      <c r="E631" s="31"/>
+      <c r="E631" s="30"/>
     </row>
     <row r="632">
-      <c r="E632" s="31"/>
+      <c r="E632" s="30"/>
     </row>
     <row r="633">
-      <c r="E633" s="31"/>
+      <c r="E633" s="30"/>
     </row>
     <row r="634">
-      <c r="E634" s="31"/>
+      <c r="E634" s="30"/>
     </row>
     <row r="635">
-      <c r="E635" s="31"/>
+      <c r="E635" s="30"/>
     </row>
     <row r="636">
-      <c r="E636" s="31"/>
+      <c r="E636" s="30"/>
     </row>
     <row r="637">
-      <c r="E637" s="31"/>
+      <c r="E637" s="30"/>
     </row>
     <row r="638">
-      <c r="E638" s="31"/>
+      <c r="E638" s="30"/>
     </row>
     <row r="639">
-      <c r="E639" s="31"/>
+      <c r="E639" s="30"/>
     </row>
     <row r="640">
-      <c r="E640" s="31"/>
+      <c r="E640" s="30"/>
     </row>
     <row r="641">
-      <c r="E641" s="31"/>
+      <c r="E641" s="30"/>
     </row>
     <row r="642">
-      <c r="E642" s="31"/>
+      <c r="E642" s="30"/>
     </row>
     <row r="643">
-      <c r="E643" s="31"/>
+      <c r="E643" s="30"/>
     </row>
     <row r="644">
-      <c r="E644" s="31"/>
+      <c r="E644" s="30"/>
     </row>
     <row r="645">
-      <c r="E645" s="31"/>
+      <c r="E645" s="30"/>
     </row>
     <row r="646">
-      <c r="E646" s="31"/>
+      <c r="E646" s="30"/>
     </row>
     <row r="647">
-      <c r="E647" s="31"/>
+      <c r="E647" s="30"/>
     </row>
     <row r="648">
-      <c r="E648" s="31"/>
+      <c r="E648" s="30"/>
     </row>
     <row r="649">
-      <c r="E649" s="31"/>
+      <c r="E649" s="30"/>
     </row>
     <row r="650">
-      <c r="E650" s="31"/>
+      <c r="E650" s="30"/>
     </row>
     <row r="651">
-      <c r="E651" s="31"/>
+      <c r="E651" s="30"/>
     </row>
     <row r="652">
-      <c r="E652" s="31"/>
+      <c r="E652" s="30"/>
     </row>
     <row r="653">
-      <c r="E653" s="31"/>
+      <c r="E653" s="30"/>
     </row>
     <row r="654">
-      <c r="E654" s="31"/>
+      <c r="E654" s="30"/>
     </row>
     <row r="655">
-      <c r="E655" s="31"/>
+      <c r="E655" s="30"/>
     </row>
     <row r="656">
-      <c r="E656" s="31"/>
+      <c r="E656" s="30"/>
     </row>
     <row r="657">
-      <c r="E657" s="31"/>
+      <c r="E657" s="30"/>
     </row>
     <row r="658">
-      <c r="E658" s="31"/>
+      <c r="E658" s="30"/>
     </row>
     <row r="659">
-      <c r="E659" s="31"/>
+      <c r="E659" s="30"/>
     </row>
     <row r="660">
-      <c r="E660" s="31"/>
+      <c r="E660" s="30"/>
     </row>
     <row r="661">
-      <c r="E661" s="31"/>
+      <c r="E661" s="30"/>
     </row>
     <row r="662">
-      <c r="E662" s="31"/>
+      <c r="E662" s="30"/>
     </row>
     <row r="663">
-      <c r="E663" s="31"/>
+      <c r="E663" s="30"/>
     </row>
     <row r="664">
-      <c r="E664" s="31"/>
+      <c r="E664" s="30"/>
     </row>
     <row r="665">
-      <c r="E665" s="31"/>
+      <c r="E665" s="30"/>
     </row>
     <row r="666">
-      <c r="E666" s="31"/>
+      <c r="E666" s="30"/>
     </row>
     <row r="667">
-      <c r="E667" s="31"/>
+      <c r="E667" s="30"/>
     </row>
     <row r="668">
-      <c r="E668" s="31"/>
+      <c r="E668" s="30"/>
     </row>
     <row r="669">
-      <c r="E669" s="31"/>
+      <c r="E669" s="30"/>
     </row>
     <row r="670">
-      <c r="E670" s="31"/>
+      <c r="E670" s="30"/>
     </row>
     <row r="671">
-      <c r="E671" s="31"/>
+      <c r="E671" s="30"/>
     </row>
     <row r="672">
-      <c r="E672" s="31"/>
+      <c r="E672" s="30"/>
     </row>
     <row r="673">
-      <c r="E673" s="31"/>
+      <c r="E673" s="30"/>
     </row>
     <row r="674">
-      <c r="E674" s="31"/>
+      <c r="E674" s="30"/>
     </row>
     <row r="675">
-      <c r="E675" s="31"/>
+      <c r="E675" s="30"/>
     </row>
     <row r="676">
-      <c r="E676" s="31"/>
+      <c r="E676" s="30"/>
     </row>
     <row r="677">
-      <c r="E677" s="31"/>
+      <c r="E677" s="30"/>
     </row>
     <row r="678">
-      <c r="E678" s="31"/>
+      <c r="E678" s="30"/>
     </row>
     <row r="679">
-      <c r="E679" s="31"/>
+      <c r="E679" s="30"/>
     </row>
     <row r="680">
-      <c r="E680" s="31"/>
+      <c r="E680" s="30"/>
     </row>
     <row r="681">
-      <c r="E681" s="31"/>
+      <c r="E681" s="30"/>
     </row>
     <row r="682">
-      <c r="E682" s="31"/>
+      <c r="E682" s="30"/>
     </row>
     <row r="683">
-      <c r="E683" s="31"/>
+      <c r="E683" s="30"/>
     </row>
     <row r="684">
-      <c r="E684" s="31"/>
+      <c r="E684" s="30"/>
     </row>
     <row r="685">
-      <c r="E685" s="31"/>
+      <c r="E685" s="30"/>
     </row>
     <row r="686">
-      <c r="E686" s="31"/>
+      <c r="E686" s="30"/>
     </row>
     <row r="687">
-      <c r="E687" s="31"/>
+      <c r="E687" s="30"/>
     </row>
     <row r="688">
-      <c r="E688" s="31"/>
+      <c r="E688" s="30"/>
     </row>
     <row r="689">
-      <c r="E689" s="31"/>
+      <c r="E689" s="30"/>
     </row>
     <row r="690">
-      <c r="E690" s="31"/>
+      <c r="E690" s="30"/>
     </row>
     <row r="691">
-      <c r="E691" s="31"/>
+      <c r="E691" s="30"/>
     </row>
     <row r="692">
-      <c r="E692" s="31"/>
+      <c r="E692" s="30"/>
     </row>
     <row r="693">
-      <c r="E693" s="31"/>
+      <c r="E693" s="30"/>
     </row>
     <row r="694">
-      <c r="E694" s="31"/>
+      <c r="E694" s="30"/>
     </row>
     <row r="695">
-      <c r="E695" s="31"/>
+      <c r="E695" s="30"/>
     </row>
     <row r="696">
-      <c r="E696" s="31"/>
+      <c r="E696" s="30"/>
     </row>
     <row r="697">
-      <c r="E697" s="31"/>
+      <c r="E697" s="30"/>
     </row>
     <row r="698">
-      <c r="E698" s="31"/>
+      <c r="E698" s="30"/>
     </row>
     <row r="699">
-      <c r="E699" s="31"/>
+      <c r="E699" s="30"/>
     </row>
     <row r="700">
-      <c r="E700" s="31"/>
+      <c r="E700" s="30"/>
     </row>
     <row r="701">
-      <c r="E701" s="31"/>
+      <c r="E701" s="30"/>
     </row>
     <row r="702">
-      <c r="E702" s="31"/>
+      <c r="E702" s="30"/>
     </row>
     <row r="703">
-      <c r="E703" s="31"/>
+      <c r="E703" s="30"/>
     </row>
     <row r="704">
-      <c r="E704" s="31"/>
+      <c r="E704" s="30"/>
     </row>
     <row r="705">
-      <c r="E705" s="31"/>
+      <c r="E705" s="30"/>
     </row>
     <row r="706">
-      <c r="E706" s="31"/>
+      <c r="E706" s="30"/>
     </row>
     <row r="707">
-      <c r="E707" s="31"/>
+      <c r="E707" s="30"/>
     </row>
     <row r="708">
-      <c r="E708" s="31"/>
+      <c r="E708" s="30"/>
     </row>
     <row r="709">
-      <c r="E709" s="31"/>
+      <c r="E709" s="30"/>
     </row>
     <row r="710">
-      <c r="E710" s="31"/>
+      <c r="E710" s="30"/>
     </row>
     <row r="711">
-      <c r="E711" s="31"/>
+      <c r="E711" s="30"/>
     </row>
     <row r="712">
-      <c r="E712" s="31"/>
+      <c r="E712" s="30"/>
     </row>
     <row r="713">
-      <c r="E713" s="31"/>
+      <c r="E713" s="30"/>
     </row>
     <row r="714">
-      <c r="E714" s="31"/>
+      <c r="E714" s="30"/>
     </row>
     <row r="715">
-      <c r="E715" s="31"/>
+      <c r="E715" s="30"/>
     </row>
     <row r="716">
-      <c r="E716" s="31"/>
+      <c r="E716" s="30"/>
     </row>
     <row r="717">
-      <c r="E717" s="31"/>
+      <c r="E717" s="30"/>
     </row>
     <row r="718">
-      <c r="E718" s="31"/>
+      <c r="E718" s="30"/>
     </row>
     <row r="719">
-      <c r="E719" s="31"/>
+      <c r="E719" s="30"/>
     </row>
     <row r="720">
-      <c r="E720" s="31"/>
+      <c r="E720" s="30"/>
     </row>
     <row r="721">
-      <c r="E721" s="31"/>
+      <c r="E721" s="30"/>
     </row>
     <row r="722">
-      <c r="E722" s="31"/>
+      <c r="E722" s="30"/>
     </row>
     <row r="723">
-      <c r="E723" s="31"/>
+      <c r="E723" s="30"/>
     </row>
     <row r="724">
-      <c r="E724" s="31"/>
+      <c r="E724" s="30"/>
     </row>
     <row r="725">
-      <c r="E725" s="31"/>
+      <c r="E725" s="30"/>
     </row>
     <row r="726">
-      <c r="E726" s="31"/>
+      <c r="E726" s="30"/>
     </row>
     <row r="727">
-      <c r="E727" s="31"/>
+      <c r="E727" s="30"/>
     </row>
     <row r="728">
-      <c r="E728" s="31"/>
+      <c r="E728" s="30"/>
     </row>
     <row r="729">
-      <c r="E729" s="31"/>
+      <c r="E729" s="30"/>
     </row>
     <row r="730">
-      <c r="E730" s="31"/>
+      <c r="E730" s="30"/>
     </row>
     <row r="731">
-      <c r="E731" s="31"/>
+      <c r="E731" s="30"/>
     </row>
     <row r="732">
-      <c r="E732" s="31"/>
+      <c r="E732" s="30"/>
     </row>
     <row r="733">
-      <c r="E733" s="31"/>
+      <c r="E733" s="30"/>
     </row>
     <row r="734">
-      <c r="E734" s="31"/>
+      <c r="E734" s="30"/>
     </row>
     <row r="735">
-      <c r="E735" s="31"/>
+      <c r="E735" s="30"/>
     </row>
     <row r="736">
-      <c r="E736" s="31"/>
+      <c r="E736" s="30"/>
     </row>
     <row r="737">
-      <c r="E737" s="31"/>
+      <c r="E737" s="30"/>
     </row>
     <row r="738">
-      <c r="E738" s="31"/>
+      <c r="E738" s="30"/>
     </row>
     <row r="739">
-      <c r="E739" s="31"/>
+      <c r="E739" s="30"/>
     </row>
     <row r="740">
-      <c r="E740" s="31"/>
+      <c r="E740" s="30"/>
     </row>
     <row r="741">
-      <c r="E741" s="31"/>
+      <c r="E741" s="30"/>
     </row>
     <row r="742">
-      <c r="E742" s="31"/>
+      <c r="E742" s="30"/>
     </row>
     <row r="743">
-      <c r="E743" s="31"/>
+      <c r="E743" s="30"/>
     </row>
     <row r="744">
-      <c r="E744" s="31"/>
+      <c r="E744" s="30"/>
     </row>
     <row r="745">
-      <c r="E745" s="31"/>
+      <c r="E745" s="30"/>
     </row>
     <row r="746">
-      <c r="E746" s="31"/>
+      <c r="E746" s="30"/>
     </row>
     <row r="747">
-      <c r="E747" s="31"/>
+      <c r="E747" s="30"/>
     </row>
     <row r="748">
-      <c r="E748" s="31"/>
+      <c r="E748" s="30"/>
     </row>
     <row r="749">
-      <c r="E749" s="31"/>
+      <c r="E749" s="30"/>
     </row>
     <row r="750">
-      <c r="E750" s="31"/>
+      <c r="E750" s="30"/>
     </row>
     <row r="751">
-      <c r="E751" s="31"/>
+      <c r="E751" s="30"/>
     </row>
     <row r="752">
-      <c r="E752" s="31"/>
+      <c r="E752" s="30"/>
     </row>
     <row r="753">
-      <c r="E753" s="31"/>
+      <c r="E753" s="30"/>
     </row>
     <row r="754">
-      <c r="E754" s="31"/>
+      <c r="E754" s="30"/>
     </row>
     <row r="755">
-      <c r="E755" s="31"/>
+      <c r="E755" s="30"/>
     </row>
     <row r="756">
-      <c r="E756" s="31"/>
+      <c r="E756" s="30"/>
     </row>
     <row r="757">
-      <c r="E757" s="31"/>
+      <c r="E757" s="30"/>
     </row>
     <row r="758">
-      <c r="E758" s="31"/>
+      <c r="E758" s="30"/>
     </row>
     <row r="759">
-      <c r="E759" s="31"/>
+      <c r="E759" s="30"/>
     </row>
     <row r="760">
-      <c r="E760" s="31"/>
+      <c r="E760" s="30"/>
     </row>
     <row r="761">
-      <c r="E761" s="31"/>
+      <c r="E761" s="30"/>
     </row>
     <row r="762">
-      <c r="E762" s="31"/>
+      <c r="E762" s="30"/>
     </row>
     <row r="763">
-      <c r="E763" s="31"/>
+      <c r="E763" s="30"/>
     </row>
     <row r="764">
-      <c r="E764" s="31"/>
+      <c r="E764" s="30"/>
     </row>
     <row r="765">
-      <c r="E765" s="31"/>
+      <c r="E765" s="30"/>
     </row>
     <row r="766">
-      <c r="E766" s="31"/>
+      <c r="E766" s="30"/>
     </row>
     <row r="767">
-      <c r="E767" s="31"/>
+      <c r="E767" s="30"/>
     </row>
     <row r="768">
-      <c r="E768" s="31"/>
+      <c r="E768" s="30"/>
     </row>
     <row r="769">
-      <c r="E769" s="31"/>
+      <c r="E769" s="30"/>
     </row>
     <row r="770">
-      <c r="E770" s="31"/>
+      <c r="E770" s="30"/>
     </row>
     <row r="771">
-      <c r="E771" s="31"/>
+      <c r="E771" s="30"/>
     </row>
     <row r="772">
-      <c r="E772" s="31"/>
+      <c r="E772" s="30"/>
     </row>
     <row r="773">
-      <c r="E773" s="31"/>
+      <c r="E773" s="30"/>
     </row>
     <row r="774">
-      <c r="E774" s="31"/>
+      <c r="E774" s="30"/>
     </row>
     <row r="775">
-      <c r="E775" s="31"/>
+      <c r="E775" s="30"/>
     </row>
     <row r="776">
-      <c r="E776" s="31"/>
+      <c r="E776" s="30"/>
     </row>
     <row r="777">
-      <c r="E777" s="31"/>
+      <c r="E777" s="30"/>
     </row>
     <row r="778">
-      <c r="E778" s="31"/>
+      <c r="E778" s="30"/>
     </row>
     <row r="779">
-      <c r="E779" s="31"/>
+      <c r="E779" s="30"/>
     </row>
     <row r="780">
-      <c r="E780" s="31"/>
+      <c r="E780" s="30"/>
     </row>
     <row r="781">
-      <c r="E781" s="31"/>
+      <c r="E781" s="30"/>
     </row>
     <row r="782">
-      <c r="E782" s="31"/>
+      <c r="E782" s="30"/>
     </row>
     <row r="783">
-      <c r="E783" s="31"/>
+      <c r="E783" s="30"/>
     </row>
     <row r="784">
-      <c r="E784" s="31"/>
+      <c r="E784" s="30"/>
     </row>
     <row r="785">
-      <c r="E785" s="31"/>
+      <c r="E785" s="30"/>
     </row>
     <row r="786">
-      <c r="E786" s="31"/>
+      <c r="E786" s="30"/>
     </row>
     <row r="787">
-      <c r="E787" s="31"/>
+      <c r="E787" s="30"/>
     </row>
     <row r="788">
-      <c r="E788" s="31"/>
+      <c r="E788" s="30"/>
     </row>
     <row r="789">
-      <c r="E789" s="31"/>
+      <c r="E789" s="30"/>
     </row>
     <row r="790">
-      <c r="E790" s="31"/>
+      <c r="E790" s="30"/>
     </row>
     <row r="791">
-      <c r="E791" s="31"/>
+      <c r="E791" s="30"/>
     </row>
     <row r="792">
-      <c r="E792" s="31"/>
+      <c r="E792" s="30"/>
     </row>
     <row r="793">
-      <c r="E793" s="31"/>
+      <c r="E793" s="30"/>
     </row>
     <row r="794">
-      <c r="E794" s="31"/>
+      <c r="E794" s="30"/>
     </row>
     <row r="795">
-      <c r="E795" s="31"/>
+      <c r="E795" s="30"/>
     </row>
     <row r="796">
-      <c r="E796" s="31"/>
+      <c r="E796" s="30"/>
     </row>
     <row r="797">
-      <c r="E797" s="31"/>
+      <c r="E797" s="30"/>
     </row>
     <row r="798">
-      <c r="E798" s="31"/>
+      <c r="E798" s="30"/>
     </row>
     <row r="799">
-      <c r="E799" s="31"/>
+      <c r="E799" s="30"/>
     </row>
     <row r="800">
-      <c r="E800" s="31"/>
+      <c r="E800" s="30"/>
     </row>
     <row r="801">
-      <c r="E801" s="31"/>
+      <c r="E801" s="30"/>
     </row>
     <row r="802">
-      <c r="E802" s="31"/>
+      <c r="E802" s="30"/>
     </row>
     <row r="803">
-      <c r="E803" s="31"/>
+      <c r="E803" s="30"/>
     </row>
     <row r="804">
-      <c r="E804" s="31"/>
+      <c r="E804" s="30"/>
     </row>
     <row r="805">
-      <c r="E805" s="31"/>
+      <c r="E805" s="30"/>
     </row>
     <row r="806">
-      <c r="E806" s="31"/>
+      <c r="E806" s="30"/>
     </row>
     <row r="807">
-      <c r="E807" s="31"/>
+      <c r="E807" s="30"/>
     </row>
     <row r="808">
-      <c r="E808" s="31"/>
+      <c r="E808" s="30"/>
     </row>
     <row r="809">
-      <c r="E809" s="31"/>
+      <c r="E809" s="30"/>
     </row>
     <row r="810">
-      <c r="E810" s="31"/>
+      <c r="E810" s="30"/>
     </row>
     <row r="811">
-      <c r="E811" s="31"/>
+      <c r="E811" s="30"/>
     </row>
     <row r="812">
-      <c r="E812" s="31"/>
+      <c r="E812" s="30"/>
     </row>
     <row r="813">
-      <c r="E813" s="31"/>
+      <c r="E813" s="30"/>
     </row>
     <row r="814">
-      <c r="E814" s="31"/>
+      <c r="E814" s="30"/>
     </row>
     <row r="815">
-      <c r="E815" s="31"/>
+      <c r="E815" s="30"/>
     </row>
     <row r="816">
-      <c r="E816" s="31"/>
+      <c r="E816" s="30"/>
     </row>
     <row r="817">
-      <c r="E817" s="31"/>
+      <c r="E817" s="30"/>
     </row>
     <row r="818">
-      <c r="E818" s="31"/>
+      <c r="E818" s="30"/>
     </row>
     <row r="819">
-      <c r="E819" s="31"/>
+      <c r="E819" s="30"/>
     </row>
     <row r="820">
-      <c r="E820" s="31"/>
+      <c r="E820" s="30"/>
     </row>
     <row r="821">
-      <c r="E821" s="31"/>
+      <c r="E821" s="30"/>
     </row>
     <row r="822">
-      <c r="E822" s="31"/>
+      <c r="E822" s="30"/>
     </row>
     <row r="823">
-      <c r="E823" s="31"/>
+      <c r="E823" s="30"/>
     </row>
     <row r="824">
-      <c r="E824" s="31"/>
+      <c r="E824" s="30"/>
     </row>
     <row r="825">
-      <c r="E825" s="31"/>
+      <c r="E825" s="30"/>
     </row>
     <row r="826">
-      <c r="E826" s="31"/>
+      <c r="E826" s="30"/>
     </row>
     <row r="827">
-      <c r="E827" s="31"/>
+      <c r="E827" s="30"/>
     </row>
     <row r="828">
-      <c r="E828" s="31"/>
+      <c r="E828" s="30"/>
     </row>
     <row r="829">
-      <c r="E829" s="31"/>
+      <c r="E829" s="30"/>
     </row>
     <row r="830">
-      <c r="E830" s="31"/>
+      <c r="E830" s="30"/>
     </row>
     <row r="831">
-      <c r="E831" s="31"/>
+      <c r="E831" s="30"/>
     </row>
     <row r="832">
-      <c r="E832" s="31"/>
+      <c r="E832" s="30"/>
     </row>
     <row r="833">
-      <c r="E833" s="31"/>
+      <c r="E833" s="30"/>
     </row>
     <row r="834">
-      <c r="E834" s="31"/>
+      <c r="E834" s="30"/>
     </row>
     <row r="835">
-      <c r="E835" s="31"/>
+      <c r="E835" s="30"/>
     </row>
     <row r="836">
-      <c r="E836" s="31"/>
+      <c r="E836" s="30"/>
     </row>
     <row r="837">
-      <c r="E837" s="31"/>
+      <c r="E837" s="30"/>
     </row>
     <row r="838">
-      <c r="E838" s="31"/>
+      <c r="E838" s="30"/>
     </row>
     <row r="839">
-      <c r="E839" s="31"/>
+      <c r="E839" s="30"/>
     </row>
     <row r="840">
-      <c r="E840" s="31"/>
+      <c r="E840" s="30"/>
     </row>
     <row r="841">
-      <c r="E841" s="31"/>
+      <c r="E841" s="30"/>
     </row>
     <row r="842">
-      <c r="E842" s="31"/>
+      <c r="E842" s="30"/>
     </row>
     <row r="843">
-      <c r="E843" s="31"/>
+      <c r="E843" s="30"/>
     </row>
     <row r="844">
-      <c r="E844" s="31"/>
+      <c r="E844" s="30"/>
     </row>
     <row r="845">
-      <c r="E845" s="31"/>
+      <c r="E845" s="30"/>
     </row>
     <row r="846">
-      <c r="E846" s="31"/>
+      <c r="E846" s="30"/>
     </row>
     <row r="847">
-      <c r="E847" s="31"/>
+      <c r="E847" s="30"/>
     </row>
     <row r="848">
-      <c r="E848" s="31"/>
+      <c r="E848" s="30"/>
     </row>
     <row r="849">
-      <c r="E849" s="31"/>
+      <c r="E849" s="30"/>
     </row>
     <row r="850">
-      <c r="E850" s="31"/>
+      <c r="E850" s="30"/>
     </row>
     <row r="851">
-      <c r="E851" s="31"/>
+      <c r="E851" s="30"/>
     </row>
     <row r="852">
-      <c r="E852" s="31"/>
+      <c r="E852" s="30"/>
     </row>
     <row r="853">
-      <c r="E853" s="31"/>
+      <c r="E853" s="30"/>
     </row>
     <row r="854">
-      <c r="E854" s="31"/>
+      <c r="E854" s="30"/>
     </row>
     <row r="855">
-      <c r="E855" s="31"/>
+      <c r="E855" s="30"/>
     </row>
     <row r="856">
-      <c r="E856" s="31"/>
+      <c r="E856" s="30"/>
     </row>
     <row r="857">
-      <c r="E857" s="31"/>
+      <c r="E857" s="30"/>
     </row>
     <row r="858">
-      <c r="E858" s="31"/>
+      <c r="E858" s="30"/>
     </row>
     <row r="859">
-      <c r="E859" s="31"/>
+      <c r="E859" s="30"/>
     </row>
     <row r="860">
-      <c r="E860" s="31"/>
+      <c r="E860" s="30"/>
     </row>
     <row r="861">
-      <c r="E861" s="31"/>
+      <c r="E861" s="30"/>
     </row>
     <row r="862">
-      <c r="E862" s="31"/>
+      <c r="E862" s="30"/>
     </row>
     <row r="863">
-      <c r="E863" s="31"/>
+      <c r="E863" s="30"/>
     </row>
     <row r="864">
-      <c r="E864" s="31"/>
+      <c r="E864" s="30"/>
     </row>
     <row r="865">
-      <c r="E865" s="31"/>
+      <c r="E865" s="30"/>
     </row>
     <row r="866">
-      <c r="E866" s="31"/>
+      <c r="E866" s="30"/>
     </row>
     <row r="867">
-      <c r="E867" s="31"/>
+      <c r="E867" s="30"/>
     </row>
     <row r="868">
-      <c r="E868" s="31"/>
+      <c r="E868" s="30"/>
     </row>
     <row r="869">
-      <c r="E869" s="31"/>
+      <c r="E869" s="30"/>
     </row>
     <row r="870">
-      <c r="E870" s="31"/>
+      <c r="E870" s="30"/>
     </row>
     <row r="871">
-      <c r="E871" s="31"/>
+      <c r="E871" s="30"/>
     </row>
     <row r="872">
-      <c r="E872" s="31"/>
+      <c r="E872" s="30"/>
     </row>
     <row r="873">
-      <c r="E873" s="31"/>
+      <c r="E873" s="30"/>
     </row>
     <row r="874">
-      <c r="E874" s="31"/>
+      <c r="E874" s="30"/>
     </row>
     <row r="875">
-      <c r="E875" s="31"/>
+      <c r="E875" s="30"/>
     </row>
     <row r="876">
-      <c r="E876" s="31"/>
+      <c r="E876" s="30"/>
     </row>
     <row r="877">
-      <c r="E877" s="31"/>
+      <c r="E877" s="30"/>
     </row>
     <row r="878">
-      <c r="E878" s="31"/>
+      <c r="E878" s="30"/>
     </row>
     <row r="879">
-      <c r="E879" s="31"/>
+      <c r="E879" s="30"/>
     </row>
     <row r="880">
-      <c r="E880" s="31"/>
+      <c r="E880" s="30"/>
     </row>
     <row r="881">
-      <c r="E881" s="31"/>
+      <c r="E881" s="30"/>
     </row>
     <row r="882">
-      <c r="E882" s="31"/>
+      <c r="E882" s="30"/>
     </row>
     <row r="883">
-      <c r="E883" s="31"/>
+      <c r="E883" s="30"/>
     </row>
     <row r="884">
-      <c r="E884" s="31"/>
+      <c r="E884" s="30"/>
     </row>
     <row r="885">
-      <c r="E885" s="31"/>
+      <c r="E885" s="30"/>
     </row>
     <row r="886">
-      <c r="E886" s="31"/>
+      <c r="E886" s="30"/>
     </row>
     <row r="887">
-      <c r="E887" s="31"/>
+      <c r="E887" s="30"/>
     </row>
     <row r="888">
-      <c r="E888" s="31"/>
+      <c r="E888" s="30"/>
     </row>
     <row r="889">
-      <c r="E889" s="31"/>
+      <c r="E889" s="30"/>
     </row>
     <row r="890">
-      <c r="E890" s="31"/>
+      <c r="E890" s="30"/>
     </row>
     <row r="891">
-      <c r="E891" s="31"/>
+      <c r="E891" s="30"/>
     </row>
     <row r="892">
-      <c r="E892" s="31"/>
+      <c r="E892" s="30"/>
     </row>
     <row r="893">
-      <c r="E893" s="31"/>
+      <c r="E893" s="30"/>
     </row>
     <row r="894">
-      <c r="E894" s="31"/>
+      <c r="E894" s="30"/>
     </row>
     <row r="895">
-      <c r="E895" s="31"/>
+      <c r="E895" s="30"/>
     </row>
     <row r="896">
-      <c r="E896" s="31"/>
+      <c r="E896" s="30"/>
     </row>
     <row r="897">
-      <c r="E897" s="31"/>
+      <c r="E897" s="30"/>
     </row>
     <row r="898">
-      <c r="E898" s="31"/>
+      <c r="E898" s="30"/>
     </row>
     <row r="899">
-      <c r="E899" s="31"/>
+      <c r="E899" s="30"/>
     </row>
     <row r="900">
-      <c r="E900" s="31"/>
+      <c r="E900" s="30"/>
     </row>
     <row r="901">
-      <c r="E901" s="31"/>
+      <c r="E901" s="30"/>
     </row>
     <row r="902">
-      <c r="E902" s="31"/>
+      <c r="E902" s="30"/>
     </row>
     <row r="903">
-      <c r="E903" s="31"/>
+      <c r="E903" s="30"/>
     </row>
     <row r="904">
-      <c r="E904" s="31"/>
+      <c r="E904" s="30"/>
     </row>
     <row r="905">
-      <c r="E905" s="31"/>
+      <c r="E905" s="30"/>
     </row>
     <row r="906">
-      <c r="E906" s="31"/>
+      <c r="E906" s="30"/>
     </row>
     <row r="907">
-      <c r="E907" s="31"/>
+      <c r="E907" s="30"/>
     </row>
     <row r="908">
-      <c r="E908" s="31"/>
+      <c r="E908" s="30"/>
     </row>
     <row r="909">
-      <c r="E909" s="31"/>
+      <c r="E909" s="30"/>
     </row>
     <row r="910">
-      <c r="E910" s="31"/>
+      <c r="E910" s="30"/>
     </row>
     <row r="911">
-      <c r="E911" s="31"/>
+      <c r="E911" s="30"/>
     </row>
     <row r="912">
-      <c r="E912" s="31"/>
+      <c r="E912" s="30"/>
     </row>
     <row r="913">
-      <c r="E913" s="31"/>
+      <c r="E913" s="30"/>
     </row>
     <row r="914">
-      <c r="E914" s="31"/>
+      <c r="E914" s="30"/>
     </row>
     <row r="915">
-      <c r="E915" s="31"/>
+      <c r="E915" s="30"/>
     </row>
     <row r="916">
-      <c r="E916" s="31"/>
+      <c r="E916" s="30"/>
     </row>
     <row r="917">
-      <c r="E917" s="31"/>
+      <c r="E917" s="30"/>
     </row>
     <row r="918">
-      <c r="E918" s="31"/>
+      <c r="E918" s="30"/>
     </row>
     <row r="919">
-      <c r="E919" s="31"/>
+      <c r="E919" s="30"/>
     </row>
     <row r="920">
-      <c r="E920" s="31"/>
+      <c r="E920" s="30"/>
     </row>
     <row r="921">
-      <c r="E921" s="31"/>
+      <c r="E921" s="30"/>
     </row>
     <row r="922">
-      <c r="E922" s="31"/>
+      <c r="E922" s="30"/>
     </row>
     <row r="923">
-      <c r="E923" s="31"/>
+      <c r="E923" s="30"/>
     </row>
     <row r="924">
-      <c r="E924" s="31"/>
+      <c r="E924" s="30"/>
     </row>
     <row r="925">
-      <c r="E925" s="31"/>
+      <c r="E925" s="30"/>
     </row>
     <row r="926">
-      <c r="E926" s="31"/>
+      <c r="E926" s="30"/>
     </row>
     <row r="927">
-      <c r="E927" s="31"/>
+      <c r="E927" s="30"/>
     </row>
     <row r="928">
-      <c r="E928" s="31"/>
+      <c r="E928" s="30"/>
     </row>
     <row r="929">
-      <c r="E929" s="31"/>
+      <c r="E929" s="30"/>
     </row>
     <row r="930">
-      <c r="E930" s="31"/>
+      <c r="E930" s="30"/>
     </row>
     <row r="931">
-      <c r="E931" s="31"/>
+      <c r="E931" s="30"/>
     </row>
     <row r="932">
-      <c r="E932" s="31"/>
+      <c r="E932" s="30"/>
     </row>
     <row r="933">
-      <c r="E933" s="31"/>
+      <c r="E933" s="30"/>
     </row>
     <row r="934">
-      <c r="E934" s="31"/>
+      <c r="E934" s="30"/>
     </row>
     <row r="935">
-      <c r="E935" s="31"/>
+      <c r="E935" s="30"/>
     </row>
     <row r="936">
-      <c r="E936" s="31"/>
+      <c r="E936" s="30"/>
     </row>
     <row r="937">
-      <c r="E937" s="31"/>
+      <c r="E937" s="30"/>
     </row>
     <row r="938">
-      <c r="E938" s="31"/>
+      <c r="E938" s="30"/>
     </row>
     <row r="939">
-      <c r="E939" s="31"/>
+      <c r="E939" s="30"/>
     </row>
     <row r="940">
-      <c r="E940" s="31"/>
+      <c r="E940" s="30"/>
     </row>
     <row r="941">
-      <c r="E941" s="31"/>
+      <c r="E941" s="30"/>
     </row>
     <row r="942">
-      <c r="E942" s="31"/>
+      <c r="E942" s="30"/>
     </row>
     <row r="943">
-      <c r="E943" s="31"/>
+      <c r="E943" s="30"/>
     </row>
     <row r="944">
-      <c r="E944" s="31"/>
+      <c r="E944" s="30"/>
     </row>
     <row r="945">
-      <c r="E945" s="31"/>
+      <c r="E945" s="30"/>
     </row>
     <row r="946">
-      <c r="E946" s="31"/>
+      <c r="E946" s="30"/>
     </row>
     <row r="947">
-      <c r="E947" s="31"/>
+      <c r="E947" s="30"/>
     </row>
     <row r="948">
-      <c r="E948" s="31"/>
+      <c r="E948" s="30"/>
     </row>
     <row r="949">
-      <c r="E949" s="31"/>
+      <c r="E949" s="30"/>
     </row>
     <row r="950">
-      <c r="E950" s="31"/>
+      <c r="E950" s="30"/>
     </row>
     <row r="951">
-      <c r="E951" s="31"/>
+      <c r="E951" s="30"/>
     </row>
     <row r="952">
-      <c r="E952" s="31"/>
+      <c r="E952" s="30"/>
     </row>
     <row r="953">
-      <c r="E953" s="31"/>
+      <c r="E953" s="30"/>
     </row>
     <row r="954">
-      <c r="E954" s="31"/>
+      <c r="E954" s="30"/>
     </row>
     <row r="955">
-      <c r="E955" s="31"/>
+      <c r="E955" s="30"/>
     </row>
     <row r="956">
-      <c r="E956" s="31"/>
+      <c r="E956" s="30"/>
     </row>
     <row r="957">
-      <c r="E957" s="31"/>
+      <c r="E957" s="30"/>
     </row>
     <row r="958">
-      <c r="E958" s="31"/>
+      <c r="E958" s="30"/>
     </row>
     <row r="959">
-      <c r="E959" s="31"/>
+      <c r="E959" s="30"/>
     </row>
     <row r="960">
-      <c r="E960" s="31"/>
+      <c r="E960" s="30"/>
     </row>
     <row r="961">
-      <c r="E961" s="31"/>
+      <c r="E961" s="30"/>
     </row>
     <row r="962">
-      <c r="E962" s="31"/>
+      <c r="E962" s="30"/>
     </row>
     <row r="963">
-      <c r="E963" s="31"/>
+      <c r="E963" s="30"/>
     </row>
     <row r="964">
-      <c r="E964" s="31"/>
+      <c r="E964" s="30"/>
     </row>
     <row r="965">
-      <c r="E965" s="31"/>
+      <c r="E965" s="30"/>
     </row>
     <row r="966">
-      <c r="E966" s="31"/>
+      <c r="E966" s="30"/>
     </row>
     <row r="967">
-      <c r="E967" s="31"/>
+      <c r="E967" s="30"/>
     </row>
     <row r="968">
-      <c r="E968" s="31"/>
+      <c r="E968" s="30"/>
     </row>
     <row r="969">
-      <c r="E969" s="31"/>
+      <c r="E969" s="30"/>
     </row>
     <row r="970">
-      <c r="E970" s="31"/>
+      <c r="E970" s="30"/>
     </row>
     <row r="971">
-      <c r="E971" s="31"/>
+      <c r="E971" s="30"/>
     </row>
     <row r="972">
-      <c r="E972" s="31"/>
+      <c r="E972" s="30"/>
     </row>
     <row r="973">
-      <c r="E973" s="31"/>
+      <c r="E973" s="30"/>
     </row>
     <row r="974">
-      <c r="E974" s="31"/>
+      <c r="E974" s="30"/>
     </row>
     <row r="975">
-      <c r="E975" s="31"/>
+      <c r="E975" s="30"/>
     </row>
     <row r="976">
-      <c r="E976" s="31"/>
+      <c r="E976" s="30"/>
     </row>
     <row r="977">
-      <c r="E977" s="31"/>
+      <c r="E977" s="30"/>
     </row>
     <row r="978">
-      <c r="E978" s="31"/>
+      <c r="E978" s="30"/>
     </row>
     <row r="979">
-      <c r="E979" s="31"/>
+      <c r="E979" s="30"/>
     </row>
     <row r="980">
-      <c r="E980" s="31"/>
+      <c r="E980" s="30"/>
     </row>
     <row r="981">
-      <c r="E981" s="31"/>
+      <c r="E981" s="30"/>
     </row>
     <row r="982">
-      <c r="E982" s="31"/>
+      <c r="E982" s="30"/>
     </row>
     <row r="983">
-      <c r="E983" s="31"/>
+      <c r="E983" s="30"/>
     </row>
     <row r="984">
-      <c r="E984" s="31"/>
+      <c r="E984" s="30"/>
     </row>
     <row r="985">
-      <c r="E985" s="31"/>
+      <c r="E985" s="30"/>
     </row>
     <row r="986">
-      <c r="E986" s="31"/>
+      <c r="E986" s="30"/>
     </row>
     <row r="987">
-      <c r="E987" s="31"/>
+      <c r="E987" s="30"/>
     </row>
     <row r="988">
-      <c r="E988" s="31"/>
+      <c r="E988" s="30"/>
     </row>
     <row r="989">
-      <c r="E989" s="31"/>
+      <c r="E989" s="30"/>
     </row>
     <row r="990">
-      <c r="E990" s="31"/>
+      <c r="E990" s="30"/>
     </row>
     <row r="991">
-      <c r="E991" s="31"/>
+      <c r="E991" s="30"/>
     </row>
     <row r="992">
-      <c r="E992" s="31"/>
+      <c r="E992" s="30"/>
     </row>
     <row r="993">
-      <c r="E993" s="31"/>
+      <c r="E993" s="30"/>
     </row>
     <row r="994">
-      <c r="E994" s="31"/>
+      <c r="E994" s="30"/>
     </row>
     <row r="995">
-      <c r="E995" s="31"/>
+      <c r="E995" s="30"/>
     </row>
     <row r="996">
-      <c r="E996" s="31"/>
+      <c r="E996" s="30"/>
     </row>
     <row r="997">
-      <c r="E997" s="31"/>
+      <c r="E997" s="30"/>
     </row>
     <row r="998">
-      <c r="E998" s="31"/>
+      <c r="E998" s="30"/>
     </row>
     <row r="999">
-      <c r="E999" s="31"/>
+      <c r="E999" s="30"/>
     </row>
     <row r="1000">
-      <c r="E1000" s="31"/>
+      <c r="E1000" s="30"/>
     </row>
     <row r="1001">
-      <c r="E1001" s="31"/>
+      <c r="E1001" s="30"/>
     </row>
     <row r="1002">
-      <c r="E1002" s="31"/>
+      <c r="E1002" s="30"/>
     </row>
     <row r="1003">
-      <c r="E1003" s="31"/>
+      <c r="E1003" s="30"/>
     </row>
     <row r="1004">
-      <c r="E1004" s="31"/>
+      <c r="E1004" s="30"/>
     </row>
     <row r="1005">
-      <c r="E1005" s="31"/>
+      <c r="E1005" s="30"/>
     </row>
     <row r="1006">
-      <c r="E1006" s="31"/>
+      <c r="E1006" s="30"/>
     </row>
     <row r="1007">
-      <c r="E1007" s="31"/>
+      <c r="E1007" s="30"/>
     </row>
     <row r="1008">
-      <c r="E1008" s="31"/>
+      <c r="E1008" s="30"/>
     </row>
     <row r="1009">
-      <c r="E1009" s="31"/>
+      <c r="E1009" s="30"/>
     </row>
     <row r="1010">
-      <c r="E1010" s="31"/>
+      <c r="E1010" s="30"/>
     </row>
     <row r="1011">
-      <c r="E1011" s="31"/>
+      <c r="E1011" s="30"/>
     </row>
     <row r="1012">
-      <c r="E1012" s="31"/>
+      <c r="E1012" s="30"/>
     </row>
     <row r="1013">
-      <c r="E1013" s="31"/>
+      <c r="E1013" s="30"/>
     </row>
     <row r="1014">
-      <c r="E1014" s="31"/>
+      <c r="E1014" s="30"/>
     </row>
     <row r="1015">
-      <c r="E1015" s="31"/>
+      <c r="E1015" s="30"/>
     </row>
     <row r="1016">
-      <c r="E1016" s="31"/>
+      <c r="E1016" s="30"/>
     </row>
     <row r="1017">
-      <c r="E1017" s="31"/>
+      <c r="E1017" s="30"/>
     </row>
     <row r="1018">
-      <c r="E1018" s="31"/>
+      <c r="E1018" s="30"/>
     </row>
     <row r="1019">
-      <c r="E1019" s="31"/>
+      <c r="E1019" s="30"/>
     </row>
     <row r="1020">
-      <c r="E1020" s="31"/>
+      <c r="E1020" s="30"/>
     </row>
     <row r="1021">
-      <c r="E1021" s="31"/>
+      <c r="E1021" s="30"/>
     </row>
     <row r="1022">
-      <c r="E1022" s="31"/>
+      <c r="E1022" s="30"/>
     </row>
     <row r="1023">
-      <c r="E1023" s="31"/>
+      <c r="E1023" s="30"/>
     </row>
     <row r="1024">
-      <c r="E1024" s="31"/>
+      <c r="E1024" s="30"/>
     </row>
     <row r="1025">
-      <c r="E1025" s="31"/>
+      <c r="E1025" s="30"/>
     </row>
     <row r="1026">
-      <c r="E1026" s="31"/>
+      <c r="E1026" s="30"/>
     </row>
     <row r="1027">
-      <c r="E1027" s="31"/>
+      <c r="E1027" s="30"/>
     </row>
     <row r="1028">
-      <c r="E1028" s="31"/>
+      <c r="E1028" s="30"/>
     </row>
     <row r="1029">
-      <c r="E1029" s="31"/>
+      <c r="E1029" s="30"/>
     </row>
     <row r="1030">
-      <c r="E1030" s="31"/>
+      <c r="E1030" s="30"/>
     </row>
     <row r="1031">
-      <c r="E1031" s="31"/>
+      <c r="E1031" s="30"/>
     </row>
     <row r="1032">
-      <c r="E1032" s="31"/>
+      <c r="E1032" s="30"/>
     </row>
     <row r="1033">
-      <c r="E1033" s="31"/>
+      <c r="E1033" s="30"/>
     </row>
     <row r="1034">
-      <c r="E1034" s="31"/>
+      <c r="E1034" s="30"/>
     </row>
     <row r="1035">
-      <c r="E1035" s="31"/>
+      <c r="E1035" s="30"/>
     </row>
     <row r="1036">
-      <c r="E1036" s="31"/>
+      <c r="E1036" s="30"/>
     </row>
     <row r="1037">
-      <c r="E1037" s="31"/>
+      <c r="E1037" s="30"/>
     </row>
     <row r="1038">
-      <c r="E1038" s="31"/>
+      <c r="E1038" s="30"/>
     </row>
     <row r="1039">
-      <c r="E1039" s="31"/>
+      <c r="E1039" s="30"/>
     </row>
     <row r="1040">
-      <c r="E1040" s="31"/>
+      <c r="E1040" s="30"/>
     </row>
     <row r="1041">
-      <c r="E1041" s="31"/>
+      <c r="E1041" s="30"/>
     </row>
     <row r="1042">
-      <c r="E1042" s="31"/>
+      <c r="E1042" s="30"/>
     </row>
     <row r="1043">
-      <c r="E1043" s="31"/>
+      <c r="E1043" s="30"/>
     </row>
     <row r="1044">
-      <c r="E1044" s="31"/>
+      <c r="E1044" s="30"/>
     </row>
     <row r="1045">
-      <c r="E1045" s="31"/>
+      <c r="E1045" s="30"/>
     </row>
     <row r="1046">
-      <c r="E1046" s="31"/>
+      <c r="E1046" s="30"/>
     </row>
     <row r="1047">
-      <c r="E1047" s="31"/>
+      <c r="E1047" s="30"/>
     </row>
     <row r="1048">
-      <c r="E1048" s="31"/>
+      <c r="E1048" s="30"/>
     </row>
     <row r="1049">
-      <c r="E1049" s="31"/>
+      <c r="E1049" s="30"/>
     </row>
     <row r="1050">
-      <c r="E1050" s="31"/>
+      <c r="E1050" s="30"/>
     </row>
     <row r="1051">
-      <c r="E1051" s="31"/>
+      <c r="E1051" s="30"/>
     </row>
     <row r="1052">
-      <c r="E1052" s="31"/>
+      <c r="E1052" s="30"/>
     </row>
     <row r="1053">
-      <c r="E1053" s="31"/>
+      <c r="E1053" s="30"/>
     </row>
     <row r="1054">
-      <c r="E1054" s="31"/>
+      <c r="E1054" s="30"/>
     </row>
     <row r="1055">
-      <c r="E1055" s="31"/>
+      <c r="E1055" s="30"/>
     </row>
     <row r="1056">
-      <c r="E1056" s="31"/>
+      <c r="E1056" s="30"/>
     </row>
     <row r="1057">
-      <c r="E1057" s="31"/>
+      <c r="E1057" s="30"/>
     </row>
     <row r="1058">
-      <c r="E1058" s="31"/>
+      <c r="E1058" s="30"/>
     </row>
     <row r="1059">
-      <c r="E1059" s="31"/>
+      <c r="E1059" s="30"/>
     </row>
     <row r="1060">
-      <c r="E1060" s="31"/>
+      <c r="E1060" s="30"/>
     </row>
     <row r="1061">
-      <c r="E1061" s="31"/>
+      <c r="E1061" s="30"/>
     </row>
     <row r="1062">
-      <c r="E1062" s="31"/>
+      <c r="E1062" s="30"/>
     </row>
     <row r="1063">
-      <c r="E1063" s="31"/>
+      <c r="E1063" s="30"/>
     </row>
     <row r="1064">
-      <c r="E1064" s="31"/>
+      <c r="E1064" s="30"/>
     </row>
     <row r="1065">
-      <c r="E1065" s="31"/>
+      <c r="E1065" s="30"/>
     </row>
     <row r="1066">
-      <c r="E1066" s="31"/>
+      <c r="E1066" s="30"/>
     </row>
     <row r="1067">
-      <c r="E1067" s="31"/>
+      <c r="E1067" s="30"/>
     </row>
     <row r="1068">
-      <c r="E1068" s="31"/>
+      <c r="E1068" s="30"/>
     </row>
     <row r="1069">
-      <c r="E1069" s="31"/>
+      <c r="E1069" s="30"/>
     </row>
     <row r="1070">
-      <c r="E1070" s="31"/>
+      <c r="E1070" s="30"/>
     </row>
     <row r="1071">
-      <c r="E1071" s="31"/>
+      <c r="E1071" s="30"/>
     </row>
     <row r="1072">
-      <c r="E1072" s="31"/>
+      <c r="E1072" s="30"/>
     </row>
     <row r="1073">
-      <c r="E1073" s="31"/>
+      <c r="E1073" s="30"/>
     </row>
     <row r="1074">
-      <c r="E1074" s="31"/>
+      <c r="E1074" s="30"/>
     </row>
     <row r="1075">
-      <c r="E1075" s="31"/>
+      <c r="E1075" s="30"/>
     </row>
     <row r="1076">
-      <c r="E1076" s="31"/>
+      <c r="E1076" s="30"/>
     </row>
     <row r="1077">
-      <c r="E1077" s="31"/>
+      <c r="E1077" s="30"/>
     </row>
     <row r="1078">
-      <c r="E1078" s="31"/>
+      <c r="E1078" s="30"/>
     </row>
     <row r="1079">
-      <c r="E1079" s="31"/>
+      <c r="E1079" s="30"/>
     </row>
     <row r="1080">
-      <c r="E1080" s="31"/>
+      <c r="E1080" s="30"/>
     </row>
     <row r="1081">
-      <c r="E1081" s="31"/>
+      <c r="E1081" s="30"/>
     </row>
     <row r="1082">
-      <c r="E1082" s="31"/>
+      <c r="E1082" s="30"/>
     </row>
     <row r="1083">
-      <c r="E1083" s="31"/>
+      <c r="E1083" s="30"/>
     </row>
     <row r="1084">
-      <c r="E1084" s="31"/>
+      <c r="E1084" s="30"/>
     </row>
     <row r="1085">
-      <c r="E1085" s="31"/>
+      <c r="E1085" s="30"/>
     </row>
     <row r="1086">
-      <c r="E1086" s="31"/>
+      <c r="E1086" s="30"/>
     </row>
     <row r="1087">
-      <c r="E1087" s="31"/>
+      <c r="E1087" s="30"/>
     </row>
     <row r="1088">
-      <c r="E1088" s="31"/>
+      <c r="E1088" s="30"/>
     </row>
     <row r="1089">
-      <c r="E1089" s="31"/>
+      <c r="E1089" s="30"/>
     </row>
     <row r="1090">
-      <c r="E1090" s="31"/>
+      <c r="E1090" s="30"/>
     </row>
     <row r="1091">
-      <c r="E1091" s="31"/>
+      <c r="E1091" s="30"/>
     </row>
     <row r="1092">
-      <c r="E1092" s="31"/>
+      <c r="E1092" s="30"/>
     </row>
     <row r="1093">
-      <c r="E1093" s="31"/>
+      <c r="E1093" s="30"/>
     </row>
     <row r="1094">
-      <c r="E1094" s="31"/>
+      <c r="E1094" s="30"/>
     </row>
     <row r="1095">
-      <c r="E1095" s="31"/>
+      <c r="E1095" s="30"/>
     </row>
     <row r="1096">
-      <c r="E1096" s="31"/>
+      <c r="E1096" s="30"/>
     </row>
     <row r="1097">
-      <c r="E1097" s="31"/>
+      <c r="E1097" s="30"/>
     </row>
     <row r="1098">
-      <c r="E1098" s="31"/>
+      <c r="E1098" s="30"/>
     </row>
     <row r="1099">
-      <c r="E1099" s="31"/>
+      <c r="E1099" s="30"/>
     </row>
     <row r="1100">
-      <c r="E1100" s="31"/>
+      <c r="E1100" s="30"/>
     </row>
     <row r="1101">
-      <c r="E1101" s="31"/>
+      <c r="E1101" s="30"/>
     </row>
     <row r="1102">
-      <c r="E1102" s="31"/>
+      <c r="E1102" s="30"/>
     </row>
     <row r="1103">
-      <c r="E1103" s="31"/>
+      <c r="E1103" s="30"/>
     </row>
     <row r="1104">
-      <c r="E1104" s="31"/>
+      <c r="E1104" s="30"/>
     </row>
     <row r="1105">
-      <c r="E1105" s="31"/>
+      <c r="E1105" s="30"/>
     </row>
     <row r="1106">
-      <c r="E1106" s="31"/>
+      <c r="E1106" s="30"/>
     </row>
     <row r="1107">
-      <c r="E1107" s="31"/>
+      <c r="E1107" s="30"/>
     </row>
     <row r="1108">
-      <c r="E1108" s="31"/>
+      <c r="E1108" s="30"/>
     </row>
     <row r="1109">
-      <c r="E1109" s="31"/>
+      <c r="E1109" s="30"/>
     </row>
     <row r="1110">
-      <c r="E1110" s="31"/>
+      <c r="E1110" s="30"/>
     </row>
     <row r="1111">
-      <c r="E1111" s="31"/>
+      <c r="E1111" s="30"/>
     </row>
     <row r="1112">
-      <c r="E1112" s="31"/>
+      <c r="E1112" s="30"/>
     </row>
     <row r="1113">
-      <c r="E1113" s="31"/>
+      <c r="E1113" s="30"/>
     </row>
     <row r="1114">
-      <c r="E1114" s="31"/>
+      <c r="E1114" s="30"/>
     </row>
     <row r="1115">
-      <c r="E1115" s="31"/>
+      <c r="E1115" s="30"/>
     </row>
     <row r="1116">
-      <c r="E1116" s="31"/>
+      <c r="E1116" s="30"/>
     </row>
     <row r="1117">
-      <c r="E1117" s="31"/>
+      <c r="E1117" s="30"/>
     </row>
     <row r="1118">
-      <c r="E1118" s="31"/>
+      <c r="E1118" s="30"/>
     </row>
     <row r="1119">
-      <c r="E1119" s="31"/>
+      <c r="E1119" s="30"/>
     </row>
     <row r="1120">
-      <c r="E1120" s="31"/>
+      <c r="E1120" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>http://purl.org/dc/terms/</t>
+  </si>
+  <si>
+    <t>wpl</t>
+  </si>
+  <si>
+    <t>https://www.ieawindtask43.org/ontoforge/life-cycle-phase-process-taxonomy/</t>
   </si>
   <si>
     <t>owl</t>
@@ -267,6 +273,9 @@
   </si>
   <si>
     <t>Rückabwicklung</t>
+  </si>
+  <si>
+    <t>wpl:8Decomissioning</t>
   </si>
   <si>
     <t>Planning of dismantling</t>
@@ -414,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -435,6 +444,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -811,10 +823,10 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3"/>
@@ -833,12 +845,14 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
@@ -879,7 +893,7 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3"/>
@@ -923,7 +937,9 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
@@ -940,12 +956,10 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B10" s="11"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -962,10 +976,10 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="3"/>
@@ -984,8 +998,12 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -1020,134 +1038,120 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="D15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="E15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="str">
-        <f t="shared" ref="A15:A28" si="1">IF(ISBLANK($B15),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B15," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
-        <v>lcp:LifeCyclePhase</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="O15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="P15" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>lcp:Preparation</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="21" t="s">
+        <f t="shared" ref="A16:A29" si="1">IF(ISBLANK($B16),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <v>lcp:LifeCyclePhase</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>39</v>
       </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="5" t="str">
-        <f>A15</f>
-        <v>lcp:LifeCyclePhase</v>
-      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="19"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="20"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="str">
+      <c r="A17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcp:Planning</v>
-      </c>
-      <c r="B17" s="5" t="s">
+        <v>lcp:Preparation</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="5" t="str">
-        <f t="shared" ref="G17:G21" si="2">$A$16</f>
-        <v>lcp:Preparation</v>
-      </c>
-      <c r="H17" s="5"/>
+        <f>A16</f>
+        <v>lcp:LifeCyclePhase</v>
+      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="19"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="20"/>
+      <c r="M17" s="21"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -1155,31 +1159,31 @@
     <row r="18">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcp:Design</v>
+        <v>lcp:Planning</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="E18" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G18:G22" si="2">$A$17</f>
         <v>lcp:Preparation</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="19"/>
+      <c r="K18" s="20"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="20"/>
+      <c r="M18" s="21"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -1187,19 +1191,19 @@
     <row r="19">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcp:PurchaseDivFabrication</v>
+        <v>lcp:Design</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="str">
@@ -1209,9 +1213,9 @@
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="19"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="20"/>
+      <c r="M19" s="21"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -1219,19 +1223,19 @@
     <row r="20">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcp:Construction</v>
+        <v>lcp:PurchaseDivFabrication</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="E20" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="str">
@@ -1241,9 +1245,9 @@
       <c r="H20" s="5"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="19"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="20"/>
+      <c r="M20" s="21"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -1251,19 +1255,19 @@
     <row r="21">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcp:Commissioning</v>
+        <v>lcp:Construction</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="str">
@@ -1273,69 +1277,69 @@
       <c r="H21" s="5"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="19"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="20"/>
+      <c r="M21" s="21"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="str">
+      <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcp:Usage</v>
-      </c>
-      <c r="B22" s="16" t="s">
+        <v>lcp:Commissioning</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="8"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="str">
-        <f>A15</f>
-        <v>lcp:LifeCyclePhase</v>
+        <f t="shared" si="2"/>
+        <v>lcp:Preparation</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="19"/>
+      <c r="K22" s="20"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="20"/>
+      <c r="M22" s="21"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="str">
+      <c r="A23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcp:ProductionDivOperation</v>
-      </c>
-      <c r="B23" s="22" t="s">
+        <v>lcp:Usage</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="str">
-        <f t="shared" ref="G23:G25" si="3">$A$22</f>
-        <v>lcp:Usage</v>
+        <f>A16</f>
+        <v>lcp:LifeCyclePhase</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="20"/>
+      <c r="M23" s="21"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -1343,31 +1347,31 @@
     <row r="24">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcp:Maintenance</v>
+        <v>lcp:ProductionDivOperation</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="E24" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G24:G26" si="3">$A$23</f>
         <v>lcp:Usage</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="19"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="20"/>
+      <c r="M24" s="21"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -1375,19 +1379,19 @@
     <row r="25">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcp:Shutdown</v>
-      </c>
-      <c r="B25" s="23" t="s">
+        <v>lcp:Maintenance</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="E25" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>73</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="str">
@@ -1397,68 +1401,70 @@
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="19"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="20"/>
+      <c r="M25" s="21"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="str">
+      <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcp:Decommissioning</v>
-      </c>
-      <c r="B26" s="16" t="s">
+        <v>lcp:Shutdown</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="E26" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="18"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="5" t="str">
-        <f>A15</f>
-        <v>lcp:LifeCyclePhase</v>
-      </c>
-      <c r="H26" s="3"/>
+        <f t="shared" si="3"/>
+        <v>lcp:Usage</v>
+      </c>
+      <c r="H26" s="5"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="19"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="20"/>
+      <c r="M26" s="21"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="str">
+      <c r="A27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcp:Planningofdismantling</v>
-      </c>
-      <c r="B27" s="23" t="s">
+        <v>lcp:Decommissioning</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="D27" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="5" t="str">
+        <f>A16</f>
+        <v>lcp:LifeCyclePhase</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="5" t="str">
-        <f t="shared" ref="G27:G28" si="4">$A$26</f>
-        <v>lcp:Decommissioning</v>
-      </c>
-      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="19"/>
+      <c r="K27" s="20"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="20"/>
+      <c r="M27" s="21"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -1466,288 +1472,302 @@
     <row r="28">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcp:Dismantling</v>
-      </c>
-      <c r="B28" s="23" t="s">
+        <v>lcp:Planningofdismantling</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="D28" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="E28" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G28:G29" si="4">$A$27</f>
         <v>lcp:Decommissioning</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="19"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="21"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="3"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="5"/>
+      <c r="A29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcp:Dismantling</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>lcp:Decommissioning</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="27"/>
+      <c r="K29" s="20"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="28"/>
+      <c r="M29" s="21"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
     <row r="30">
-      <c r="A30" s="1"/>
-      <c r="B30" s="29"/>
-      <c r="D30" s="18"/>
+      <c r="A30" s="3"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="18"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="5"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="27"/>
+      <c r="K30" s="28"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="28"/>
+      <c r="M30" s="29"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
     <row r="31">
-      <c r="A31" s="3"/>
-      <c r="D31" s="18"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="30"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="18"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="5"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="27"/>
+      <c r="K31" s="28"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="28"/>
+      <c r="M31" s="29"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="3"/>
-      <c r="D32" s="18"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="18"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="5"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="27"/>
+      <c r="K32" s="28"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="28"/>
+      <c r="M32" s="29"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="3"/>
-      <c r="D33" s="18"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="18"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="5"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="27"/>
+      <c r="K33" s="28"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="28"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="3"/>
-      <c r="D34" s="18"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="19"/>
       <c r="G34" s="5"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="27"/>
+      <c r="K34" s="28"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="28"/>
+      <c r="M34" s="29"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="3"/>
-      <c r="D35" s="18"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="19"/>
       <c r="G35" s="5"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="27"/>
+      <c r="K35" s="28"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="28"/>
+      <c r="M35" s="29"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
+      <c r="A36" s="3"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="18"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="5"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="19"/>
+      <c r="K36" s="28"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="20"/>
+      <c r="M36" s="29"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="26"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="19"/>
       <c r="G37" s="5"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="19"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="20"/>
+      <c r="M37" s="21"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="18"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="5"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="19"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="20"/>
+      <c r="M38" s="21"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="18"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="5"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="19"/>
+      <c r="K39" s="20"/>
       <c r="L39" s="3"/>
-      <c r="M39" s="20"/>
+      <c r="M39" s="21"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="18"/>
+      <c r="F40" s="19"/>
       <c r="G40" s="5"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="19"/>
+      <c r="K40" s="20"/>
       <c r="L40" s="3"/>
-      <c r="M40" s="20"/>
+      <c r="M40" s="21"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="26"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="5"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="19"/>
+      <c r="K41" s="20"/>
       <c r="L41" s="3"/>
-      <c r="M41" s="20"/>
+      <c r="M41" s="21"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="18"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="5"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="19"/>
+      <c r="K42" s="20"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="20"/>
+      <c r="M42" s="21"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="3"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="18"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="18"/>
+      <c r="F43" s="19"/>
       <c r="G43" s="5"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="19"/>
+      <c r="K43" s="20"/>
       <c r="L43" s="3"/>
-      <c r="M43" s="20"/>
+      <c r="M43" s="21"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -1755,3832 +1775,3851 @@
     <row r="44">
       <c r="A44" s="3"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="18"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="18"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="5"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="19"/>
+      <c r="K44" s="20"/>
       <c r="L44" s="3"/>
-      <c r="M44" s="20"/>
+      <c r="M44" s="21"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="3"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="26"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="19"/>
       <c r="G45" s="5"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="19"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="3"/>
-      <c r="M45" s="20"/>
+      <c r="M45" s="21"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="3"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="18"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="27"/>
       <c r="G46" s="5"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="19"/>
+      <c r="K46" s="20"/>
       <c r="L46" s="3"/>
-      <c r="M46" s="20"/>
+      <c r="M46" s="21"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="3"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="18"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="18"/>
+      <c r="F47" s="19"/>
       <c r="G47" s="5"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="19"/>
+      <c r="K47" s="20"/>
       <c r="L47" s="3"/>
-      <c r="M47" s="20"/>
+      <c r="M47" s="21"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="3"/>
-      <c r="E48" s="30"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="3"/>
-      <c r="E49" s="30"/>
+      <c r="E49" s="31"/>
     </row>
     <row r="50">
       <c r="A50" s="3"/>
-      <c r="E50" s="30"/>
+      <c r="E50" s="31"/>
     </row>
     <row r="51">
       <c r="A51" s="3"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
+      <c r="E51" s="31"/>
     </row>
     <row r="52">
       <c r="A52" s="3"/>
-      <c r="E52" s="30"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="3"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
+      <c r="E53" s="31"/>
     </row>
     <row r="54">
       <c r="A54" s="3"/>
-      <c r="D54" s="18"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="18"/>
+      <c r="F54" s="19"/>
       <c r="G54" s="5"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="27"/>
+      <c r="K54" s="28"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="28"/>
+      <c r="M54" s="29"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="3"/>
-      <c r="D55" s="18"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="18"/>
+      <c r="F55" s="19"/>
       <c r="G55" s="5"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="27"/>
+      <c r="K55" s="28"/>
       <c r="L55" s="3"/>
-      <c r="M55" s="28"/>
+      <c r="M55" s="29"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="3"/>
-      <c r="D56" s="18"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="18"/>
+      <c r="F56" s="19"/>
       <c r="G56" s="5"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="27"/>
+      <c r="K56" s="28"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="28"/>
+      <c r="M56" s="29"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="3"/>
-      <c r="D57" s="18"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="18"/>
+      <c r="F57" s="19"/>
       <c r="G57" s="5"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="27"/>
+      <c r="K57" s="28"/>
       <c r="L57" s="3"/>
-      <c r="M57" s="28"/>
+      <c r="M57" s="29"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="3"/>
-      <c r="D58" s="18"/>
+      <c r="D58" s="19"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="18"/>
+      <c r="F58" s="19"/>
       <c r="G58" s="5"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="27"/>
+      <c r="K58" s="28"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="28"/>
+      <c r="M58" s="29"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="3"/>
-      <c r="E59" s="30"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="3"/>
-      <c r="E60" s="30"/>
+      <c r="E60" s="31"/>
     </row>
     <row r="61">
       <c r="A61" s="3"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
+      <c r="E61" s="31"/>
     </row>
     <row r="62">
       <c r="A62" s="3"/>
-      <c r="D62" s="18"/>
+      <c r="D62" s="19"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="18"/>
+      <c r="F62" s="19"/>
       <c r="G62" s="5"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="27"/>
+      <c r="K62" s="28"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="28"/>
+      <c r="M62" s="29"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="3"/>
-      <c r="E63" s="30"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="3"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
+      <c r="E64" s="31"/>
     </row>
     <row r="65">
       <c r="A65" s="3"/>
-      <c r="D65" s="18"/>
+      <c r="D65" s="19"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="18"/>
+      <c r="F65" s="19"/>
       <c r="G65" s="5"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="27"/>
+      <c r="K65" s="28"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="28"/>
+      <c r="M65" s="29"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="3"/>
-      <c r="D66" s="18"/>
+      <c r="D66" s="19"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="18"/>
+      <c r="F66" s="19"/>
       <c r="G66" s="5"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="27"/>
+      <c r="K66" s="28"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="28"/>
+      <c r="M66" s="29"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="3"/>
-      <c r="D67" s="18"/>
+      <c r="D67" s="19"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="18"/>
+      <c r="F67" s="19"/>
       <c r="G67" s="5"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="27"/>
+      <c r="K67" s="28"/>
       <c r="L67" s="3"/>
-      <c r="M67" s="28"/>
+      <c r="M67" s="29"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="3"/>
-      <c r="D68" s="18"/>
+      <c r="D68" s="19"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="18"/>
+      <c r="F68" s="19"/>
       <c r="G68" s="5"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="27"/>
+      <c r="K68" s="28"/>
       <c r="L68" s="3"/>
-      <c r="M68" s="28"/>
+      <c r="M68" s="29"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="3"/>
-      <c r="D69" s="18"/>
+      <c r="D69" s="19"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="18"/>
+      <c r="F69" s="19"/>
       <c r="G69" s="5"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="27"/>
+      <c r="K69" s="28"/>
       <c r="L69" s="3"/>
-      <c r="M69" s="28"/>
+      <c r="M69" s="29"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="3"/>
-      <c r="E70" s="30"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
     </row>
     <row r="71">
-      <c r="A71" s="1"/>
-      <c r="B71" s="29"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
+      <c r="A71" s="3"/>
+      <c r="E71" s="31"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
-      <c r="B72" s="29"/>
-      <c r="D72" s="18"/>
+      <c r="B72" s="30"/>
+      <c r="D72" s="19"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="18"/>
+      <c r="F72" s="19"/>
       <c r="G72" s="5"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="27"/>
+      <c r="K72" s="28"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="28"/>
+      <c r="M72" s="29"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
     </row>
     <row r="73">
-      <c r="A73" s="3"/>
-      <c r="E73" s="30"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="30"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="3"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
+      <c r="E74" s="31"/>
     </row>
     <row r="75">
       <c r="A75" s="3"/>
-      <c r="D75" s="18"/>
+      <c r="D75" s="19"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="18"/>
+      <c r="F75" s="19"/>
       <c r="G75" s="5"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="27"/>
+      <c r="K75" s="28"/>
       <c r="L75" s="3"/>
-      <c r="M75" s="28"/>
+      <c r="M75" s="29"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="3"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+      <c r="D76" s="19"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="5"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
+      <c r="K76" s="28"/>
       <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
+      <c r="M76" s="29"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="3"/>
-      <c r="D77" s="18"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="5"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="27"/>
+      <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-      <c r="M77" s="28"/>
+      <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="3"/>
-      <c r="D78" s="18"/>
+      <c r="D78" s="19"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="18"/>
+      <c r="F78" s="19"/>
       <c r="G78" s="5"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="27"/>
+      <c r="K78" s="28"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="28"/>
+      <c r="M78" s="29"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="3"/>
-      <c r="B79" s="31"/>
-      <c r="E79" s="30"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="3"/>
-      <c r="B80" s="31"/>
-      <c r="E80" s="30"/>
+      <c r="B80" s="32"/>
+      <c r="E80" s="31"/>
     </row>
     <row r="81">
       <c r="A81" s="3"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
+      <c r="B81" s="32"/>
+      <c r="E81" s="31"/>
     </row>
     <row r="82">
       <c r="A82" s="3"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="18"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="19"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="18"/>
+      <c r="F82" s="19"/>
       <c r="G82" s="5"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="27"/>
+      <c r="K82" s="28"/>
       <c r="L82" s="3"/>
-      <c r="M82" s="28"/>
+      <c r="M82" s="29"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="3"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="18"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="19"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="18"/>
+      <c r="F83" s="19"/>
       <c r="G83" s="5"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="27"/>
+      <c r="K83" s="28"/>
       <c r="L83" s="3"/>
-      <c r="M83" s="28"/>
+      <c r="M83" s="29"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="3"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="18"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="19"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="18"/>
+      <c r="F84" s="19"/>
       <c r="G84" s="5"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="27"/>
+      <c r="K84" s="28"/>
       <c r="L84" s="3"/>
-      <c r="M84" s="28"/>
+      <c r="M84" s="29"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="3"/>
-      <c r="E85" s="30"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="3"/>
-      <c r="B86" s="5"/>
-      <c r="E86" s="30"/>
-      <c r="G86" s="5"/>
+      <c r="E86" s="31"/>
     </row>
     <row r="87">
       <c r="A87" s="3"/>
-      <c r="E87" s="30"/>
+      <c r="B87" s="5"/>
+      <c r="E87" s="31"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88">
       <c r="A88" s="3"/>
-      <c r="B88" s="5"/>
-      <c r="E88" s="30"/>
-      <c r="G88" s="5"/>
+      <c r="E88" s="31"/>
     </row>
     <row r="89">
       <c r="A89" s="3"/>
       <c r="B89" s="5"/>
-      <c r="E89" s="30"/>
+      <c r="E89" s="31"/>
       <c r="G89" s="5"/>
     </row>
     <row r="90">
       <c r="A90" s="3"/>
       <c r="B90" s="5"/>
-      <c r="E90" s="30"/>
+      <c r="E90" s="31"/>
       <c r="G90" s="5"/>
     </row>
     <row r="91">
-      <c r="A91" s="1"/>
-      <c r="B91" s="13"/>
-      <c r="E91" s="30"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="5"/>
+      <c r="E91" s="31"/>
       <c r="G91" s="5"/>
     </row>
     <row r="92">
       <c r="A92" s="1"/>
-      <c r="B92" s="13"/>
-      <c r="E92" s="30"/>
+      <c r="B92" s="14"/>
+      <c r="E92" s="31"/>
       <c r="G92" s="5"/>
     </row>
     <row r="93">
       <c r="A93" s="1"/>
-      <c r="B93" s="13"/>
-      <c r="E93" s="30"/>
+      <c r="B93" s="14"/>
+      <c r="E93" s="31"/>
       <c r="G93" s="5"/>
     </row>
     <row r="94">
-      <c r="A94" s="3"/>
-      <c r="E94" s="30"/>
+      <c r="A94" s="1"/>
+      <c r="B94" s="14"/>
+      <c r="E94" s="31"/>
       <c r="G94" s="5"/>
     </row>
     <row r="95">
       <c r="A95" s="3"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="18"/>
+      <c r="E95" s="31"/>
       <c r="G95" s="5"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="28"/>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="3"/>
-      <c r="E96" s="30"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="19"/>
       <c r="G96" s="5"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
     </row>
     <row r="97">
       <c r="A97" s="3"/>
-      <c r="E97" s="30"/>
+      <c r="E97" s="31"/>
+      <c r="G97" s="5"/>
     </row>
     <row r="98">
       <c r="A98" s="3"/>
-      <c r="E98" s="30"/>
-      <c r="G98" s="5"/>
+      <c r="E98" s="31"/>
     </row>
     <row r="99">
       <c r="A99" s="3"/>
-      <c r="B99" s="5"/>
-      <c r="E99" s="30"/>
+      <c r="E99" s="31"/>
       <c r="G99" s="5"/>
     </row>
     <row r="100">
       <c r="A100" s="3"/>
       <c r="B100" s="5"/>
-      <c r="E100" s="30"/>
+      <c r="E100" s="31"/>
       <c r="G100" s="5"/>
     </row>
     <row r="101">
       <c r="A101" s="3"/>
       <c r="B101" s="5"/>
-      <c r="E101" s="30"/>
+      <c r="E101" s="31"/>
       <c r="G101" s="5"/>
     </row>
     <row r="102">
       <c r="A102" s="3"/>
       <c r="B102" s="5"/>
-      <c r="E102" s="30"/>
+      <c r="E102" s="31"/>
       <c r="G102" s="5"/>
     </row>
     <row r="103">
       <c r="A103" s="3"/>
-      <c r="E103" s="30"/>
+      <c r="B103" s="5"/>
+      <c r="E103" s="31"/>
+      <c r="G103" s="5"/>
     </row>
     <row r="104">
       <c r="A104" s="3"/>
-      <c r="E104" s="30"/>
+      <c r="E104" s="31"/>
     </row>
     <row r="105">
       <c r="A105" s="3"/>
-      <c r="E105" s="30"/>
+      <c r="E105" s="31"/>
     </row>
     <row r="106">
       <c r="A106" s="3"/>
-      <c r="E106" s="30"/>
-      <c r="G106" s="5"/>
+      <c r="E106" s="31"/>
     </row>
     <row r="107">
       <c r="A107" s="3"/>
-      <c r="E107" s="30"/>
+      <c r="E107" s="31"/>
+      <c r="G107" s="5"/>
     </row>
     <row r="108">
       <c r="A108" s="3"/>
-      <c r="E108" s="30"/>
+      <c r="E108" s="31"/>
     </row>
     <row r="109">
       <c r="A109" s="3"/>
-      <c r="E109" s="30"/>
+      <c r="E109" s="31"/>
     </row>
     <row r="110">
       <c r="A110" s="3"/>
-      <c r="E110" s="30"/>
+      <c r="E110" s="31"/>
     </row>
     <row r="111">
       <c r="A111" s="3"/>
-      <c r="E111" s="30"/>
-      <c r="G111" s="5"/>
+      <c r="E111" s="31"/>
     </row>
     <row r="112">
-      <c r="A112" s="1"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="18"/>
+      <c r="A112" s="3"/>
+      <c r="E112" s="31"/>
       <c r="G112" s="5"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="28"/>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="18"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="19"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="18"/>
+      <c r="F113" s="19"/>
       <c r="G113" s="5"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="27"/>
+      <c r="K113" s="28"/>
       <c r="L113" s="3"/>
-      <c r="M113" s="28"/>
+      <c r="M113" s="29"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="18"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="19"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="18"/>
+      <c r="F114" s="19"/>
       <c r="G114" s="5"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="27"/>
+      <c r="K114" s="28"/>
       <c r="L114" s="3"/>
-      <c r="M114" s="28"/>
+      <c r="M114" s="29"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
     </row>
     <row r="115">
-      <c r="A115" s="3"/>
-      <c r="E115" s="30"/>
+      <c r="A115" s="1"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="19"/>
       <c r="G115" s="5"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="28"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="29"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="3"/>
-      <c r="E116" s="30"/>
+      <c r="E116" s="31"/>
       <c r="G116" s="5"/>
     </row>
     <row r="117">
       <c r="A117" s="3"/>
-      <c r="E117" s="30"/>
+      <c r="E117" s="31"/>
       <c r="G117" s="5"/>
     </row>
     <row r="118">
       <c r="A118" s="3"/>
-      <c r="E118" s="30"/>
+      <c r="E118" s="31"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119">
       <c r="A119" s="3"/>
-      <c r="E119" s="30"/>
+      <c r="E119" s="31"/>
     </row>
     <row r="120">
       <c r="A120" s="3"/>
-      <c r="E120" s="30"/>
+      <c r="E120" s="31"/>
     </row>
     <row r="121">
       <c r="A121" s="3"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
-      <c r="M121" s="3"/>
-      <c r="N121" s="3"/>
-      <c r="O121" s="3"/>
-      <c r="P121" s="3"/>
+      <c r="E121" s="31"/>
     </row>
     <row r="122">
       <c r="A122" s="3"/>
-      <c r="E122" s="30"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
     </row>
     <row r="123">
       <c r="A123" s="3"/>
-      <c r="E123" s="30"/>
+      <c r="E123" s="31"/>
     </row>
     <row r="124">
       <c r="A124" s="3"/>
-      <c r="E124" s="30"/>
+      <c r="E124" s="31"/>
     </row>
     <row r="125">
       <c r="A125" s="3"/>
-      <c r="E125" s="30"/>
+      <c r="E125" s="31"/>
     </row>
     <row r="126">
       <c r="A126" s="3"/>
-      <c r="E126" s="30"/>
+      <c r="E126" s="31"/>
     </row>
     <row r="127">
       <c r="A127" s="3"/>
-      <c r="E127" s="30"/>
+      <c r="E127" s="31"/>
     </row>
     <row r="128">
       <c r="A128" s="3"/>
-      <c r="E128" s="30"/>
-      <c r="G128" s="5"/>
+      <c r="E128" s="31"/>
     </row>
     <row r="129">
       <c r="A129" s="3"/>
-      <c r="E129" s="30"/>
+      <c r="E129" s="31"/>
+      <c r="G129" s="5"/>
     </row>
     <row r="130">
       <c r="A130" s="3"/>
-      <c r="E130" s="30"/>
-      <c r="G130" s="5"/>
+      <c r="E130" s="31"/>
     </row>
     <row r="131">
       <c r="A131" s="3"/>
-      <c r="E131" s="30"/>
+      <c r="E131" s="31"/>
+      <c r="G131" s="5"/>
     </row>
     <row r="132">
       <c r="A132" s="3"/>
-      <c r="E132" s="30"/>
+      <c r="E132" s="31"/>
     </row>
     <row r="133">
       <c r="A133" s="3"/>
-      <c r="E133" s="30"/>
+      <c r="E133" s="31"/>
     </row>
     <row r="134">
       <c r="A134" s="3"/>
-      <c r="E134" s="30"/>
+      <c r="E134" s="31"/>
     </row>
     <row r="135">
       <c r="A135" s="3"/>
-      <c r="E135" s="30"/>
+      <c r="E135" s="31"/>
     </row>
     <row r="136">
       <c r="A136" s="3"/>
-      <c r="E136" s="30"/>
+      <c r="E136" s="31"/>
     </row>
     <row r="137">
       <c r="A137" s="3"/>
-      <c r="E137" s="30"/>
+      <c r="E137" s="31"/>
     </row>
     <row r="138">
       <c r="A138" s="3"/>
-      <c r="E138" s="30"/>
+      <c r="E138" s="31"/>
     </row>
     <row r="139">
       <c r="A139" s="3"/>
-      <c r="E139" s="30"/>
+      <c r="E139" s="31"/>
     </row>
     <row r="140">
       <c r="A140" s="3"/>
-      <c r="E140" s="30"/>
+      <c r="E140" s="31"/>
     </row>
     <row r="141">
       <c r="A141" s="3"/>
-      <c r="E141" s="30"/>
+      <c r="E141" s="31"/>
     </row>
     <row r="142">
       <c r="A142" s="3"/>
-      <c r="E142" s="30"/>
+      <c r="E142" s="31"/>
     </row>
     <row r="143">
       <c r="A143" s="3"/>
-      <c r="E143" s="30"/>
+      <c r="E143" s="31"/>
     </row>
     <row r="144">
       <c r="A144" s="3"/>
-      <c r="E144" s="30"/>
+      <c r="E144" s="31"/>
     </row>
     <row r="145">
       <c r="A145" s="3"/>
-      <c r="E145" s="30"/>
+      <c r="E145" s="31"/>
     </row>
     <row r="146">
       <c r="A146" s="3"/>
-      <c r="E146" s="30"/>
+      <c r="E146" s="31"/>
     </row>
     <row r="147">
       <c r="A147" s="3"/>
-      <c r="E147" s="30"/>
+      <c r="E147" s="31"/>
     </row>
     <row r="148">
       <c r="A148" s="3"/>
-      <c r="E148" s="30"/>
+      <c r="E148" s="31"/>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="str">
-        <f t="shared" ref="A149:A150" si="5">IF(ISBLANK($B149),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B149," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
-        <v/>
-      </c>
-      <c r="B149" s="21"/>
-      <c r="E149" s="30"/>
+      <c r="A149" s="3"/>
+      <c r="E149" s="31"/>
     </row>
     <row r="150">
       <c r="A150" s="3" t="str">
+        <f t="shared" ref="A150:A151" si="5">IF(ISBLANK($B150),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B150," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <v/>
+      </c>
+      <c r="B150" s="22"/>
+      <c r="E150" s="31"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E150" s="30"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="3"/>
-      <c r="E151" s="30"/>
+      <c r="E151" s="31"/>
     </row>
     <row r="152">
-      <c r="E152" s="30"/>
+      <c r="A152" s="3"/>
+      <c r="E152" s="31"/>
     </row>
     <row r="153">
-      <c r="E153" s="30"/>
+      <c r="E153" s="31"/>
     </row>
     <row r="154">
-      <c r="E154" s="30"/>
+      <c r="E154" s="31"/>
     </row>
     <row r="155">
-      <c r="E155" s="30"/>
+      <c r="E155" s="31"/>
     </row>
     <row r="156">
-      <c r="E156" s="30"/>
+      <c r="E156" s="31"/>
     </row>
     <row r="157">
-      <c r="E157" s="30"/>
+      <c r="E157" s="31"/>
     </row>
     <row r="158">
-      <c r="E158" s="30"/>
+      <c r="E158" s="31"/>
     </row>
     <row r="159">
-      <c r="E159" s="30"/>
+      <c r="E159" s="31"/>
     </row>
     <row r="160">
-      <c r="E160" s="30"/>
+      <c r="E160" s="31"/>
     </row>
     <row r="161">
-      <c r="E161" s="30"/>
+      <c r="E161" s="31"/>
     </row>
     <row r="162">
-      <c r="E162" s="30"/>
+      <c r="E162" s="31"/>
     </row>
     <row r="163">
-      <c r="E163" s="30"/>
+      <c r="E163" s="31"/>
     </row>
     <row r="164">
-      <c r="E164" s="30"/>
+      <c r="E164" s="31"/>
     </row>
     <row r="165">
-      <c r="E165" s="30"/>
+      <c r="E165" s="31"/>
     </row>
     <row r="166">
-      <c r="E166" s="30"/>
+      <c r="E166" s="31"/>
     </row>
     <row r="167">
-      <c r="E167" s="30"/>
+      <c r="E167" s="31"/>
     </row>
     <row r="168">
-      <c r="E168" s="30"/>
+      <c r="E168" s="31"/>
     </row>
     <row r="169">
-      <c r="E169" s="30"/>
+      <c r="E169" s="31"/>
     </row>
     <row r="170">
-      <c r="E170" s="30"/>
+      <c r="E170" s="31"/>
     </row>
     <row r="171">
-      <c r="E171" s="30"/>
+      <c r="E171" s="31"/>
     </row>
     <row r="172">
-      <c r="E172" s="30"/>
+      <c r="E172" s="31"/>
     </row>
     <row r="173">
-      <c r="E173" s="30"/>
+      <c r="E173" s="31"/>
     </row>
     <row r="174">
-      <c r="E174" s="30"/>
+      <c r="E174" s="31"/>
     </row>
     <row r="175">
-      <c r="E175" s="30"/>
+      <c r="E175" s="31"/>
     </row>
     <row r="176">
-      <c r="E176" s="30"/>
+      <c r="E176" s="31"/>
     </row>
     <row r="177">
-      <c r="E177" s="30"/>
+      <c r="E177" s="31"/>
     </row>
     <row r="178">
-      <c r="E178" s="30"/>
+      <c r="E178" s="31"/>
     </row>
     <row r="179">
-      <c r="E179" s="30"/>
+      <c r="E179" s="31"/>
     </row>
     <row r="180">
-      <c r="E180" s="30"/>
+      <c r="E180" s="31"/>
     </row>
     <row r="181">
-      <c r="E181" s="30"/>
+      <c r="E181" s="31"/>
     </row>
     <row r="182">
-      <c r="E182" s="30"/>
+      <c r="E182" s="31"/>
     </row>
     <row r="183">
-      <c r="E183" s="30"/>
+      <c r="E183" s="31"/>
     </row>
     <row r="184">
-      <c r="E184" s="30"/>
+      <c r="E184" s="31"/>
     </row>
     <row r="185">
-      <c r="E185" s="30"/>
+      <c r="E185" s="31"/>
     </row>
     <row r="186">
-      <c r="E186" s="30"/>
+      <c r="E186" s="31"/>
     </row>
     <row r="187">
-      <c r="E187" s="30"/>
+      <c r="E187" s="31"/>
     </row>
     <row r="188">
-      <c r="E188" s="30"/>
+      <c r="E188" s="31"/>
     </row>
     <row r="189">
-      <c r="E189" s="30"/>
+      <c r="E189" s="31"/>
     </row>
     <row r="190">
-      <c r="E190" s="30"/>
+      <c r="E190" s="31"/>
     </row>
     <row r="191">
-      <c r="E191" s="30"/>
+      <c r="E191" s="31"/>
     </row>
     <row r="192">
-      <c r="E192" s="30"/>
+      <c r="E192" s="31"/>
     </row>
     <row r="193">
-      <c r="E193" s="30"/>
+      <c r="E193" s="31"/>
     </row>
     <row r="194">
-      <c r="E194" s="30"/>
+      <c r="E194" s="31"/>
     </row>
     <row r="195">
-      <c r="E195" s="30"/>
+      <c r="E195" s="31"/>
     </row>
     <row r="196">
-      <c r="E196" s="30"/>
+      <c r="E196" s="31"/>
     </row>
     <row r="197">
-      <c r="E197" s="30"/>
+      <c r="E197" s="31"/>
     </row>
     <row r="198">
-      <c r="E198" s="30"/>
+      <c r="E198" s="31"/>
     </row>
     <row r="199">
-      <c r="E199" s="30"/>
+      <c r="E199" s="31"/>
     </row>
     <row r="200">
-      <c r="E200" s="30"/>
+      <c r="E200" s="31"/>
     </row>
     <row r="201">
-      <c r="E201" s="30"/>
+      <c r="E201" s="31"/>
     </row>
     <row r="202">
-      <c r="E202" s="30"/>
+      <c r="E202" s="31"/>
     </row>
     <row r="203">
-      <c r="E203" s="30"/>
+      <c r="E203" s="31"/>
     </row>
     <row r="204">
-      <c r="E204" s="30"/>
+      <c r="E204" s="31"/>
     </row>
     <row r="205">
-      <c r="E205" s="30"/>
+      <c r="E205" s="31"/>
     </row>
     <row r="206">
-      <c r="E206" s="30"/>
+      <c r="E206" s="31"/>
     </row>
     <row r="207">
-      <c r="E207" s="30"/>
+      <c r="E207" s="31"/>
     </row>
     <row r="208">
-      <c r="E208" s="30"/>
+      <c r="E208" s="31"/>
     </row>
     <row r="209">
-      <c r="E209" s="30"/>
+      <c r="E209" s="31"/>
     </row>
     <row r="210">
-      <c r="E210" s="30"/>
+      <c r="E210" s="31"/>
     </row>
     <row r="211">
-      <c r="E211" s="30"/>
+      <c r="E211" s="31"/>
     </row>
     <row r="212">
-      <c r="E212" s="30"/>
+      <c r="E212" s="31"/>
     </row>
     <row r="213">
-      <c r="E213" s="30"/>
+      <c r="E213" s="31"/>
     </row>
     <row r="214">
-      <c r="E214" s="30"/>
+      <c r="E214" s="31"/>
     </row>
     <row r="215">
-      <c r="E215" s="30"/>
+      <c r="E215" s="31"/>
     </row>
     <row r="216">
-      <c r="E216" s="30"/>
+      <c r="E216" s="31"/>
     </row>
     <row r="217">
-      <c r="E217" s="30"/>
+      <c r="E217" s="31"/>
     </row>
     <row r="218">
-      <c r="E218" s="30"/>
+      <c r="E218" s="31"/>
     </row>
     <row r="219">
-      <c r="E219" s="30"/>
+      <c r="E219" s="31"/>
     </row>
     <row r="220">
-      <c r="E220" s="30"/>
+      <c r="E220" s="31"/>
     </row>
     <row r="221">
-      <c r="E221" s="30"/>
+      <c r="E221" s="31"/>
     </row>
     <row r="222">
-      <c r="E222" s="30"/>
+      <c r="E222" s="31"/>
     </row>
     <row r="223">
-      <c r="E223" s="30"/>
+      <c r="E223" s="31"/>
     </row>
     <row r="224">
-      <c r="E224" s="30"/>
+      <c r="E224" s="31"/>
     </row>
     <row r="225">
-      <c r="E225" s="30"/>
+      <c r="E225" s="31"/>
     </row>
     <row r="226">
-      <c r="E226" s="30"/>
+      <c r="E226" s="31"/>
     </row>
     <row r="227">
-      <c r="E227" s="30"/>
+      <c r="E227" s="31"/>
     </row>
     <row r="228">
-      <c r="E228" s="30"/>
+      <c r="E228" s="31"/>
     </row>
     <row r="229">
-      <c r="E229" s="30"/>
+      <c r="E229" s="31"/>
     </row>
     <row r="230">
-      <c r="E230" s="30"/>
+      <c r="E230" s="31"/>
     </row>
     <row r="231">
-      <c r="E231" s="30"/>
+      <c r="E231" s="31"/>
     </row>
     <row r="232">
-      <c r="E232" s="30"/>
+      <c r="E232" s="31"/>
     </row>
     <row r="233">
-      <c r="E233" s="30"/>
+      <c r="E233" s="31"/>
     </row>
     <row r="234">
-      <c r="E234" s="30"/>
+      <c r="E234" s="31"/>
     </row>
     <row r="235">
-      <c r="E235" s="30"/>
+      <c r="E235" s="31"/>
     </row>
     <row r="236">
-      <c r="E236" s="30"/>
+      <c r="E236" s="31"/>
     </row>
     <row r="237">
-      <c r="E237" s="30"/>
+      <c r="E237" s="31"/>
     </row>
     <row r="238">
-      <c r="E238" s="30"/>
+      <c r="E238" s="31"/>
     </row>
     <row r="239">
-      <c r="E239" s="30"/>
+      <c r="E239" s="31"/>
     </row>
     <row r="240">
-      <c r="E240" s="30"/>
+      <c r="E240" s="31"/>
     </row>
     <row r="241">
-      <c r="E241" s="30"/>
+      <c r="E241" s="31"/>
     </row>
     <row r="242">
-      <c r="E242" s="30"/>
+      <c r="E242" s="31"/>
     </row>
     <row r="243">
-      <c r="E243" s="30"/>
+      <c r="E243" s="31"/>
     </row>
     <row r="244">
-      <c r="E244" s="30"/>
+      <c r="E244" s="31"/>
     </row>
     <row r="245">
-      <c r="E245" s="30"/>
+      <c r="E245" s="31"/>
     </row>
     <row r="246">
-      <c r="E246" s="30"/>
+      <c r="E246" s="31"/>
     </row>
     <row r="247">
-      <c r="E247" s="30"/>
+      <c r="E247" s="31"/>
     </row>
     <row r="248">
-      <c r="E248" s="30"/>
+      <c r="E248" s="31"/>
     </row>
     <row r="249">
-      <c r="E249" s="30"/>
+      <c r="E249" s="31"/>
     </row>
     <row r="250">
-      <c r="E250" s="30"/>
+      <c r="E250" s="31"/>
     </row>
     <row r="251">
-      <c r="E251" s="30"/>
+      <c r="E251" s="31"/>
     </row>
     <row r="252">
-      <c r="E252" s="30"/>
+      <c r="E252" s="31"/>
     </row>
     <row r="253">
-      <c r="E253" s="30"/>
+      <c r="E253" s="31"/>
     </row>
     <row r="254">
-      <c r="E254" s="30"/>
+      <c r="E254" s="31"/>
     </row>
     <row r="255">
-      <c r="E255" s="30"/>
+      <c r="E255" s="31"/>
     </row>
     <row r="256">
-      <c r="E256" s="30"/>
+      <c r="E256" s="31"/>
     </row>
     <row r="257">
-      <c r="E257" s="30"/>
+      <c r="E257" s="31"/>
     </row>
     <row r="258">
-      <c r="E258" s="30"/>
+      <c r="E258" s="31"/>
     </row>
     <row r="259">
-      <c r="E259" s="30"/>
+      <c r="E259" s="31"/>
     </row>
     <row r="260">
-      <c r="E260" s="30"/>
+      <c r="E260" s="31"/>
     </row>
     <row r="261">
-      <c r="E261" s="30"/>
+      <c r="E261" s="31"/>
     </row>
     <row r="262">
-      <c r="E262" s="30"/>
+      <c r="E262" s="31"/>
     </row>
     <row r="263">
-      <c r="E263" s="30"/>
+      <c r="E263" s="31"/>
     </row>
     <row r="264">
-      <c r="E264" s="30"/>
+      <c r="E264" s="31"/>
     </row>
     <row r="265">
-      <c r="E265" s="30"/>
+      <c r="E265" s="31"/>
     </row>
     <row r="266">
-      <c r="E266" s="30"/>
+      <c r="E266" s="31"/>
     </row>
     <row r="267">
-      <c r="E267" s="30"/>
+      <c r="E267" s="31"/>
     </row>
     <row r="268">
-      <c r="E268" s="30"/>
+      <c r="E268" s="31"/>
     </row>
     <row r="269">
-      <c r="E269" s="30"/>
+      <c r="E269" s="31"/>
     </row>
     <row r="270">
-      <c r="E270" s="30"/>
+      <c r="E270" s="31"/>
     </row>
     <row r="271">
-      <c r="E271" s="30"/>
+      <c r="E271" s="31"/>
     </row>
     <row r="272">
-      <c r="E272" s="30"/>
+      <c r="E272" s="31"/>
     </row>
     <row r="273">
-      <c r="E273" s="30"/>
+      <c r="E273" s="31"/>
     </row>
     <row r="274">
-      <c r="E274" s="30"/>
+      <c r="E274" s="31"/>
     </row>
     <row r="275">
-      <c r="E275" s="30"/>
+      <c r="E275" s="31"/>
     </row>
     <row r="276">
-      <c r="E276" s="30"/>
+      <c r="E276" s="31"/>
     </row>
     <row r="277">
-      <c r="E277" s="30"/>
+      <c r="E277" s="31"/>
     </row>
     <row r="278">
-      <c r="E278" s="30"/>
+      <c r="E278" s="31"/>
     </row>
     <row r="279">
-      <c r="E279" s="30"/>
+      <c r="E279" s="31"/>
     </row>
     <row r="280">
-      <c r="E280" s="30"/>
+      <c r="E280" s="31"/>
     </row>
     <row r="281">
-      <c r="E281" s="30"/>
+      <c r="E281" s="31"/>
     </row>
     <row r="282">
-      <c r="E282" s="30"/>
+      <c r="E282" s="31"/>
     </row>
     <row r="283">
-      <c r="E283" s="30"/>
+      <c r="E283" s="31"/>
     </row>
     <row r="284">
-      <c r="E284" s="30"/>
+      <c r="E284" s="31"/>
     </row>
     <row r="285">
-      <c r="E285" s="30"/>
+      <c r="E285" s="31"/>
     </row>
     <row r="286">
-      <c r="E286" s="30"/>
+      <c r="E286" s="31"/>
     </row>
     <row r="287">
-      <c r="E287" s="30"/>
+      <c r="E287" s="31"/>
     </row>
     <row r="288">
-      <c r="E288" s="30"/>
+      <c r="E288" s="31"/>
     </row>
     <row r="289">
-      <c r="E289" s="30"/>
+      <c r="E289" s="31"/>
     </row>
     <row r="290">
-      <c r="E290" s="30"/>
+      <c r="E290" s="31"/>
     </row>
     <row r="291">
-      <c r="E291" s="30"/>
+      <c r="E291" s="31"/>
     </row>
     <row r="292">
-      <c r="E292" s="30"/>
+      <c r="E292" s="31"/>
     </row>
     <row r="293">
-      <c r="E293" s="30"/>
+      <c r="E293" s="31"/>
     </row>
     <row r="294">
-      <c r="E294" s="30"/>
+      <c r="E294" s="31"/>
     </row>
     <row r="295">
-      <c r="E295" s="30"/>
+      <c r="E295" s="31"/>
     </row>
     <row r="296">
-      <c r="E296" s="30"/>
+      <c r="E296" s="31"/>
     </row>
     <row r="297">
-      <c r="E297" s="30"/>
+      <c r="E297" s="31"/>
     </row>
     <row r="298">
-      <c r="E298" s="30"/>
+      <c r="E298" s="31"/>
     </row>
     <row r="299">
-      <c r="E299" s="30"/>
+      <c r="E299" s="31"/>
     </row>
     <row r="300">
-      <c r="E300" s="30"/>
+      <c r="E300" s="31"/>
     </row>
     <row r="301">
-      <c r="E301" s="30"/>
+      <c r="E301" s="31"/>
     </row>
     <row r="302">
-      <c r="E302" s="30"/>
+      <c r="E302" s="31"/>
     </row>
     <row r="303">
-      <c r="E303" s="30"/>
+      <c r="E303" s="31"/>
     </row>
     <row r="304">
-      <c r="E304" s="30"/>
+      <c r="E304" s="31"/>
     </row>
     <row r="305">
-      <c r="E305" s="30"/>
+      <c r="E305" s="31"/>
     </row>
     <row r="306">
-      <c r="E306" s="30"/>
+      <c r="E306" s="31"/>
     </row>
     <row r="307">
-      <c r="E307" s="30"/>
+      <c r="E307" s="31"/>
     </row>
     <row r="308">
-      <c r="E308" s="30"/>
+      <c r="E308" s="31"/>
     </row>
     <row r="309">
-      <c r="E309" s="30"/>
+      <c r="E309" s="31"/>
     </row>
     <row r="310">
-      <c r="E310" s="30"/>
+      <c r="E310" s="31"/>
     </row>
     <row r="311">
-      <c r="E311" s="30"/>
+      <c r="E311" s="31"/>
     </row>
     <row r="312">
-      <c r="E312" s="30"/>
+      <c r="E312" s="31"/>
     </row>
     <row r="313">
-      <c r="E313" s="30"/>
+      <c r="E313" s="31"/>
     </row>
     <row r="314">
-      <c r="E314" s="30"/>
+      <c r="E314" s="31"/>
     </row>
     <row r="315">
-      <c r="E315" s="30"/>
+      <c r="E315" s="31"/>
     </row>
     <row r="316">
-      <c r="E316" s="30"/>
+      <c r="E316" s="31"/>
     </row>
     <row r="317">
-      <c r="E317" s="30"/>
+      <c r="E317" s="31"/>
     </row>
     <row r="318">
-      <c r="E318" s="30"/>
+      <c r="E318" s="31"/>
     </row>
     <row r="319">
-      <c r="E319" s="30"/>
+      <c r="E319" s="31"/>
     </row>
     <row r="320">
-      <c r="E320" s="30"/>
+      <c r="E320" s="31"/>
     </row>
     <row r="321">
-      <c r="E321" s="30"/>
+      <c r="E321" s="31"/>
     </row>
     <row r="322">
-      <c r="E322" s="30"/>
+      <c r="E322" s="31"/>
     </row>
     <row r="323">
-      <c r="E323" s="30"/>
+      <c r="E323" s="31"/>
     </row>
     <row r="324">
-      <c r="E324" s="30"/>
+      <c r="E324" s="31"/>
     </row>
     <row r="325">
-      <c r="E325" s="30"/>
+      <c r="E325" s="31"/>
     </row>
     <row r="326">
-      <c r="E326" s="30"/>
+      <c r="E326" s="31"/>
     </row>
     <row r="327">
-      <c r="E327" s="30"/>
+      <c r="E327" s="31"/>
     </row>
     <row r="328">
-      <c r="E328" s="30"/>
+      <c r="E328" s="31"/>
     </row>
     <row r="329">
-      <c r="E329" s="30"/>
+      <c r="E329" s="31"/>
     </row>
     <row r="330">
-      <c r="E330" s="30"/>
+      <c r="E330" s="31"/>
     </row>
     <row r="331">
-      <c r="E331" s="30"/>
+      <c r="E331" s="31"/>
     </row>
     <row r="332">
-      <c r="E332" s="30"/>
+      <c r="E332" s="31"/>
     </row>
     <row r="333">
-      <c r="E333" s="30"/>
+      <c r="E333" s="31"/>
     </row>
     <row r="334">
-      <c r="E334" s="30"/>
+      <c r="E334" s="31"/>
     </row>
     <row r="335">
-      <c r="E335" s="30"/>
+      <c r="E335" s="31"/>
     </row>
     <row r="336">
-      <c r="E336" s="30"/>
+      <c r="E336" s="31"/>
     </row>
     <row r="337">
-      <c r="E337" s="30"/>
+      <c r="E337" s="31"/>
     </row>
     <row r="338">
-      <c r="E338" s="30"/>
+      <c r="E338" s="31"/>
     </row>
     <row r="339">
-      <c r="E339" s="30"/>
+      <c r="E339" s="31"/>
     </row>
     <row r="340">
-      <c r="E340" s="30"/>
+      <c r="E340" s="31"/>
     </row>
     <row r="341">
-      <c r="E341" s="30"/>
+      <c r="E341" s="31"/>
     </row>
     <row r="342">
-      <c r="E342" s="30"/>
+      <c r="E342" s="31"/>
     </row>
     <row r="343">
-      <c r="E343" s="30"/>
+      <c r="E343" s="31"/>
     </row>
     <row r="344">
-      <c r="E344" s="30"/>
+      <c r="E344" s="31"/>
     </row>
     <row r="345">
-      <c r="E345" s="30"/>
+      <c r="E345" s="31"/>
     </row>
     <row r="346">
-      <c r="E346" s="30"/>
+      <c r="E346" s="31"/>
     </row>
     <row r="347">
-      <c r="E347" s="30"/>
+      <c r="E347" s="31"/>
     </row>
     <row r="348">
-      <c r="E348" s="30"/>
+      <c r="E348" s="31"/>
     </row>
     <row r="349">
-      <c r="E349" s="30"/>
+      <c r="E349" s="31"/>
     </row>
     <row r="350">
-      <c r="E350" s="30"/>
+      <c r="E350" s="31"/>
     </row>
     <row r="351">
-      <c r="E351" s="30"/>
+      <c r="E351" s="31"/>
     </row>
     <row r="352">
-      <c r="E352" s="30"/>
+      <c r="E352" s="31"/>
     </row>
     <row r="353">
-      <c r="E353" s="30"/>
+      <c r="E353" s="31"/>
     </row>
     <row r="354">
-      <c r="E354" s="30"/>
+      <c r="E354" s="31"/>
     </row>
     <row r="355">
-      <c r="E355" s="30"/>
+      <c r="E355" s="31"/>
     </row>
     <row r="356">
-      <c r="E356" s="30"/>
+      <c r="E356" s="31"/>
     </row>
     <row r="357">
-      <c r="E357" s="30"/>
+      <c r="E357" s="31"/>
     </row>
     <row r="358">
-      <c r="E358" s="30"/>
+      <c r="E358" s="31"/>
     </row>
     <row r="359">
-      <c r="E359" s="30"/>
+      <c r="E359" s="31"/>
     </row>
     <row r="360">
-      <c r="E360" s="30"/>
+      <c r="E360" s="31"/>
     </row>
     <row r="361">
-      <c r="E361" s="30"/>
+      <c r="E361" s="31"/>
     </row>
     <row r="362">
-      <c r="E362" s="30"/>
+      <c r="E362" s="31"/>
     </row>
     <row r="363">
-      <c r="E363" s="30"/>
+      <c r="E363" s="31"/>
     </row>
     <row r="364">
-      <c r="E364" s="30"/>
+      <c r="E364" s="31"/>
     </row>
     <row r="365">
-      <c r="E365" s="30"/>
+      <c r="E365" s="31"/>
     </row>
     <row r="366">
-      <c r="E366" s="30"/>
+      <c r="E366" s="31"/>
     </row>
     <row r="367">
-      <c r="E367" s="30"/>
+      <c r="E367" s="31"/>
     </row>
     <row r="368">
-      <c r="E368" s="30"/>
+      <c r="E368" s="31"/>
     </row>
     <row r="369">
-      <c r="E369" s="30"/>
+      <c r="E369" s="31"/>
     </row>
     <row r="370">
-      <c r="E370" s="30"/>
+      <c r="E370" s="31"/>
     </row>
     <row r="371">
-      <c r="E371" s="30"/>
+      <c r="E371" s="31"/>
     </row>
     <row r="372">
-      <c r="E372" s="30"/>
+      <c r="E372" s="31"/>
     </row>
     <row r="373">
-      <c r="E373" s="30"/>
+      <c r="E373" s="31"/>
     </row>
     <row r="374">
-      <c r="E374" s="30"/>
+      <c r="E374" s="31"/>
     </row>
     <row r="375">
-      <c r="E375" s="30"/>
+      <c r="E375" s="31"/>
     </row>
     <row r="376">
-      <c r="E376" s="30"/>
+      <c r="E376" s="31"/>
     </row>
     <row r="377">
-      <c r="E377" s="30"/>
+      <c r="E377" s="31"/>
     </row>
     <row r="378">
-      <c r="E378" s="30"/>
+      <c r="E378" s="31"/>
     </row>
     <row r="379">
-      <c r="E379" s="30"/>
+      <c r="E379" s="31"/>
     </row>
     <row r="380">
-      <c r="E380" s="30"/>
+      <c r="E380" s="31"/>
     </row>
     <row r="381">
-      <c r="E381" s="30"/>
+      <c r="E381" s="31"/>
     </row>
     <row r="382">
-      <c r="E382" s="30"/>
+      <c r="E382" s="31"/>
     </row>
     <row r="383">
-      <c r="E383" s="30"/>
+      <c r="E383" s="31"/>
     </row>
     <row r="384">
-      <c r="E384" s="30"/>
+      <c r="E384" s="31"/>
     </row>
     <row r="385">
-      <c r="E385" s="30"/>
+      <c r="E385" s="31"/>
     </row>
     <row r="386">
-      <c r="E386" s="30"/>
+      <c r="E386" s="31"/>
     </row>
     <row r="387">
-      <c r="E387" s="30"/>
+      <c r="E387" s="31"/>
     </row>
     <row r="388">
-      <c r="E388" s="30"/>
+      <c r="E388" s="31"/>
     </row>
     <row r="389">
-      <c r="E389" s="30"/>
+      <c r="E389" s="31"/>
     </row>
     <row r="390">
-      <c r="E390" s="30"/>
+      <c r="E390" s="31"/>
     </row>
     <row r="391">
-      <c r="E391" s="30"/>
+      <c r="E391" s="31"/>
     </row>
     <row r="392">
-      <c r="E392" s="30"/>
+      <c r="E392" s="31"/>
     </row>
     <row r="393">
-      <c r="E393" s="30"/>
+      <c r="E393" s="31"/>
     </row>
     <row r="394">
-      <c r="E394" s="30"/>
+      <c r="E394" s="31"/>
     </row>
     <row r="395">
-      <c r="E395" s="30"/>
+      <c r="E395" s="31"/>
     </row>
     <row r="396">
-      <c r="E396" s="30"/>
+      <c r="E396" s="31"/>
     </row>
     <row r="397">
-      <c r="E397" s="30"/>
+      <c r="E397" s="31"/>
     </row>
     <row r="398">
-      <c r="E398" s="30"/>
+      <c r="E398" s="31"/>
     </row>
     <row r="399">
-      <c r="E399" s="30"/>
+      <c r="E399" s="31"/>
     </row>
     <row r="400">
-      <c r="E400" s="30"/>
+      <c r="E400" s="31"/>
     </row>
     <row r="401">
-      <c r="E401" s="30"/>
+      <c r="E401" s="31"/>
     </row>
     <row r="402">
-      <c r="E402" s="30"/>
+      <c r="E402" s="31"/>
     </row>
     <row r="403">
-      <c r="E403" s="30"/>
+      <c r="E403" s="31"/>
     </row>
     <row r="404">
-      <c r="E404" s="30"/>
+      <c r="E404" s="31"/>
     </row>
     <row r="405">
-      <c r="E405" s="30"/>
+      <c r="E405" s="31"/>
     </row>
     <row r="406">
-      <c r="E406" s="30"/>
+      <c r="E406" s="31"/>
     </row>
     <row r="407">
-      <c r="E407" s="30"/>
+      <c r="E407" s="31"/>
     </row>
     <row r="408">
-      <c r="E408" s="30"/>
+      <c r="E408" s="31"/>
     </row>
     <row r="409">
-      <c r="E409" s="30"/>
+      <c r="E409" s="31"/>
     </row>
     <row r="410">
-      <c r="E410" s="30"/>
+      <c r="E410" s="31"/>
     </row>
     <row r="411">
-      <c r="E411" s="30"/>
+      <c r="E411" s="31"/>
     </row>
     <row r="412">
-      <c r="E412" s="30"/>
+      <c r="E412" s="31"/>
     </row>
     <row r="413">
-      <c r="E413" s="30"/>
+      <c r="E413" s="31"/>
     </row>
     <row r="414">
-      <c r="E414" s="30"/>
+      <c r="E414" s="31"/>
     </row>
     <row r="415">
-      <c r="E415" s="30"/>
+      <c r="E415" s="31"/>
     </row>
     <row r="416">
-      <c r="E416" s="30"/>
+      <c r="E416" s="31"/>
     </row>
     <row r="417">
-      <c r="E417" s="30"/>
+      <c r="E417" s="31"/>
     </row>
     <row r="418">
-      <c r="E418" s="30"/>
+      <c r="E418" s="31"/>
     </row>
     <row r="419">
-      <c r="E419" s="30"/>
+      <c r="E419" s="31"/>
     </row>
     <row r="420">
-      <c r="E420" s="30"/>
+      <c r="E420" s="31"/>
     </row>
     <row r="421">
-      <c r="E421" s="30"/>
+      <c r="E421" s="31"/>
     </row>
     <row r="422">
-      <c r="E422" s="30"/>
+      <c r="E422" s="31"/>
     </row>
     <row r="423">
-      <c r="E423" s="30"/>
+      <c r="E423" s="31"/>
     </row>
     <row r="424">
-      <c r="E424" s="30"/>
+      <c r="E424" s="31"/>
     </row>
     <row r="425">
-      <c r="E425" s="30"/>
+      <c r="E425" s="31"/>
     </row>
     <row r="426">
-      <c r="E426" s="30"/>
+      <c r="E426" s="31"/>
     </row>
     <row r="427">
-      <c r="E427" s="30"/>
+      <c r="E427" s="31"/>
     </row>
     <row r="428">
-      <c r="E428" s="30"/>
+      <c r="E428" s="31"/>
     </row>
     <row r="429">
-      <c r="E429" s="30"/>
+      <c r="E429" s="31"/>
     </row>
     <row r="430">
-      <c r="E430" s="30"/>
+      <c r="E430" s="31"/>
     </row>
     <row r="431">
-      <c r="E431" s="30"/>
+      <c r="E431" s="31"/>
     </row>
     <row r="432">
-      <c r="E432" s="30"/>
+      <c r="E432" s="31"/>
     </row>
     <row r="433">
-      <c r="E433" s="30"/>
+      <c r="E433" s="31"/>
     </row>
     <row r="434">
-      <c r="E434" s="30"/>
+      <c r="E434" s="31"/>
     </row>
     <row r="435">
-      <c r="E435" s="30"/>
+      <c r="E435" s="31"/>
     </row>
     <row r="436">
-      <c r="E436" s="30"/>
+      <c r="E436" s="31"/>
     </row>
     <row r="437">
-      <c r="E437" s="30"/>
+      <c r="E437" s="31"/>
     </row>
     <row r="438">
-      <c r="E438" s="30"/>
+      <c r="E438" s="31"/>
     </row>
     <row r="439">
-      <c r="E439" s="30"/>
+      <c r="E439" s="31"/>
     </row>
     <row r="440">
-      <c r="E440" s="30"/>
+      <c r="E440" s="31"/>
     </row>
     <row r="441">
-      <c r="E441" s="30"/>
+      <c r="E441" s="31"/>
     </row>
     <row r="442">
-      <c r="E442" s="30"/>
+      <c r="E442" s="31"/>
     </row>
     <row r="443">
-      <c r="E443" s="30"/>
+      <c r="E443" s="31"/>
     </row>
     <row r="444">
-      <c r="E444" s="30"/>
+      <c r="E444" s="31"/>
     </row>
     <row r="445">
-      <c r="E445" s="30"/>
+      <c r="E445" s="31"/>
     </row>
     <row r="446">
-      <c r="E446" s="30"/>
+      <c r="E446" s="31"/>
     </row>
     <row r="447">
-      <c r="E447" s="30"/>
+      <c r="E447" s="31"/>
     </row>
     <row r="448">
-      <c r="E448" s="30"/>
+      <c r="E448" s="31"/>
     </row>
     <row r="449">
-      <c r="E449" s="30"/>
+      <c r="E449" s="31"/>
     </row>
     <row r="450">
-      <c r="E450" s="30"/>
+      <c r="E450" s="31"/>
     </row>
     <row r="451">
-      <c r="E451" s="30"/>
+      <c r="E451" s="31"/>
     </row>
     <row r="452">
-      <c r="E452" s="30"/>
+      <c r="E452" s="31"/>
     </row>
     <row r="453">
-      <c r="E453" s="30"/>
+      <c r="E453" s="31"/>
     </row>
     <row r="454">
-      <c r="E454" s="30"/>
+      <c r="E454" s="31"/>
     </row>
     <row r="455">
-      <c r="E455" s="30"/>
+      <c r="E455" s="31"/>
     </row>
     <row r="456">
-      <c r="E456" s="30"/>
+      <c r="E456" s="31"/>
     </row>
     <row r="457">
-      <c r="E457" s="30"/>
+      <c r="E457" s="31"/>
     </row>
     <row r="458">
-      <c r="E458" s="30"/>
+      <c r="E458" s="31"/>
     </row>
     <row r="459">
-      <c r="E459" s="30"/>
+      <c r="E459" s="31"/>
     </row>
     <row r="460">
-      <c r="E460" s="30"/>
+      <c r="E460" s="31"/>
     </row>
     <row r="461">
-      <c r="E461" s="30"/>
+      <c r="E461" s="31"/>
     </row>
     <row r="462">
-      <c r="E462" s="30"/>
+      <c r="E462" s="31"/>
     </row>
     <row r="463">
-      <c r="E463" s="30"/>
+      <c r="E463" s="31"/>
     </row>
     <row r="464">
-      <c r="E464" s="30"/>
+      <c r="E464" s="31"/>
     </row>
     <row r="465">
-      <c r="E465" s="30"/>
+      <c r="E465" s="31"/>
     </row>
     <row r="466">
-      <c r="E466" s="30"/>
+      <c r="E466" s="31"/>
     </row>
     <row r="467">
-      <c r="E467" s="30"/>
+      <c r="E467" s="31"/>
     </row>
     <row r="468">
-      <c r="E468" s="30"/>
+      <c r="E468" s="31"/>
     </row>
     <row r="469">
-      <c r="E469" s="30"/>
+      <c r="E469" s="31"/>
     </row>
     <row r="470">
-      <c r="E470" s="30"/>
+      <c r="E470" s="31"/>
     </row>
     <row r="471">
-      <c r="E471" s="30"/>
+      <c r="E471" s="31"/>
     </row>
     <row r="472">
-      <c r="E472" s="30"/>
+      <c r="E472" s="31"/>
     </row>
     <row r="473">
-      <c r="E473" s="30"/>
+      <c r="E473" s="31"/>
     </row>
     <row r="474">
-      <c r="E474" s="30"/>
+      <c r="E474" s="31"/>
     </row>
     <row r="475">
-      <c r="E475" s="30"/>
+      <c r="E475" s="31"/>
     </row>
     <row r="476">
-      <c r="E476" s="30"/>
+      <c r="E476" s="31"/>
     </row>
     <row r="477">
-      <c r="E477" s="30"/>
+      <c r="E477" s="31"/>
     </row>
     <row r="478">
-      <c r="E478" s="30"/>
+      <c r="E478" s="31"/>
     </row>
     <row r="479">
-      <c r="E479" s="30"/>
+      <c r="E479" s="31"/>
     </row>
     <row r="480">
-      <c r="E480" s="30"/>
+      <c r="E480" s="31"/>
     </row>
     <row r="481">
-      <c r="E481" s="30"/>
+      <c r="E481" s="31"/>
     </row>
     <row r="482">
-      <c r="E482" s="30"/>
+      <c r="E482" s="31"/>
     </row>
     <row r="483">
-      <c r="E483" s="30"/>
+      <c r="E483" s="31"/>
     </row>
     <row r="484">
-      <c r="E484" s="30"/>
+      <c r="E484" s="31"/>
     </row>
     <row r="485">
-      <c r="E485" s="30"/>
+      <c r="E485" s="31"/>
     </row>
     <row r="486">
-      <c r="E486" s="30"/>
+      <c r="E486" s="31"/>
     </row>
     <row r="487">
-      <c r="E487" s="30"/>
+      <c r="E487" s="31"/>
     </row>
     <row r="488">
-      <c r="E488" s="30"/>
+      <c r="E488" s="31"/>
     </row>
     <row r="489">
-      <c r="E489" s="30"/>
+      <c r="E489" s="31"/>
     </row>
     <row r="490">
-      <c r="E490" s="30"/>
+      <c r="E490" s="31"/>
     </row>
     <row r="491">
-      <c r="E491" s="30"/>
+      <c r="E491" s="31"/>
     </row>
     <row r="492">
-      <c r="E492" s="30"/>
+      <c r="E492" s="31"/>
     </row>
     <row r="493">
-      <c r="E493" s="30"/>
+      <c r="E493" s="31"/>
     </row>
     <row r="494">
-      <c r="E494" s="30"/>
+      <c r="E494" s="31"/>
     </row>
     <row r="495">
-      <c r="E495" s="30"/>
+      <c r="E495" s="31"/>
     </row>
     <row r="496">
-      <c r="E496" s="30"/>
+      <c r="E496" s="31"/>
     </row>
     <row r="497">
-      <c r="E497" s="30"/>
+      <c r="E497" s="31"/>
     </row>
     <row r="498">
-      <c r="E498" s="30"/>
+      <c r="E498" s="31"/>
     </row>
     <row r="499">
-      <c r="E499" s="30"/>
+      <c r="E499" s="31"/>
     </row>
     <row r="500">
-      <c r="E500" s="30"/>
+      <c r="E500" s="31"/>
     </row>
     <row r="501">
-      <c r="E501" s="30"/>
+      <c r="E501" s="31"/>
     </row>
     <row r="502">
-      <c r="E502" s="30"/>
+      <c r="E502" s="31"/>
     </row>
     <row r="503">
-      <c r="E503" s="30"/>
+      <c r="E503" s="31"/>
     </row>
     <row r="504">
-      <c r="E504" s="30"/>
+      <c r="E504" s="31"/>
     </row>
     <row r="505">
-      <c r="E505" s="30"/>
+      <c r="E505" s="31"/>
     </row>
     <row r="506">
-      <c r="E506" s="30"/>
+      <c r="E506" s="31"/>
     </row>
     <row r="507">
-      <c r="E507" s="30"/>
+      <c r="E507" s="31"/>
     </row>
     <row r="508">
-      <c r="E508" s="30"/>
+      <c r="E508" s="31"/>
     </row>
     <row r="509">
-      <c r="E509" s="30"/>
+      <c r="E509" s="31"/>
     </row>
     <row r="510">
-      <c r="E510" s="30"/>
+      <c r="E510" s="31"/>
     </row>
     <row r="511">
-      <c r="E511" s="30"/>
+      <c r="E511" s="31"/>
     </row>
     <row r="512">
-      <c r="E512" s="30"/>
+      <c r="E512" s="31"/>
     </row>
     <row r="513">
-      <c r="E513" s="30"/>
+      <c r="E513" s="31"/>
     </row>
     <row r="514">
-      <c r="E514" s="30"/>
+      <c r="E514" s="31"/>
     </row>
     <row r="515">
-      <c r="E515" s="30"/>
+      <c r="E515" s="31"/>
     </row>
     <row r="516">
-      <c r="E516" s="30"/>
+      <c r="E516" s="31"/>
     </row>
     <row r="517">
-      <c r="E517" s="30"/>
+      <c r="E517" s="31"/>
     </row>
     <row r="518">
-      <c r="E518" s="30"/>
+      <c r="E518" s="31"/>
     </row>
     <row r="519">
-      <c r="E519" s="30"/>
+      <c r="E519" s="31"/>
     </row>
     <row r="520">
-      <c r="E520" s="30"/>
+      <c r="E520" s="31"/>
     </row>
     <row r="521">
-      <c r="E521" s="30"/>
+      <c r="E521" s="31"/>
     </row>
     <row r="522">
-      <c r="E522" s="30"/>
+      <c r="E522" s="31"/>
     </row>
     <row r="523">
-      <c r="E523" s="30"/>
+      <c r="E523" s="31"/>
     </row>
     <row r="524">
-      <c r="E524" s="30"/>
+      <c r="E524" s="31"/>
     </row>
     <row r="525">
-      <c r="E525" s="30"/>
+      <c r="E525" s="31"/>
     </row>
     <row r="526">
-      <c r="E526" s="30"/>
+      <c r="E526" s="31"/>
     </row>
     <row r="527">
-      <c r="E527" s="30"/>
+      <c r="E527" s="31"/>
     </row>
     <row r="528">
-      <c r="E528" s="30"/>
+      <c r="E528" s="31"/>
     </row>
     <row r="529">
-      <c r="E529" s="30"/>
+      <c r="E529" s="31"/>
     </row>
     <row r="530">
-      <c r="E530" s="30"/>
+      <c r="E530" s="31"/>
     </row>
     <row r="531">
-      <c r="E531" s="30"/>
+      <c r="E531" s="31"/>
     </row>
     <row r="532">
-      <c r="E532" s="30"/>
+      <c r="E532" s="31"/>
     </row>
     <row r="533">
-      <c r="E533" s="30"/>
+      <c r="E533" s="31"/>
     </row>
     <row r="534">
-      <c r="E534" s="30"/>
+      <c r="E534" s="31"/>
     </row>
     <row r="535">
-      <c r="E535" s="30"/>
+      <c r="E535" s="31"/>
     </row>
     <row r="536">
-      <c r="E536" s="30"/>
+      <c r="E536" s="31"/>
     </row>
     <row r="537">
-      <c r="E537" s="30"/>
+      <c r="E537" s="31"/>
     </row>
     <row r="538">
-      <c r="E538" s="30"/>
+      <c r="E538" s="31"/>
     </row>
     <row r="539">
-      <c r="E539" s="30"/>
+      <c r="E539" s="31"/>
     </row>
     <row r="540">
-      <c r="E540" s="30"/>
+      <c r="E540" s="31"/>
     </row>
     <row r="541">
-      <c r="E541" s="30"/>
+      <c r="E541" s="31"/>
     </row>
     <row r="542">
-      <c r="E542" s="30"/>
+      <c r="E542" s="31"/>
     </row>
     <row r="543">
-      <c r="E543" s="30"/>
+      <c r="E543" s="31"/>
     </row>
     <row r="544">
-      <c r="E544" s="30"/>
+      <c r="E544" s="31"/>
     </row>
     <row r="545">
-      <c r="E545" s="30"/>
+      <c r="E545" s="31"/>
     </row>
     <row r="546">
-      <c r="E546" s="30"/>
+      <c r="E546" s="31"/>
     </row>
     <row r="547">
-      <c r="E547" s="30"/>
+      <c r="E547" s="31"/>
     </row>
     <row r="548">
-      <c r="E548" s="30"/>
+      <c r="E548" s="31"/>
     </row>
     <row r="549">
-      <c r="E549" s="30"/>
+      <c r="E549" s="31"/>
     </row>
     <row r="550">
-      <c r="E550" s="30"/>
+      <c r="E550" s="31"/>
     </row>
     <row r="551">
-      <c r="E551" s="30"/>
+      <c r="E551" s="31"/>
     </row>
     <row r="552">
-      <c r="E552" s="30"/>
+      <c r="E552" s="31"/>
     </row>
     <row r="553">
-      <c r="E553" s="30"/>
+      <c r="E553" s="31"/>
     </row>
     <row r="554">
-      <c r="E554" s="30"/>
+      <c r="E554" s="31"/>
     </row>
     <row r="555">
-      <c r="E555" s="30"/>
+      <c r="E555" s="31"/>
     </row>
     <row r="556">
-      <c r="E556" s="30"/>
+      <c r="E556" s="31"/>
     </row>
     <row r="557">
-      <c r="E557" s="30"/>
+      <c r="E557" s="31"/>
     </row>
     <row r="558">
-      <c r="E558" s="30"/>
+      <c r="E558" s="31"/>
     </row>
     <row r="559">
-      <c r="E559" s="30"/>
+      <c r="E559" s="31"/>
     </row>
     <row r="560">
-      <c r="E560" s="30"/>
+      <c r="E560" s="31"/>
     </row>
     <row r="561">
-      <c r="E561" s="30"/>
+      <c r="E561" s="31"/>
     </row>
     <row r="562">
-      <c r="E562" s="30"/>
+      <c r="E562" s="31"/>
     </row>
     <row r="563">
-      <c r="E563" s="30"/>
+      <c r="E563" s="31"/>
     </row>
     <row r="564">
-      <c r="E564" s="30"/>
+      <c r="E564" s="31"/>
     </row>
     <row r="565">
-      <c r="E565" s="30"/>
+      <c r="E565" s="31"/>
     </row>
     <row r="566">
-      <c r="E566" s="30"/>
+      <c r="E566" s="31"/>
     </row>
     <row r="567">
-      <c r="E567" s="30"/>
+      <c r="E567" s="31"/>
     </row>
     <row r="568">
-      <c r="E568" s="30"/>
+      <c r="E568" s="31"/>
     </row>
     <row r="569">
-      <c r="E569" s="30"/>
+      <c r="E569" s="31"/>
     </row>
     <row r="570">
-      <c r="E570" s="30"/>
+      <c r="E570" s="31"/>
     </row>
     <row r="571">
-      <c r="E571" s="30"/>
+      <c r="E571" s="31"/>
     </row>
     <row r="572">
-      <c r="E572" s="30"/>
+      <c r="E572" s="31"/>
     </row>
     <row r="573">
-      <c r="E573" s="30"/>
+      <c r="E573" s="31"/>
     </row>
     <row r="574">
-      <c r="E574" s="30"/>
+      <c r="E574" s="31"/>
     </row>
     <row r="575">
-      <c r="E575" s="30"/>
+      <c r="E575" s="31"/>
     </row>
     <row r="576">
-      <c r="E576" s="30"/>
+      <c r="E576" s="31"/>
     </row>
     <row r="577">
-      <c r="E577" s="30"/>
+      <c r="E577" s="31"/>
     </row>
     <row r="578">
-      <c r="E578" s="30"/>
+      <c r="E578" s="31"/>
     </row>
     <row r="579">
-      <c r="E579" s="30"/>
+      <c r="E579" s="31"/>
     </row>
     <row r="580">
-      <c r="E580" s="30"/>
+      <c r="E580" s="31"/>
     </row>
     <row r="581">
-      <c r="E581" s="30"/>
+      <c r="E581" s="31"/>
     </row>
     <row r="582">
-      <c r="E582" s="30"/>
+      <c r="E582" s="31"/>
     </row>
     <row r="583">
-      <c r="E583" s="30"/>
+      <c r="E583" s="31"/>
     </row>
     <row r="584">
-      <c r="E584" s="30"/>
+      <c r="E584" s="31"/>
     </row>
     <row r="585">
-      <c r="E585" s="30"/>
+      <c r="E585" s="31"/>
     </row>
     <row r="586">
-      <c r="E586" s="30"/>
+      <c r="E586" s="31"/>
     </row>
     <row r="587">
-      <c r="E587" s="30"/>
+      <c r="E587" s="31"/>
     </row>
     <row r="588">
-      <c r="E588" s="30"/>
+      <c r="E588" s="31"/>
     </row>
     <row r="589">
-      <c r="E589" s="30"/>
+      <c r="E589" s="31"/>
     </row>
     <row r="590">
-      <c r="E590" s="30"/>
+      <c r="E590" s="31"/>
     </row>
     <row r="591">
-      <c r="E591" s="30"/>
+      <c r="E591" s="31"/>
     </row>
     <row r="592">
-      <c r="E592" s="30"/>
+      <c r="E592" s="31"/>
     </row>
     <row r="593">
-      <c r="E593" s="30"/>
+      <c r="E593" s="31"/>
     </row>
     <row r="594">
-      <c r="E594" s="30"/>
+      <c r="E594" s="31"/>
     </row>
     <row r="595">
-      <c r="E595" s="30"/>
+      <c r="E595" s="31"/>
     </row>
     <row r="596">
-      <c r="E596" s="30"/>
+      <c r="E596" s="31"/>
     </row>
     <row r="597">
-      <c r="E597" s="30"/>
+      <c r="E597" s="31"/>
     </row>
     <row r="598">
-      <c r="E598" s="30"/>
+      <c r="E598" s="31"/>
     </row>
     <row r="599">
-      <c r="E599" s="30"/>
+      <c r="E599" s="31"/>
     </row>
     <row r="600">
-      <c r="E600" s="30"/>
+      <c r="E600" s="31"/>
     </row>
     <row r="601">
-      <c r="E601" s="30"/>
+      <c r="E601" s="31"/>
     </row>
     <row r="602">
-      <c r="E602" s="30"/>
+      <c r="E602" s="31"/>
     </row>
     <row r="603">
-      <c r="E603" s="30"/>
+      <c r="E603" s="31"/>
     </row>
     <row r="604">
-      <c r="E604" s="30"/>
+      <c r="E604" s="31"/>
     </row>
     <row r="605">
-      <c r="E605" s="30"/>
+      <c r="E605" s="31"/>
     </row>
     <row r="606">
-      <c r="E606" s="30"/>
+      <c r="E606" s="31"/>
     </row>
     <row r="607">
-      <c r="E607" s="30"/>
+      <c r="E607" s="31"/>
     </row>
     <row r="608">
-      <c r="E608" s="30"/>
+      <c r="E608" s="31"/>
     </row>
     <row r="609">
-      <c r="E609" s="30"/>
+      <c r="E609" s="31"/>
     </row>
     <row r="610">
-      <c r="E610" s="30"/>
+      <c r="E610" s="31"/>
     </row>
     <row r="611">
-      <c r="E611" s="30"/>
+      <c r="E611" s="31"/>
     </row>
     <row r="612">
-      <c r="E612" s="30"/>
+      <c r="E612" s="31"/>
     </row>
     <row r="613">
-      <c r="E613" s="30"/>
+      <c r="E613" s="31"/>
     </row>
     <row r="614">
-      <c r="E614" s="30"/>
+      <c r="E614" s="31"/>
     </row>
     <row r="615">
-      <c r="E615" s="30"/>
+      <c r="E615" s="31"/>
     </row>
     <row r="616">
-      <c r="E616" s="30"/>
+      <c r="E616" s="31"/>
     </row>
     <row r="617">
-      <c r="E617" s="30"/>
+      <c r="E617" s="31"/>
     </row>
     <row r="618">
-      <c r="E618" s="30"/>
+      <c r="E618" s="31"/>
     </row>
     <row r="619">
-      <c r="E619" s="30"/>
+      <c r="E619" s="31"/>
     </row>
     <row r="620">
-      <c r="E620" s="30"/>
+      <c r="E620" s="31"/>
     </row>
     <row r="621">
-      <c r="E621" s="30"/>
+      <c r="E621" s="31"/>
     </row>
     <row r="622">
-      <c r="E622" s="30"/>
+      <c r="E622" s="31"/>
     </row>
     <row r="623">
-      <c r="E623" s="30"/>
+      <c r="E623" s="31"/>
     </row>
     <row r="624">
-      <c r="E624" s="30"/>
+      <c r="E624" s="31"/>
     </row>
     <row r="625">
-      <c r="E625" s="30"/>
+      <c r="E625" s="31"/>
     </row>
     <row r="626">
-      <c r="E626" s="30"/>
+      <c r="E626" s="31"/>
     </row>
     <row r="627">
-      <c r="E627" s="30"/>
+      <c r="E627" s="31"/>
     </row>
     <row r="628">
-      <c r="E628" s="30"/>
+      <c r="E628" s="31"/>
     </row>
     <row r="629">
-      <c r="E629" s="30"/>
+      <c r="E629" s="31"/>
     </row>
     <row r="630">
-      <c r="E630" s="30"/>
+      <c r="E630" s="31"/>
     </row>
     <row r="631">
-      <c r="E631" s="30"/>
+      <c r="E631" s="31"/>
     </row>
     <row r="632">
-      <c r="E632" s="30"/>
+      <c r="E632" s="31"/>
     </row>
     <row r="633">
-      <c r="E633" s="30"/>
+      <c r="E633" s="31"/>
     </row>
     <row r="634">
-      <c r="E634" s="30"/>
+      <c r="E634" s="31"/>
     </row>
     <row r="635">
-      <c r="E635" s="30"/>
+      <c r="E635" s="31"/>
     </row>
     <row r="636">
-      <c r="E636" s="30"/>
+      <c r="E636" s="31"/>
     </row>
     <row r="637">
-      <c r="E637" s="30"/>
+      <c r="E637" s="31"/>
     </row>
     <row r="638">
-      <c r="E638" s="30"/>
+      <c r="E638" s="31"/>
     </row>
     <row r="639">
-      <c r="E639" s="30"/>
+      <c r="E639" s="31"/>
     </row>
     <row r="640">
-      <c r="E640" s="30"/>
+      <c r="E640" s="31"/>
     </row>
     <row r="641">
-      <c r="E641" s="30"/>
+      <c r="E641" s="31"/>
     </row>
     <row r="642">
-      <c r="E642" s="30"/>
+      <c r="E642" s="31"/>
     </row>
     <row r="643">
-      <c r="E643" s="30"/>
+      <c r="E643" s="31"/>
     </row>
     <row r="644">
-      <c r="E644" s="30"/>
+      <c r="E644" s="31"/>
     </row>
     <row r="645">
-      <c r="E645" s="30"/>
+      <c r="E645" s="31"/>
     </row>
     <row r="646">
-      <c r="E646" s="30"/>
+      <c r="E646" s="31"/>
     </row>
     <row r="647">
-      <c r="E647" s="30"/>
+      <c r="E647" s="31"/>
     </row>
     <row r="648">
-      <c r="E648" s="30"/>
+      <c r="E648" s="31"/>
     </row>
     <row r="649">
-      <c r="E649" s="30"/>
+      <c r="E649" s="31"/>
     </row>
     <row r="650">
-      <c r="E650" s="30"/>
+      <c r="E650" s="31"/>
     </row>
     <row r="651">
-      <c r="E651" s="30"/>
+      <c r="E651" s="31"/>
     </row>
     <row r="652">
-      <c r="E652" s="30"/>
+      <c r="E652" s="31"/>
     </row>
     <row r="653">
-      <c r="E653" s="30"/>
+      <c r="E653" s="31"/>
     </row>
     <row r="654">
-      <c r="E654" s="30"/>
+      <c r="E654" s="31"/>
     </row>
     <row r="655">
-      <c r="E655" s="30"/>
+      <c r="E655" s="31"/>
     </row>
     <row r="656">
-      <c r="E656" s="30"/>
+      <c r="E656" s="31"/>
     </row>
     <row r="657">
-      <c r="E657" s="30"/>
+      <c r="E657" s="31"/>
     </row>
     <row r="658">
-      <c r="E658" s="30"/>
+      <c r="E658" s="31"/>
     </row>
     <row r="659">
-      <c r="E659" s="30"/>
+      <c r="E659" s="31"/>
     </row>
     <row r="660">
-      <c r="E660" s="30"/>
+      <c r="E660" s="31"/>
     </row>
     <row r="661">
-      <c r="E661" s="30"/>
+      <c r="E661" s="31"/>
     </row>
     <row r="662">
-      <c r="E662" s="30"/>
+      <c r="E662" s="31"/>
     </row>
     <row r="663">
-      <c r="E663" s="30"/>
+      <c r="E663" s="31"/>
     </row>
     <row r="664">
-      <c r="E664" s="30"/>
+      <c r="E664" s="31"/>
     </row>
     <row r="665">
-      <c r="E665" s="30"/>
+      <c r="E665" s="31"/>
     </row>
     <row r="666">
-      <c r="E666" s="30"/>
+      <c r="E666" s="31"/>
     </row>
     <row r="667">
-      <c r="E667" s="30"/>
+      <c r="E667" s="31"/>
     </row>
     <row r="668">
-      <c r="E668" s="30"/>
+      <c r="E668" s="31"/>
     </row>
     <row r="669">
-      <c r="E669" s="30"/>
+      <c r="E669" s="31"/>
     </row>
     <row r="670">
-      <c r="E670" s="30"/>
+      <c r="E670" s="31"/>
     </row>
     <row r="671">
-      <c r="E671" s="30"/>
+      <c r="E671" s="31"/>
     </row>
     <row r="672">
-      <c r="E672" s="30"/>
+      <c r="E672" s="31"/>
     </row>
     <row r="673">
-      <c r="E673" s="30"/>
+      <c r="E673" s="31"/>
     </row>
     <row r="674">
-      <c r="E674" s="30"/>
+      <c r="E674" s="31"/>
     </row>
     <row r="675">
-      <c r="E675" s="30"/>
+      <c r="E675" s="31"/>
     </row>
     <row r="676">
-      <c r="E676" s="30"/>
+      <c r="E676" s="31"/>
     </row>
     <row r="677">
-      <c r="E677" s="30"/>
+      <c r="E677" s="31"/>
     </row>
     <row r="678">
-      <c r="E678" s="30"/>
+      <c r="E678" s="31"/>
     </row>
     <row r="679">
-      <c r="E679" s="30"/>
+      <c r="E679" s="31"/>
     </row>
     <row r="680">
-      <c r="E680" s="30"/>
+      <c r="E680" s="31"/>
     </row>
     <row r="681">
-      <c r="E681" s="30"/>
+      <c r="E681" s="31"/>
     </row>
     <row r="682">
-      <c r="E682" s="30"/>
+      <c r="E682" s="31"/>
     </row>
     <row r="683">
-      <c r="E683" s="30"/>
+      <c r="E683" s="31"/>
     </row>
     <row r="684">
-      <c r="E684" s="30"/>
+      <c r="E684" s="31"/>
     </row>
     <row r="685">
-      <c r="E685" s="30"/>
+      <c r="E685" s="31"/>
     </row>
     <row r="686">
-      <c r="E686" s="30"/>
+      <c r="E686" s="31"/>
     </row>
     <row r="687">
-      <c r="E687" s="30"/>
+      <c r="E687" s="31"/>
     </row>
     <row r="688">
-      <c r="E688" s="30"/>
+      <c r="E688" s="31"/>
     </row>
     <row r="689">
-      <c r="E689" s="30"/>
+      <c r="E689" s="31"/>
     </row>
     <row r="690">
-      <c r="E690" s="30"/>
+      <c r="E690" s="31"/>
     </row>
     <row r="691">
-      <c r="E691" s="30"/>
+      <c r="E691" s="31"/>
     </row>
     <row r="692">
-      <c r="E692" s="30"/>
+      <c r="E692" s="31"/>
     </row>
     <row r="693">
-      <c r="E693" s="30"/>
+      <c r="E693" s="31"/>
     </row>
     <row r="694">
-      <c r="E694" s="30"/>
+      <c r="E694" s="31"/>
     </row>
     <row r="695">
-      <c r="E695" s="30"/>
+      <c r="E695" s="31"/>
     </row>
     <row r="696">
-      <c r="E696" s="30"/>
+      <c r="E696" s="31"/>
     </row>
     <row r="697">
-      <c r="E697" s="30"/>
+      <c r="E697" s="31"/>
     </row>
     <row r="698">
-      <c r="E698" s="30"/>
+      <c r="E698" s="31"/>
     </row>
     <row r="699">
-      <c r="E699" s="30"/>
+      <c r="E699" s="31"/>
     </row>
     <row r="700">
-      <c r="E700" s="30"/>
+      <c r="E700" s="31"/>
     </row>
     <row r="701">
-      <c r="E701" s="30"/>
+      <c r="E701" s="31"/>
     </row>
     <row r="702">
-      <c r="E702" s="30"/>
+      <c r="E702" s="31"/>
     </row>
     <row r="703">
-      <c r="E703" s="30"/>
+      <c r="E703" s="31"/>
     </row>
     <row r="704">
-      <c r="E704" s="30"/>
+      <c r="E704" s="31"/>
     </row>
     <row r="705">
-      <c r="E705" s="30"/>
+      <c r="E705" s="31"/>
     </row>
     <row r="706">
-      <c r="E706" s="30"/>
+      <c r="E706" s="31"/>
     </row>
     <row r="707">
-      <c r="E707" s="30"/>
+      <c r="E707" s="31"/>
     </row>
     <row r="708">
-      <c r="E708" s="30"/>
+      <c r="E708" s="31"/>
     </row>
     <row r="709">
-      <c r="E709" s="30"/>
+      <c r="E709" s="31"/>
     </row>
     <row r="710">
-      <c r="E710" s="30"/>
+      <c r="E710" s="31"/>
     </row>
     <row r="711">
-      <c r="E711" s="30"/>
+      <c r="E711" s="31"/>
     </row>
     <row r="712">
-      <c r="E712" s="30"/>
+      <c r="E712" s="31"/>
     </row>
     <row r="713">
-      <c r="E713" s="30"/>
+      <c r="E713" s="31"/>
     </row>
     <row r="714">
-      <c r="E714" s="30"/>
+      <c r="E714" s="31"/>
     </row>
     <row r="715">
-      <c r="E715" s="30"/>
+      <c r="E715" s="31"/>
     </row>
     <row r="716">
-      <c r="E716" s="30"/>
+      <c r="E716" s="31"/>
     </row>
     <row r="717">
-      <c r="E717" s="30"/>
+      <c r="E717" s="31"/>
     </row>
     <row r="718">
-      <c r="E718" s="30"/>
+      <c r="E718" s="31"/>
     </row>
     <row r="719">
-      <c r="E719" s="30"/>
+      <c r="E719" s="31"/>
     </row>
     <row r="720">
-      <c r="E720" s="30"/>
+      <c r="E720" s="31"/>
     </row>
     <row r="721">
-      <c r="E721" s="30"/>
+      <c r="E721" s="31"/>
     </row>
     <row r="722">
-      <c r="E722" s="30"/>
+      <c r="E722" s="31"/>
     </row>
     <row r="723">
-      <c r="E723" s="30"/>
+      <c r="E723" s="31"/>
     </row>
     <row r="724">
-      <c r="E724" s="30"/>
+      <c r="E724" s="31"/>
     </row>
     <row r="725">
-      <c r="E725" s="30"/>
+      <c r="E725" s="31"/>
     </row>
     <row r="726">
-      <c r="E726" s="30"/>
+      <c r="E726" s="31"/>
     </row>
     <row r="727">
-      <c r="E727" s="30"/>
+      <c r="E727" s="31"/>
     </row>
     <row r="728">
-      <c r="E728" s="30"/>
+      <c r="E728" s="31"/>
     </row>
     <row r="729">
-      <c r="E729" s="30"/>
+      <c r="E729" s="31"/>
     </row>
     <row r="730">
-      <c r="E730" s="30"/>
+      <c r="E730" s="31"/>
     </row>
     <row r="731">
-      <c r="E731" s="30"/>
+      <c r="E731" s="31"/>
     </row>
     <row r="732">
-      <c r="E732" s="30"/>
+      <c r="E732" s="31"/>
     </row>
     <row r="733">
-      <c r="E733" s="30"/>
+      <c r="E733" s="31"/>
     </row>
     <row r="734">
-      <c r="E734" s="30"/>
+      <c r="E734" s="31"/>
     </row>
     <row r="735">
-      <c r="E735" s="30"/>
+      <c r="E735" s="31"/>
     </row>
     <row r="736">
-      <c r="E736" s="30"/>
+      <c r="E736" s="31"/>
     </row>
     <row r="737">
-      <c r="E737" s="30"/>
+      <c r="E737" s="31"/>
     </row>
     <row r="738">
-      <c r="E738" s="30"/>
+      <c r="E738" s="31"/>
     </row>
     <row r="739">
-      <c r="E739" s="30"/>
+      <c r="E739" s="31"/>
     </row>
     <row r="740">
-      <c r="E740" s="30"/>
+      <c r="E740" s="31"/>
     </row>
     <row r="741">
-      <c r="E741" s="30"/>
+      <c r="E741" s="31"/>
     </row>
     <row r="742">
-      <c r="E742" s="30"/>
+      <c r="E742" s="31"/>
     </row>
     <row r="743">
-      <c r="E743" s="30"/>
+      <c r="E743" s="31"/>
     </row>
     <row r="744">
-      <c r="E744" s="30"/>
+      <c r="E744" s="31"/>
     </row>
     <row r="745">
-      <c r="E745" s="30"/>
+      <c r="E745" s="31"/>
     </row>
     <row r="746">
-      <c r="E746" s="30"/>
+      <c r="E746" s="31"/>
     </row>
     <row r="747">
-      <c r="E747" s="30"/>
+      <c r="E747" s="31"/>
     </row>
     <row r="748">
-      <c r="E748" s="30"/>
+      <c r="E748" s="31"/>
     </row>
     <row r="749">
-      <c r="E749" s="30"/>
+      <c r="E749" s="31"/>
     </row>
     <row r="750">
-      <c r="E750" s="30"/>
+      <c r="E750" s="31"/>
     </row>
     <row r="751">
-      <c r="E751" s="30"/>
+      <c r="E751" s="31"/>
     </row>
     <row r="752">
-      <c r="E752" s="30"/>
+      <c r="E752" s="31"/>
     </row>
     <row r="753">
-      <c r="E753" s="30"/>
+      <c r="E753" s="31"/>
     </row>
     <row r="754">
-      <c r="E754" s="30"/>
+      <c r="E754" s="31"/>
     </row>
     <row r="755">
-      <c r="E755" s="30"/>
+      <c r="E755" s="31"/>
     </row>
     <row r="756">
-      <c r="E756" s="30"/>
+      <c r="E756" s="31"/>
     </row>
     <row r="757">
-      <c r="E757" s="30"/>
+      <c r="E757" s="31"/>
     </row>
     <row r="758">
-      <c r="E758" s="30"/>
+      <c r="E758" s="31"/>
     </row>
     <row r="759">
-      <c r="E759" s="30"/>
+      <c r="E759" s="31"/>
     </row>
     <row r="760">
-      <c r="E760" s="30"/>
+      <c r="E760" s="31"/>
     </row>
     <row r="761">
-      <c r="E761" s="30"/>
+      <c r="E761" s="31"/>
     </row>
     <row r="762">
-      <c r="E762" s="30"/>
+      <c r="E762" s="31"/>
     </row>
     <row r="763">
-      <c r="E763" s="30"/>
+      <c r="E763" s="31"/>
     </row>
     <row r="764">
-      <c r="E764" s="30"/>
+      <c r="E764" s="31"/>
     </row>
     <row r="765">
-      <c r="E765" s="30"/>
+      <c r="E765" s="31"/>
     </row>
     <row r="766">
-      <c r="E766" s="30"/>
+      <c r="E766" s="31"/>
     </row>
     <row r="767">
-      <c r="E767" s="30"/>
+      <c r="E767" s="31"/>
     </row>
     <row r="768">
-      <c r="E768" s="30"/>
+      <c r="E768" s="31"/>
     </row>
     <row r="769">
-      <c r="E769" s="30"/>
+      <c r="E769" s="31"/>
     </row>
     <row r="770">
-      <c r="E770" s="30"/>
+      <c r="E770" s="31"/>
     </row>
     <row r="771">
-      <c r="E771" s="30"/>
+      <c r="E771" s="31"/>
     </row>
     <row r="772">
-      <c r="E772" s="30"/>
+      <c r="E772" s="31"/>
     </row>
     <row r="773">
-      <c r="E773" s="30"/>
+      <c r="E773" s="31"/>
     </row>
     <row r="774">
-      <c r="E774" s="30"/>
+      <c r="E774" s="31"/>
     </row>
     <row r="775">
-      <c r="E775" s="30"/>
+      <c r="E775" s="31"/>
     </row>
     <row r="776">
-      <c r="E776" s="30"/>
+      <c r="E776" s="31"/>
     </row>
     <row r="777">
-      <c r="E777" s="30"/>
+      <c r="E777" s="31"/>
     </row>
     <row r="778">
-      <c r="E778" s="30"/>
+      <c r="E778" s="31"/>
     </row>
     <row r="779">
-      <c r="E779" s="30"/>
+      <c r="E779" s="31"/>
     </row>
     <row r="780">
-      <c r="E780" s="30"/>
+      <c r="E780" s="31"/>
     </row>
     <row r="781">
-      <c r="E781" s="30"/>
+      <c r="E781" s="31"/>
     </row>
     <row r="782">
-      <c r="E782" s="30"/>
+      <c r="E782" s="31"/>
     </row>
     <row r="783">
-      <c r="E783" s="30"/>
+      <c r="E783" s="31"/>
     </row>
     <row r="784">
-      <c r="E784" s="30"/>
+      <c r="E784" s="31"/>
     </row>
     <row r="785">
-      <c r="E785" s="30"/>
+      <c r="E785" s="31"/>
     </row>
     <row r="786">
-      <c r="E786" s="30"/>
+      <c r="E786" s="31"/>
     </row>
     <row r="787">
-      <c r="E787" s="30"/>
+      <c r="E787" s="31"/>
     </row>
     <row r="788">
-      <c r="E788" s="30"/>
+      <c r="E788" s="31"/>
     </row>
     <row r="789">
-      <c r="E789" s="30"/>
+      <c r="E789" s="31"/>
     </row>
     <row r="790">
-      <c r="E790" s="30"/>
+      <c r="E790" s="31"/>
     </row>
     <row r="791">
-      <c r="E791" s="30"/>
+      <c r="E791" s="31"/>
     </row>
     <row r="792">
-      <c r="E792" s="30"/>
+      <c r="E792" s="31"/>
     </row>
     <row r="793">
-      <c r="E793" s="30"/>
+      <c r="E793" s="31"/>
     </row>
     <row r="794">
-      <c r="E794" s="30"/>
+      <c r="E794" s="31"/>
     </row>
     <row r="795">
-      <c r="E795" s="30"/>
+      <c r="E795" s="31"/>
     </row>
     <row r="796">
-      <c r="E796" s="30"/>
+      <c r="E796" s="31"/>
     </row>
     <row r="797">
-      <c r="E797" s="30"/>
+      <c r="E797" s="31"/>
     </row>
     <row r="798">
-      <c r="E798" s="30"/>
+      <c r="E798" s="31"/>
     </row>
     <row r="799">
-      <c r="E799" s="30"/>
+      <c r="E799" s="31"/>
     </row>
     <row r="800">
-      <c r="E800" s="30"/>
+      <c r="E800" s="31"/>
     </row>
     <row r="801">
-      <c r="E801" s="30"/>
+      <c r="E801" s="31"/>
     </row>
     <row r="802">
-      <c r="E802" s="30"/>
+      <c r="E802" s="31"/>
     </row>
     <row r="803">
-      <c r="E803" s="30"/>
+      <c r="E803" s="31"/>
     </row>
     <row r="804">
-      <c r="E804" s="30"/>
+      <c r="E804" s="31"/>
     </row>
     <row r="805">
-      <c r="E805" s="30"/>
+      <c r="E805" s="31"/>
     </row>
     <row r="806">
-      <c r="E806" s="30"/>
+      <c r="E806" s="31"/>
     </row>
     <row r="807">
-      <c r="E807" s="30"/>
+      <c r="E807" s="31"/>
     </row>
     <row r="808">
-      <c r="E808" s="30"/>
+      <c r="E808" s="31"/>
     </row>
     <row r="809">
-      <c r="E809" s="30"/>
+      <c r="E809" s="31"/>
     </row>
     <row r="810">
-      <c r="E810" s="30"/>
+      <c r="E810" s="31"/>
     </row>
     <row r="811">
-      <c r="E811" s="30"/>
+      <c r="E811" s="31"/>
     </row>
     <row r="812">
-      <c r="E812" s="30"/>
+      <c r="E812" s="31"/>
     </row>
     <row r="813">
-      <c r="E813" s="30"/>
+      <c r="E813" s="31"/>
     </row>
     <row r="814">
-      <c r="E814" s="30"/>
+      <c r="E814" s="31"/>
     </row>
     <row r="815">
-      <c r="E815" s="30"/>
+      <c r="E815" s="31"/>
     </row>
     <row r="816">
-      <c r="E816" s="30"/>
+      <c r="E816" s="31"/>
     </row>
     <row r="817">
-      <c r="E817" s="30"/>
+      <c r="E817" s="31"/>
     </row>
     <row r="818">
-      <c r="E818" s="30"/>
+      <c r="E818" s="31"/>
     </row>
     <row r="819">
-      <c r="E819" s="30"/>
+      <c r="E819" s="31"/>
     </row>
     <row r="820">
-      <c r="E820" s="30"/>
+      <c r="E820" s="31"/>
     </row>
     <row r="821">
-      <c r="E821" s="30"/>
+      <c r="E821" s="31"/>
     </row>
     <row r="822">
-      <c r="E822" s="30"/>
+      <c r="E822" s="31"/>
     </row>
     <row r="823">
-      <c r="E823" s="30"/>
+      <c r="E823" s="31"/>
     </row>
     <row r="824">
-      <c r="E824" s="30"/>
+      <c r="E824" s="31"/>
     </row>
     <row r="825">
-      <c r="E825" s="30"/>
+      <c r="E825" s="31"/>
     </row>
     <row r="826">
-      <c r="E826" s="30"/>
+      <c r="E826" s="31"/>
     </row>
     <row r="827">
-      <c r="E827" s="30"/>
+      <c r="E827" s="31"/>
     </row>
     <row r="828">
-      <c r="E828" s="30"/>
+      <c r="E828" s="31"/>
     </row>
     <row r="829">
-      <c r="E829" s="30"/>
+      <c r="E829" s="31"/>
     </row>
     <row r="830">
-      <c r="E830" s="30"/>
+      <c r="E830" s="31"/>
     </row>
     <row r="831">
-      <c r="E831" s="30"/>
+      <c r="E831" s="31"/>
     </row>
     <row r="832">
-      <c r="E832" s="30"/>
+      <c r="E832" s="31"/>
     </row>
     <row r="833">
-      <c r="E833" s="30"/>
+      <c r="E833" s="31"/>
     </row>
     <row r="834">
-      <c r="E834" s="30"/>
+      <c r="E834" s="31"/>
     </row>
     <row r="835">
-      <c r="E835" s="30"/>
+      <c r="E835" s="31"/>
     </row>
     <row r="836">
-      <c r="E836" s="30"/>
+      <c r="E836" s="31"/>
     </row>
     <row r="837">
-      <c r="E837" s="30"/>
+      <c r="E837" s="31"/>
     </row>
     <row r="838">
-      <c r="E838" s="30"/>
+      <c r="E838" s="31"/>
     </row>
     <row r="839">
-      <c r="E839" s="30"/>
+      <c r="E839" s="31"/>
     </row>
     <row r="840">
-      <c r="E840" s="30"/>
+      <c r="E840" s="31"/>
     </row>
     <row r="841">
-      <c r="E841" s="30"/>
+      <c r="E841" s="31"/>
     </row>
     <row r="842">
-      <c r="E842" s="30"/>
+      <c r="E842" s="31"/>
     </row>
     <row r="843">
-      <c r="E843" s="30"/>
+      <c r="E843" s="31"/>
     </row>
     <row r="844">
-      <c r="E844" s="30"/>
+      <c r="E844" s="31"/>
     </row>
     <row r="845">
-      <c r="E845" s="30"/>
+      <c r="E845" s="31"/>
     </row>
     <row r="846">
-      <c r="E846" s="30"/>
+      <c r="E846" s="31"/>
     </row>
     <row r="847">
-      <c r="E847" s="30"/>
+      <c r="E847" s="31"/>
     </row>
     <row r="848">
-      <c r="E848" s="30"/>
+      <c r="E848" s="31"/>
     </row>
     <row r="849">
-      <c r="E849" s="30"/>
+      <c r="E849" s="31"/>
     </row>
     <row r="850">
-      <c r="E850" s="30"/>
+      <c r="E850" s="31"/>
     </row>
     <row r="851">
-      <c r="E851" s="30"/>
+      <c r="E851" s="31"/>
     </row>
     <row r="852">
-      <c r="E852" s="30"/>
+      <c r="E852" s="31"/>
     </row>
     <row r="853">
-      <c r="E853" s="30"/>
+      <c r="E853" s="31"/>
     </row>
     <row r="854">
-      <c r="E854" s="30"/>
+      <c r="E854" s="31"/>
     </row>
     <row r="855">
-      <c r="E855" s="30"/>
+      <c r="E855" s="31"/>
     </row>
     <row r="856">
-      <c r="E856" s="30"/>
+      <c r="E856" s="31"/>
     </row>
     <row r="857">
-      <c r="E857" s="30"/>
+      <c r="E857" s="31"/>
     </row>
     <row r="858">
-      <c r="E858" s="30"/>
+      <c r="E858" s="31"/>
     </row>
     <row r="859">
-      <c r="E859" s="30"/>
+      <c r="E859" s="31"/>
     </row>
     <row r="860">
-      <c r="E860" s="30"/>
+      <c r="E860" s="31"/>
     </row>
     <row r="861">
-      <c r="E861" s="30"/>
+      <c r="E861" s="31"/>
     </row>
     <row r="862">
-      <c r="E862" s="30"/>
+      <c r="E862" s="31"/>
     </row>
     <row r="863">
-      <c r="E863" s="30"/>
+      <c r="E863" s="31"/>
     </row>
     <row r="864">
-      <c r="E864" s="30"/>
+      <c r="E864" s="31"/>
     </row>
     <row r="865">
-      <c r="E865" s="30"/>
+      <c r="E865" s="31"/>
     </row>
     <row r="866">
-      <c r="E866" s="30"/>
+      <c r="E866" s="31"/>
     </row>
     <row r="867">
-      <c r="E867" s="30"/>
+      <c r="E867" s="31"/>
     </row>
     <row r="868">
-      <c r="E868" s="30"/>
+      <c r="E868" s="31"/>
     </row>
     <row r="869">
-      <c r="E869" s="30"/>
+      <c r="E869" s="31"/>
     </row>
     <row r="870">
-      <c r="E870" s="30"/>
+      <c r="E870" s="31"/>
     </row>
     <row r="871">
-      <c r="E871" s="30"/>
+      <c r="E871" s="31"/>
     </row>
     <row r="872">
-      <c r="E872" s="30"/>
+      <c r="E872" s="31"/>
     </row>
     <row r="873">
-      <c r="E873" s="30"/>
+      <c r="E873" s="31"/>
     </row>
     <row r="874">
-      <c r="E874" s="30"/>
+      <c r="E874" s="31"/>
     </row>
     <row r="875">
-      <c r="E875" s="30"/>
+      <c r="E875" s="31"/>
     </row>
     <row r="876">
-      <c r="E876" s="30"/>
+      <c r="E876" s="31"/>
     </row>
     <row r="877">
-      <c r="E877" s="30"/>
+      <c r="E877" s="31"/>
     </row>
     <row r="878">
-      <c r="E878" s="30"/>
+      <c r="E878" s="31"/>
     </row>
     <row r="879">
-      <c r="E879" s="30"/>
+      <c r="E879" s="31"/>
     </row>
     <row r="880">
-      <c r="E880" s="30"/>
+      <c r="E880" s="31"/>
     </row>
     <row r="881">
-      <c r="E881" s="30"/>
+      <c r="E881" s="31"/>
     </row>
     <row r="882">
-      <c r="E882" s="30"/>
+      <c r="E882" s="31"/>
     </row>
     <row r="883">
-      <c r="E883" s="30"/>
+      <c r="E883" s="31"/>
     </row>
     <row r="884">
-      <c r="E884" s="30"/>
+      <c r="E884" s="31"/>
     </row>
     <row r="885">
-      <c r="E885" s="30"/>
+      <c r="E885" s="31"/>
     </row>
     <row r="886">
-      <c r="E886" s="30"/>
+      <c r="E886" s="31"/>
     </row>
     <row r="887">
-      <c r="E887" s="30"/>
+      <c r="E887" s="31"/>
     </row>
     <row r="888">
-      <c r="E888" s="30"/>
+      <c r="E888" s="31"/>
     </row>
     <row r="889">
-      <c r="E889" s="30"/>
+      <c r="E889" s="31"/>
     </row>
     <row r="890">
-      <c r="E890" s="30"/>
+      <c r="E890" s="31"/>
     </row>
     <row r="891">
-      <c r="E891" s="30"/>
+      <c r="E891" s="31"/>
     </row>
     <row r="892">
-      <c r="E892" s="30"/>
+      <c r="E892" s="31"/>
     </row>
     <row r="893">
-      <c r="E893" s="30"/>
+      <c r="E893" s="31"/>
     </row>
     <row r="894">
-      <c r="E894" s="30"/>
+      <c r="E894" s="31"/>
     </row>
     <row r="895">
-      <c r="E895" s="30"/>
+      <c r="E895" s="31"/>
     </row>
     <row r="896">
-      <c r="E896" s="30"/>
+      <c r="E896" s="31"/>
     </row>
     <row r="897">
-      <c r="E897" s="30"/>
+      <c r="E897" s="31"/>
     </row>
     <row r="898">
-      <c r="E898" s="30"/>
+      <c r="E898" s="31"/>
     </row>
     <row r="899">
-      <c r="E899" s="30"/>
+      <c r="E899" s="31"/>
     </row>
     <row r="900">
-      <c r="E900" s="30"/>
+      <c r="E900" s="31"/>
     </row>
     <row r="901">
-      <c r="E901" s="30"/>
+      <c r="E901" s="31"/>
     </row>
     <row r="902">
-      <c r="E902" s="30"/>
+      <c r="E902" s="31"/>
     </row>
     <row r="903">
-      <c r="E903" s="30"/>
+      <c r="E903" s="31"/>
     </row>
     <row r="904">
-      <c r="E904" s="30"/>
+      <c r="E904" s="31"/>
     </row>
     <row r="905">
-      <c r="E905" s="30"/>
+      <c r="E905" s="31"/>
     </row>
     <row r="906">
-      <c r="E906" s="30"/>
+      <c r="E906" s="31"/>
     </row>
     <row r="907">
-      <c r="E907" s="30"/>
+      <c r="E907" s="31"/>
     </row>
     <row r="908">
-      <c r="E908" s="30"/>
+      <c r="E908" s="31"/>
     </row>
     <row r="909">
-      <c r="E909" s="30"/>
+      <c r="E909" s="31"/>
     </row>
     <row r="910">
-      <c r="E910" s="30"/>
+      <c r="E910" s="31"/>
     </row>
     <row r="911">
-      <c r="E911" s="30"/>
+      <c r="E911" s="31"/>
     </row>
     <row r="912">
-      <c r="E912" s="30"/>
+      <c r="E912" s="31"/>
     </row>
     <row r="913">
-      <c r="E913" s="30"/>
+      <c r="E913" s="31"/>
     </row>
     <row r="914">
-      <c r="E914" s="30"/>
+      <c r="E914" s="31"/>
     </row>
     <row r="915">
-      <c r="E915" s="30"/>
+      <c r="E915" s="31"/>
     </row>
     <row r="916">
-      <c r="E916" s="30"/>
+      <c r="E916" s="31"/>
     </row>
     <row r="917">
-      <c r="E917" s="30"/>
+      <c r="E917" s="31"/>
     </row>
     <row r="918">
-      <c r="E918" s="30"/>
+      <c r="E918" s="31"/>
     </row>
     <row r="919">
-      <c r="E919" s="30"/>
+      <c r="E919" s="31"/>
     </row>
     <row r="920">
-      <c r="E920" s="30"/>
+      <c r="E920" s="31"/>
     </row>
     <row r="921">
-      <c r="E921" s="30"/>
+      <c r="E921" s="31"/>
     </row>
     <row r="922">
-      <c r="E922" s="30"/>
+      <c r="E922" s="31"/>
     </row>
     <row r="923">
-      <c r="E923" s="30"/>
+      <c r="E923" s="31"/>
     </row>
     <row r="924">
-      <c r="E924" s="30"/>
+      <c r="E924" s="31"/>
     </row>
     <row r="925">
-      <c r="E925" s="30"/>
+      <c r="E925" s="31"/>
     </row>
     <row r="926">
-      <c r="E926" s="30"/>
+      <c r="E926" s="31"/>
     </row>
     <row r="927">
-      <c r="E927" s="30"/>
+      <c r="E927" s="31"/>
     </row>
     <row r="928">
-      <c r="E928" s="30"/>
+      <c r="E928" s="31"/>
     </row>
     <row r="929">
-      <c r="E929" s="30"/>
+      <c r="E929" s="31"/>
     </row>
     <row r="930">
-      <c r="E930" s="30"/>
+      <c r="E930" s="31"/>
     </row>
     <row r="931">
-      <c r="E931" s="30"/>
+      <c r="E931" s="31"/>
     </row>
     <row r="932">
-      <c r="E932" s="30"/>
+      <c r="E932" s="31"/>
     </row>
     <row r="933">
-      <c r="E933" s="30"/>
+      <c r="E933" s="31"/>
     </row>
     <row r="934">
-      <c r="E934" s="30"/>
+      <c r="E934" s="31"/>
     </row>
     <row r="935">
-      <c r="E935" s="30"/>
+      <c r="E935" s="31"/>
     </row>
     <row r="936">
-      <c r="E936" s="30"/>
+      <c r="E936" s="31"/>
     </row>
     <row r="937">
-      <c r="E937" s="30"/>
+      <c r="E937" s="31"/>
     </row>
     <row r="938">
-      <c r="E938" s="30"/>
+      <c r="E938" s="31"/>
     </row>
     <row r="939">
-      <c r="E939" s="30"/>
+      <c r="E939" s="31"/>
     </row>
     <row r="940">
-      <c r="E940" s="30"/>
+      <c r="E940" s="31"/>
     </row>
     <row r="941">
-      <c r="E941" s="30"/>
+      <c r="E941" s="31"/>
     </row>
     <row r="942">
-      <c r="E942" s="30"/>
+      <c r="E942" s="31"/>
     </row>
     <row r="943">
-      <c r="E943" s="30"/>
+      <c r="E943" s="31"/>
     </row>
     <row r="944">
-      <c r="E944" s="30"/>
+      <c r="E944" s="31"/>
     </row>
     <row r="945">
-      <c r="E945" s="30"/>
+      <c r="E945" s="31"/>
     </row>
     <row r="946">
-      <c r="E946" s="30"/>
+      <c r="E946" s="31"/>
     </row>
     <row r="947">
-      <c r="E947" s="30"/>
+      <c r="E947" s="31"/>
     </row>
     <row r="948">
-      <c r="E948" s="30"/>
+      <c r="E948" s="31"/>
     </row>
     <row r="949">
-      <c r="E949" s="30"/>
+      <c r="E949" s="31"/>
     </row>
     <row r="950">
-      <c r="E950" s="30"/>
+      <c r="E950" s="31"/>
     </row>
     <row r="951">
-      <c r="E951" s="30"/>
+      <c r="E951" s="31"/>
     </row>
     <row r="952">
-      <c r="E952" s="30"/>
+      <c r="E952" s="31"/>
     </row>
     <row r="953">
-      <c r="E953" s="30"/>
+      <c r="E953" s="31"/>
     </row>
     <row r="954">
-      <c r="E954" s="30"/>
+      <c r="E954" s="31"/>
     </row>
     <row r="955">
-      <c r="E955" s="30"/>
+      <c r="E955" s="31"/>
     </row>
     <row r="956">
-      <c r="E956" s="30"/>
+      <c r="E956" s="31"/>
     </row>
     <row r="957">
-      <c r="E957" s="30"/>
+      <c r="E957" s="31"/>
     </row>
     <row r="958">
-      <c r="E958" s="30"/>
+      <c r="E958" s="31"/>
     </row>
     <row r="959">
-      <c r="E959" s="30"/>
+      <c r="E959" s="31"/>
     </row>
     <row r="960">
-      <c r="E960" s="30"/>
+      <c r="E960" s="31"/>
     </row>
     <row r="961">
-      <c r="E961" s="30"/>
+      <c r="E961" s="31"/>
     </row>
     <row r="962">
-      <c r="E962" s="30"/>
+      <c r="E962" s="31"/>
     </row>
     <row r="963">
-      <c r="E963" s="30"/>
+      <c r="E963" s="31"/>
     </row>
     <row r="964">
-      <c r="E964" s="30"/>
+      <c r="E964" s="31"/>
     </row>
     <row r="965">
-      <c r="E965" s="30"/>
+      <c r="E965" s="31"/>
     </row>
     <row r="966">
-      <c r="E966" s="30"/>
+      <c r="E966" s="31"/>
     </row>
     <row r="967">
-      <c r="E967" s="30"/>
+      <c r="E967" s="31"/>
     </row>
     <row r="968">
-      <c r="E968" s="30"/>
+      <c r="E968" s="31"/>
     </row>
     <row r="969">
-      <c r="E969" s="30"/>
+      <c r="E969" s="31"/>
     </row>
     <row r="970">
-      <c r="E970" s="30"/>
+      <c r="E970" s="31"/>
     </row>
     <row r="971">
-      <c r="E971" s="30"/>
+      <c r="E971" s="31"/>
     </row>
     <row r="972">
-      <c r="E972" s="30"/>
+      <c r="E972" s="31"/>
     </row>
     <row r="973">
-      <c r="E973" s="30"/>
+      <c r="E973" s="31"/>
     </row>
     <row r="974">
-      <c r="E974" s="30"/>
+      <c r="E974" s="31"/>
     </row>
     <row r="975">
-      <c r="E975" s="30"/>
+      <c r="E975" s="31"/>
     </row>
     <row r="976">
-      <c r="E976" s="30"/>
+      <c r="E976" s="31"/>
     </row>
     <row r="977">
-      <c r="E977" s="30"/>
+      <c r="E977" s="31"/>
     </row>
     <row r="978">
-      <c r="E978" s="30"/>
+      <c r="E978" s="31"/>
     </row>
     <row r="979">
-      <c r="E979" s="30"/>
+      <c r="E979" s="31"/>
     </row>
     <row r="980">
-      <c r="E980" s="30"/>
+      <c r="E980" s="31"/>
     </row>
     <row r="981">
-      <c r="E981" s="30"/>
+      <c r="E981" s="31"/>
     </row>
     <row r="982">
-      <c r="E982" s="30"/>
+      <c r="E982" s="31"/>
     </row>
     <row r="983">
-      <c r="E983" s="30"/>
+      <c r="E983" s="31"/>
     </row>
     <row r="984">
-      <c r="E984" s="30"/>
+      <c r="E984" s="31"/>
     </row>
     <row r="985">
-      <c r="E985" s="30"/>
+      <c r="E985" s="31"/>
     </row>
     <row r="986">
-      <c r="E986" s="30"/>
+      <c r="E986" s="31"/>
     </row>
     <row r="987">
-      <c r="E987" s="30"/>
+      <c r="E987" s="31"/>
     </row>
     <row r="988">
-      <c r="E988" s="30"/>
+      <c r="E988" s="31"/>
     </row>
     <row r="989">
-      <c r="E989" s="30"/>
+      <c r="E989" s="31"/>
     </row>
     <row r="990">
-      <c r="E990" s="30"/>
+      <c r="E990" s="31"/>
     </row>
     <row r="991">
-      <c r="E991" s="30"/>
+      <c r="E991" s="31"/>
     </row>
     <row r="992">
-      <c r="E992" s="30"/>
+      <c r="E992" s="31"/>
     </row>
     <row r="993">
-      <c r="E993" s="30"/>
+      <c r="E993" s="31"/>
     </row>
     <row r="994">
-      <c r="E994" s="30"/>
+      <c r="E994" s="31"/>
     </row>
     <row r="995">
-      <c r="E995" s="30"/>
+      <c r="E995" s="31"/>
     </row>
     <row r="996">
-      <c r="E996" s="30"/>
+      <c r="E996" s="31"/>
     </row>
     <row r="997">
-      <c r="E997" s="30"/>
+      <c r="E997" s="31"/>
     </row>
     <row r="998">
-      <c r="E998" s="30"/>
+      <c r="E998" s="31"/>
     </row>
     <row r="999">
-      <c r="E999" s="30"/>
+      <c r="E999" s="31"/>
     </row>
     <row r="1000">
-      <c r="E1000" s="30"/>
+      <c r="E1000" s="31"/>
     </row>
     <row r="1001">
-      <c r="E1001" s="30"/>
+      <c r="E1001" s="31"/>
     </row>
     <row r="1002">
-      <c r="E1002" s="30"/>
+      <c r="E1002" s="31"/>
     </row>
     <row r="1003">
-      <c r="E1003" s="30"/>
+      <c r="E1003" s="31"/>
     </row>
     <row r="1004">
-      <c r="E1004" s="30"/>
+      <c r="E1004" s="31"/>
     </row>
     <row r="1005">
-      <c r="E1005" s="30"/>
+      <c r="E1005" s="31"/>
     </row>
     <row r="1006">
-      <c r="E1006" s="30"/>
+      <c r="E1006" s="31"/>
     </row>
     <row r="1007">
-      <c r="E1007" s="30"/>
+      <c r="E1007" s="31"/>
     </row>
     <row r="1008">
-      <c r="E1008" s="30"/>
+      <c r="E1008" s="31"/>
     </row>
     <row r="1009">
-      <c r="E1009" s="30"/>
+      <c r="E1009" s="31"/>
     </row>
     <row r="1010">
-      <c r="E1010" s="30"/>
+      <c r="E1010" s="31"/>
     </row>
     <row r="1011">
-      <c r="E1011" s="30"/>
+      <c r="E1011" s="31"/>
     </row>
     <row r="1012">
-      <c r="E1012" s="30"/>
+      <c r="E1012" s="31"/>
     </row>
     <row r="1013">
-      <c r="E1013" s="30"/>
+      <c r="E1013" s="31"/>
     </row>
     <row r="1014">
-      <c r="E1014" s="30"/>
+      <c r="E1014" s="31"/>
     </row>
     <row r="1015">
-      <c r="E1015" s="30"/>
+      <c r="E1015" s="31"/>
     </row>
     <row r="1016">
-      <c r="E1016" s="30"/>
+      <c r="E1016" s="31"/>
     </row>
     <row r="1017">
-      <c r="E1017" s="30"/>
+      <c r="E1017" s="31"/>
     </row>
     <row r="1018">
-      <c r="E1018" s="30"/>
+      <c r="E1018" s="31"/>
     </row>
     <row r="1019">
-      <c r="E1019" s="30"/>
+      <c r="E1019" s="31"/>
     </row>
     <row r="1020">
-      <c r="E1020" s="30"/>
+      <c r="E1020" s="31"/>
     </row>
     <row r="1021">
-      <c r="E1021" s="30"/>
+      <c r="E1021" s="31"/>
     </row>
     <row r="1022">
-      <c r="E1022" s="30"/>
+      <c r="E1022" s="31"/>
     </row>
     <row r="1023">
-      <c r="E1023" s="30"/>
+      <c r="E1023" s="31"/>
     </row>
     <row r="1024">
-      <c r="E1024" s="30"/>
+      <c r="E1024" s="31"/>
     </row>
     <row r="1025">
-      <c r="E1025" s="30"/>
+      <c r="E1025" s="31"/>
     </row>
     <row r="1026">
-      <c r="E1026" s="30"/>
+      <c r="E1026" s="31"/>
     </row>
     <row r="1027">
-      <c r="E1027" s="30"/>
+      <c r="E1027" s="31"/>
     </row>
     <row r="1028">
-      <c r="E1028" s="30"/>
+      <c r="E1028" s="31"/>
     </row>
     <row r="1029">
-      <c r="E1029" s="30"/>
+      <c r="E1029" s="31"/>
     </row>
     <row r="1030">
-      <c r="E1030" s="30"/>
+      <c r="E1030" s="31"/>
     </row>
     <row r="1031">
-      <c r="E1031" s="30"/>
+      <c r="E1031" s="31"/>
     </row>
     <row r="1032">
-      <c r="E1032" s="30"/>
+      <c r="E1032" s="31"/>
     </row>
     <row r="1033">
-      <c r="E1033" s="30"/>
+      <c r="E1033" s="31"/>
     </row>
     <row r="1034">
-      <c r="E1034" s="30"/>
+      <c r="E1034" s="31"/>
     </row>
     <row r="1035">
-      <c r="E1035" s="30"/>
+      <c r="E1035" s="31"/>
     </row>
     <row r="1036">
-      <c r="E1036" s="30"/>
+      <c r="E1036" s="31"/>
     </row>
     <row r="1037">
-      <c r="E1037" s="30"/>
+      <c r="E1037" s="31"/>
     </row>
     <row r="1038">
-      <c r="E1038" s="30"/>
+      <c r="E1038" s="31"/>
     </row>
     <row r="1039">
-      <c r="E1039" s="30"/>
+      <c r="E1039" s="31"/>
     </row>
     <row r="1040">
-      <c r="E1040" s="30"/>
+      <c r="E1040" s="31"/>
     </row>
     <row r="1041">
-      <c r="E1041" s="30"/>
+      <c r="E1041" s="31"/>
     </row>
     <row r="1042">
-      <c r="E1042" s="30"/>
+      <c r="E1042" s="31"/>
     </row>
     <row r="1043">
-      <c r="E1043" s="30"/>
+      <c r="E1043" s="31"/>
     </row>
     <row r="1044">
-      <c r="E1044" s="30"/>
+      <c r="E1044" s="31"/>
     </row>
     <row r="1045">
-      <c r="E1045" s="30"/>
+      <c r="E1045" s="31"/>
     </row>
     <row r="1046">
-      <c r="E1046" s="30"/>
+      <c r="E1046" s="31"/>
     </row>
     <row r="1047">
-      <c r="E1047" s="30"/>
+      <c r="E1047" s="31"/>
     </row>
     <row r="1048">
-      <c r="E1048" s="30"/>
+      <c r="E1048" s="31"/>
     </row>
     <row r="1049">
-      <c r="E1049" s="30"/>
+      <c r="E1049" s="31"/>
     </row>
     <row r="1050">
-      <c r="E1050" s="30"/>
+      <c r="E1050" s="31"/>
     </row>
     <row r="1051">
-      <c r="E1051" s="30"/>
+      <c r="E1051" s="31"/>
     </row>
     <row r="1052">
-      <c r="E1052" s="30"/>
+      <c r="E1052" s="31"/>
     </row>
     <row r="1053">
-      <c r="E1053" s="30"/>
+      <c r="E1053" s="31"/>
     </row>
     <row r="1054">
-      <c r="E1054" s="30"/>
+      <c r="E1054" s="31"/>
     </row>
     <row r="1055">
-      <c r="E1055" s="30"/>
+      <c r="E1055" s="31"/>
     </row>
     <row r="1056">
-      <c r="E1056" s="30"/>
+      <c r="E1056" s="31"/>
     </row>
     <row r="1057">
-      <c r="E1057" s="30"/>
+      <c r="E1057" s="31"/>
     </row>
     <row r="1058">
-      <c r="E1058" s="30"/>
+      <c r="E1058" s="31"/>
     </row>
     <row r="1059">
-      <c r="E1059" s="30"/>
+      <c r="E1059" s="31"/>
     </row>
     <row r="1060">
-      <c r="E1060" s="30"/>
+      <c r="E1060" s="31"/>
     </row>
     <row r="1061">
-      <c r="E1061" s="30"/>
+      <c r="E1061" s="31"/>
     </row>
     <row r="1062">
-      <c r="E1062" s="30"/>
+      <c r="E1062" s="31"/>
     </row>
     <row r="1063">
-      <c r="E1063" s="30"/>
+      <c r="E1063" s="31"/>
     </row>
     <row r="1064">
-      <c r="E1064" s="30"/>
+      <c r="E1064" s="31"/>
     </row>
     <row r="1065">
-      <c r="E1065" s="30"/>
+      <c r="E1065" s="31"/>
     </row>
     <row r="1066">
-      <c r="E1066" s="30"/>
+      <c r="E1066" s="31"/>
     </row>
     <row r="1067">
-      <c r="E1067" s="30"/>
+      <c r="E1067" s="31"/>
     </row>
     <row r="1068">
-      <c r="E1068" s="30"/>
+      <c r="E1068" s="31"/>
     </row>
     <row r="1069">
-      <c r="E1069" s="30"/>
+      <c r="E1069" s="31"/>
     </row>
     <row r="1070">
-      <c r="E1070" s="30"/>
+      <c r="E1070" s="31"/>
     </row>
     <row r="1071">
-      <c r="E1071" s="30"/>
+      <c r="E1071" s="31"/>
     </row>
     <row r="1072">
-      <c r="E1072" s="30"/>
+      <c r="E1072" s="31"/>
     </row>
     <row r="1073">
-      <c r="E1073" s="30"/>
+      <c r="E1073" s="31"/>
     </row>
     <row r="1074">
-      <c r="E1074" s="30"/>
+      <c r="E1074" s="31"/>
     </row>
     <row r="1075">
-      <c r="E1075" s="30"/>
+      <c r="E1075" s="31"/>
     </row>
     <row r="1076">
-      <c r="E1076" s="30"/>
+      <c r="E1076" s="31"/>
     </row>
     <row r="1077">
-      <c r="E1077" s="30"/>
+      <c r="E1077" s="31"/>
     </row>
     <row r="1078">
-      <c r="E1078" s="30"/>
+      <c r="E1078" s="31"/>
     </row>
     <row r="1079">
-      <c r="E1079" s="30"/>
+      <c r="E1079" s="31"/>
     </row>
     <row r="1080">
-      <c r="E1080" s="30"/>
+      <c r="E1080" s="31"/>
     </row>
     <row r="1081">
-      <c r="E1081" s="30"/>
+      <c r="E1081" s="31"/>
     </row>
     <row r="1082">
-      <c r="E1082" s="30"/>
+      <c r="E1082" s="31"/>
     </row>
     <row r="1083">
-      <c r="E1083" s="30"/>
+      <c r="E1083" s="31"/>
     </row>
     <row r="1084">
-      <c r="E1084" s="30"/>
+      <c r="E1084" s="31"/>
     </row>
     <row r="1085">
-      <c r="E1085" s="30"/>
+      <c r="E1085" s="31"/>
     </row>
     <row r="1086">
-      <c r="E1086" s="30"/>
+      <c r="E1086" s="31"/>
     </row>
     <row r="1087">
-      <c r="E1087" s="30"/>
+      <c r="E1087" s="31"/>
     </row>
     <row r="1088">
-      <c r="E1088" s="30"/>
+      <c r="E1088" s="31"/>
     </row>
     <row r="1089">
-      <c r="E1089" s="30"/>
+      <c r="E1089" s="31"/>
     </row>
     <row r="1090">
-      <c r="E1090" s="30"/>
+      <c r="E1090" s="31"/>
     </row>
     <row r="1091">
-      <c r="E1091" s="30"/>
+      <c r="E1091" s="31"/>
     </row>
     <row r="1092">
-      <c r="E1092" s="30"/>
+      <c r="E1092" s="31"/>
     </row>
     <row r="1093">
-      <c r="E1093" s="30"/>
+      <c r="E1093" s="31"/>
     </row>
     <row r="1094">
-      <c r="E1094" s="30"/>
+      <c r="E1094" s="31"/>
     </row>
     <row r="1095">
-      <c r="E1095" s="30"/>
+      <c r="E1095" s="31"/>
     </row>
     <row r="1096">
-      <c r="E1096" s="30"/>
+      <c r="E1096" s="31"/>
     </row>
     <row r="1097">
-      <c r="E1097" s="30"/>
+      <c r="E1097" s="31"/>
     </row>
     <row r="1098">
-      <c r="E1098" s="30"/>
+      <c r="E1098" s="31"/>
     </row>
     <row r="1099">
-      <c r="E1099" s="30"/>
+      <c r="E1099" s="31"/>
     </row>
     <row r="1100">
-      <c r="E1100" s="30"/>
+      <c r="E1100" s="31"/>
     </row>
     <row r="1101">
-      <c r="E1101" s="30"/>
+      <c r="E1101" s="31"/>
     </row>
     <row r="1102">
-      <c r="E1102" s="30"/>
+      <c r="E1102" s="31"/>
     </row>
     <row r="1103">
-      <c r="E1103" s="30"/>
+      <c r="E1103" s="31"/>
     </row>
     <row r="1104">
-      <c r="E1104" s="30"/>
+      <c r="E1104" s="31"/>
     </row>
     <row r="1105">
-      <c r="E1105" s="30"/>
+      <c r="E1105" s="31"/>
     </row>
     <row r="1106">
-      <c r="E1106" s="30"/>
+      <c r="E1106" s="31"/>
     </row>
     <row r="1107">
-      <c r="E1107" s="30"/>
+      <c r="E1107" s="31"/>
     </row>
     <row r="1108">
-      <c r="E1108" s="30"/>
+      <c r="E1108" s="31"/>
     </row>
     <row r="1109">
-      <c r="E1109" s="30"/>
+      <c r="E1109" s="31"/>
     </row>
     <row r="1110">
-      <c r="E1110" s="30"/>
+      <c r="E1110" s="31"/>
     </row>
     <row r="1111">
-      <c r="E1111" s="30"/>
+      <c r="E1111" s="31"/>
     </row>
     <row r="1112">
-      <c r="E1112" s="30"/>
+      <c r="E1112" s="31"/>
     </row>
     <row r="1113">
-      <c r="E1113" s="30"/>
+      <c r="E1113" s="31"/>
     </row>
     <row r="1114">
-      <c r="E1114" s="30"/>
+      <c r="E1114" s="31"/>
     </row>
     <row r="1115">
-      <c r="E1115" s="30"/>
+      <c r="E1115" s="31"/>
     </row>
     <row r="1116">
-      <c r="E1116" s="30"/>
+      <c r="E1116" s="31"/>
     </row>
     <row r="1117">
-      <c r="E1117" s="30"/>
+      <c r="E1117" s="31"/>
     </row>
     <row r="1118">
-      <c r="E1118" s="30"/>
+      <c r="E1118" s="31"/>
     </row>
     <row r="1119">
-      <c r="E1119" s="30"/>
+      <c r="E1119" s="31"/>
     </row>
     <row r="1120">
-      <c r="E1120" s="30"/>
+      <c r="E1120" s="31"/>
+    </row>
+    <row r="1121">
+      <c r="E1121" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B1"/>
     <hyperlink r:id="rId2" ref="C3"/>
     <hyperlink r:id="rId3" ref="C4"/>
-    <hyperlink r:id="rId4" ref="B10"/>
+    <hyperlink r:id="rId4" ref="C5"/>
+    <hyperlink r:id="rId5" ref="B11"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -223,7 +223,7 @@
 Trading of electricity;
 Insurances;
 Purchase of consultancies;
-Responsability for the facilities;
+Responsibility for the facilities;
 O&amp;M strategy</t>
   </si>
   <si>
@@ -275,7 +275,7 @@
     <t>Rückabwicklung</t>
   </si>
   <si>
-    <t>wpl:8Decomissioning</t>
+    <t>wpl:8Decommissioning</t>
   </si>
   <si>
     <t>Planning of dismantling</t>
